--- a/ReportOut.xlsx
+++ b/ReportOut.xlsx
@@ -10,24 +10,29 @@
     <sheet name="CR6 - 5.6" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$81</definedName>
+    <definedName name="_xlnm.Print_Area_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CR6 - 5.6'!$A$1:$AR$84</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>Fabricación, Montaje, Mantención y Reparación</t>
   </si>
@@ -131,31 +136,22 @@
     <t>Cambio de Caps (60cu)</t>
   </si>
   <si>
-    <t>Marcado de Caps 3</t>
-  </si>
-  <si>
-    <t>16 April, 2017, 10:26 pm</t>
-  </si>
-  <si>
-    <t>16 April, 2017, 12:26 am</t>
+    <t>30 May, 2017, 2:58 pm</t>
   </si>
   <si>
     <t>Marcado de Caps</t>
   </si>
   <si>
-    <t>30 May, 2017, 2:58 pm</t>
+    <t>Marcado de Caps 3</t>
   </si>
   <si>
-    <t>Otro3</t>
+    <t>Marcado de Caps 4</t>
   </si>
   <si>
-    <t>Otro4</t>
+    <t>Marcado de Caps 5</t>
   </si>
   <si>
-    <t>Otro5</t>
-  </si>
-  <si>
-    <t>Otro6</t>
+    <t>Marcado de Caps 6</t>
   </si>
   <si>
     <t>PARA DETALLES VER EN ESQUEMAS PROXIMA PAGINA</t>
@@ -170,10 +166,37 @@
     <t>1.-</t>
   </si>
   <si>
+    <t>1: Pf</t>
+  </si>
+  <si>
     <t>2.-</t>
   </si>
   <si>
+    <t>Marcado de Caps: Pf</t>
+  </si>
+  <si>
     <t>3.-</t>
+  </si>
+  <si>
+    <t>Marcado de Caps 3: Pf</t>
+  </si>
+  <si>
+    <t>4.-</t>
+  </si>
+  <si>
+    <t>Marcado de Caps 4: Pf</t>
+  </si>
+  <si>
+    <t>5.-</t>
+  </si>
+  <si>
+    <t>Marcado de Caps 5: Pf</t>
+  </si>
+  <si>
+    <t>6.-</t>
+  </si>
+  <si>
+    <t>Marcado de Caps 6: Pf</t>
   </si>
   <si>
     <t>REGISTRO FOTOGRÁFICO</t>
@@ -182,10 +205,22 @@
     <t>Foto 1:</t>
   </si>
   <si>
+    <t>leyenda 2</t>
+  </si>
+  <si>
     <t>Foto 2:</t>
   </si>
   <si>
     <t>Foto 3:</t>
+  </si>
+  <si>
+    <t>Foto 4:</t>
+  </si>
+  <si>
+    <t>Foto 5:</t>
+  </si>
+  <si>
+    <t>Foto 6:</t>
   </si>
 </sst>
 </file>
@@ -638,14 +673,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -686,11 +713,19 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -931,35 +966,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="25" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,7 +1010,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -995,11 +1018,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,9 +1044,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1343025" cy="647700"/>
     <xdr:pic>
@@ -1047,9 +1074,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2447925" cy="542925"/>
     <xdr:pic>
@@ -1077,9 +1104,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1352550" cy="676275"/>
     <xdr:pic>
@@ -1107,9 +1134,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1838325" cy="561975"/>
     <xdr:pic>
@@ -1136,15 +1163,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7143750</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1685925" cy="2228850"/>
+    <xdr:ext cx="4381500" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Sample image" descr="Sample image"/>
+        <xdr:cNvPr id="5" name="Foto Trabajo 1" descr="Trabajo 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1166,15 +1193,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9048750</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1685925" cy="2228850"/>
+    <xdr:ext cx="4381500" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Sample image" descr="Sample image"/>
+        <xdr:cNvPr id="6" name="Foto Trabajo 2" descr="Trabajo 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1196,15 +1223,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5715000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9048750</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1685925" cy="2228850"/>
+    <xdr:ext cx="4381500" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Sample image" descr="Sample image"/>
+        <xdr:cNvPr id="7" name="Foto Trabajo 3" descr="Trabajo 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1226,15 +1253,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>10001250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1685925" cy="2228850"/>
+    <xdr:ext cx="4381500" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Sample image" descr="Sample image"/>
+        <xdr:cNvPr id="8" name="Foto Trabajo 4" descr="Trabajo 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1256,15 +1283,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4762500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>10001250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1685925" cy="2228850"/>
+    <xdr:ext cx="4381500" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Sample image" descr="Sample image"/>
+        <xdr:cNvPr id="9" name="Foto Trabajo 5" descr="Trabajo 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1286,15 +1313,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5715000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>10001250</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1685925" cy="2228850"/>
+    <xdr:ext cx="4381500" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Sample image" descr="Sample image"/>
+        <xdr:cNvPr id="10" name="Foto Trabajo 6" descr="Trabajo 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1609,10 +1636,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK80"/>
+  <dimension ref="A1:AMK83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AT12" sqref="AT12"/>
+      <selection activeCell="AD67" sqref="AD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1631,7 +1658,7 @@
     <col min="12" max="12" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="13" max="13" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="14" max="14" width="3.42914979757085" customWidth="true" style="1"/>
-    <col min="15" max="15" width="3.42914979757085" customWidth="true" style="1"/>
+    <col min="15" max="15" width="5.75708502024292" customWidth="true" style="1"/>
     <col min="16" max="16" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="17" max="17" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="18" max="18" width="3.42914979757085" customWidth="true" style="1"/>
@@ -1645,7 +1672,7 @@
     <col min="26" max="26" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="27" max="27" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="28" max="28" width="3.42914979757085" customWidth="true" style="1"/>
-    <col min="29" max="29" width="3.42914979757085" customWidth="true" style="1"/>
+    <col min="29" max="29" width="5.87854251012146" customWidth="true" style="1"/>
     <col min="30" max="30" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="31" max="31" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="32" max="32" width="3.42914979757085" customWidth="true" style="1"/>
@@ -1659,7 +1686,7 @@
     <col min="40" max="40" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="41" max="41" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="42" max="42" width="3.42914979757085" customWidth="true" style="1"/>
-    <col min="43" max="43" width="3.42914979757085" customWidth="true" style="1"/>
+    <col min="43" max="43" width="5.87854251012146" customWidth="true" style="1"/>
     <col min="44" max="44" width="3.42914979757085" customWidth="true" style="1"/>
     <col min="45" max="45" width="11.4251012145749" customWidth="true" style="1"/>
     <col min="46" max="46" width="11.4251012145749" customWidth="true" style="1"/>
@@ -2645,7 +2672,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -6841,6 +6867,7 @@
       <c r="AM6" s="10"/>
       <c r="AN6" s="10"/>
       <c r="AO6" s="10"/>
+      <c r="AP6"/>
       <c r="AQ6" s="11"/>
       <c r="AR6"/>
       <c r="AS6"/>
@@ -21272,6 +21299,39 @@
       <c r="AO20" s="42"/>
       <c r="AP20" s="42"/>
       <c r="AQ20" s="42"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
       <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
@@ -22226,8 +22286,8 @@
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="39" t="s">
-        <v>34</v>
+      <c r="E21" s="39">
+        <v>1</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -22252,7 +22312,7 @@
       <c r="Z21" s="39"/>
       <c r="AA21" s="39"/>
       <c r="AB21" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC21" s="45"/>
       <c r="AD21" s="45"/>
@@ -22260,7 +22320,7 @@
       <c r="AF21" s="45"/>
       <c r="AG21" s="45"/>
       <c r="AH21" s="45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI21" s="45"/>
       <c r="AJ21" s="45"/>
@@ -22268,11 +22328,44 @@
       <c r="AL21" s="45"/>
       <c r="AM21" s="45"/>
       <c r="AN21" s="46">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AO21" s="46"/>
       <c r="AP21" s="46"/>
       <c r="AQ21" s="46"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21"/>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
       <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
@@ -23223,11 +23316,12 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" spans="1:1025" customHeight="1" ht="15">
+      <c r="A22"/>
       <c r="B22" s="43"/>
       <c r="C22" s="44"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
@@ -23252,7 +23346,7 @@
       <c r="Z22" s="39"/>
       <c r="AA22" s="39"/>
       <c r="AB22" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC22" s="47"/>
       <c r="AD22" s="47"/>
@@ -23260,7 +23354,7 @@
       <c r="AF22" s="47"/>
       <c r="AG22" s="47"/>
       <c r="AH22" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI22" s="47"/>
       <c r="AJ22" s="47"/>
@@ -23273,6 +23367,39 @@
       <c r="AO22" s="42"/>
       <c r="AP22" s="42"/>
       <c r="AQ22" s="42"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
+      <c r="BM22"/>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22"/>
+      <c r="BR22"/>
+      <c r="BS22"/>
+      <c r="BT22"/>
+      <c r="BU22"/>
+      <c r="BV22"/>
+      <c r="BW22"/>
+      <c r="BX22"/>
       <c r="BY22"/>
       <c r="BZ22"/>
       <c r="CA22"/>
@@ -24223,11 +24350,12 @@
       <c r="AMJ22"/>
     </row>
     <row r="23" spans="1:1025" customHeight="1" ht="15">
+      <c r="A23"/>
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
@@ -24252,7 +24380,7 @@
       <c r="Z23" s="39"/>
       <c r="AA23" s="39"/>
       <c r="AB23" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC23" s="47"/>
       <c r="AD23" s="47"/>
@@ -24260,7 +24388,7 @@
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI23" s="47"/>
       <c r="AJ23" s="47"/>
@@ -24273,6 +24401,39 @@
       <c r="AO23" s="42"/>
       <c r="AP23" s="42"/>
       <c r="AQ23" s="42"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23"/>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
+      <c r="BQ23"/>
+      <c r="BR23"/>
+      <c r="BS23"/>
+      <c r="BT23"/>
+      <c r="BU23"/>
+      <c r="BV23"/>
+      <c r="BW23"/>
+      <c r="BX23"/>
       <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
@@ -25227,7 +25388,7 @@
       <c r="C24" s="44"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
@@ -25252,7 +25413,7 @@
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC24" s="47"/>
       <c r="AD24" s="47"/>
@@ -25260,7 +25421,7 @@
       <c r="AF24" s="47"/>
       <c r="AG24" s="47"/>
       <c r="AH24" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI24" s="47"/>
       <c r="AJ24" s="47"/>
@@ -25311,7 +25472,7 @@
       <c r="C25" s="44"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
@@ -25336,7 +25497,7 @@
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
       <c r="AB25" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC25" s="47"/>
       <c r="AD25" s="47"/>
@@ -25344,7 +25505,7 @@
       <c r="AF25" s="47"/>
       <c r="AG25" s="47"/>
       <c r="AH25" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI25" s="47"/>
       <c r="AJ25" s="47"/>
@@ -25396,7 +25557,7 @@
       <c r="C26" s="44"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
@@ -25421,7 +25582,7 @@
       <c r="Z26" s="39"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC26" s="45"/>
       <c r="AD26" s="45"/>
@@ -25429,7 +25590,7 @@
       <c r="AF26" s="45"/>
       <c r="AG26" s="45"/>
       <c r="AH26" s="45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI26" s="45"/>
       <c r="AJ26" s="45"/>
@@ -25443,6 +25604,38 @@
       <c r="AP26" s="46"/>
       <c r="AQ26" s="46"/>
       <c r="AR26" s="10"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
+      <c r="BM26"/>
+      <c r="BN26"/>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26"/>
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26"/>
+      <c r="BU26"/>
+      <c r="BV26"/>
+      <c r="BW26"/>
+      <c r="BX26"/>
       <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
@@ -27463,6 +27656,38 @@
       <c r="AP28" s="46"/>
       <c r="AQ28" s="46"/>
       <c r="AR28" s="10"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+      <c r="BW28"/>
+      <c r="BX28"/>
       <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
@@ -28457,6 +28682,38 @@
       <c r="AP29" s="42"/>
       <c r="AQ29" s="42"/>
       <c r="AR29" s="10"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+      <c r="BW29"/>
+      <c r="BX29"/>
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
@@ -29451,6 +29708,38 @@
       <c r="AP30" s="42"/>
       <c r="AQ30" s="42"/>
       <c r="AR30" s="10"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+      <c r="BK30"/>
+      <c r="BL30"/>
+      <c r="BM30"/>
+      <c r="BN30"/>
+      <c r="BO30"/>
+      <c r="BP30"/>
+      <c r="BQ30"/>
+      <c r="BR30"/>
+      <c r="BS30"/>
+      <c r="BT30"/>
+      <c r="BU30"/>
+      <c r="BV30"/>
+      <c r="BW30"/>
+      <c r="BX30"/>
       <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
@@ -30445,6 +30734,38 @@
       <c r="AP31" s="46"/>
       <c r="AQ31" s="46"/>
       <c r="AR31" s="10"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31"/>
+      <c r="BN31"/>
+      <c r="BO31"/>
+      <c r="BP31"/>
+      <c r="BQ31"/>
+      <c r="BR31"/>
+      <c r="BS31"/>
+      <c r="BT31"/>
+      <c r="BU31"/>
+      <c r="BV31"/>
+      <c r="BW31"/>
+      <c r="BX31"/>
       <c r="BY31"/>
       <c r="BZ31"/>
       <c r="CA31"/>
@@ -31439,6 +31760,38 @@
       <c r="AP32" s="46"/>
       <c r="AQ32" s="46"/>
       <c r="AR32" s="10"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32"/>
+      <c r="BH32"/>
+      <c r="BI32"/>
+      <c r="BJ32"/>
+      <c r="BK32"/>
+      <c r="BL32"/>
+      <c r="BM32"/>
+      <c r="BN32"/>
+      <c r="BO32"/>
+      <c r="BP32"/>
+      <c r="BQ32"/>
+      <c r="BR32"/>
+      <c r="BS32"/>
+      <c r="BT32"/>
+      <c r="BU32"/>
+      <c r="BV32"/>
+      <c r="BW32"/>
+      <c r="BX32"/>
       <c r="BY32"/>
       <c r="BZ32"/>
       <c r="CA32"/>
@@ -42651,7 +43004,7 @@
     <row r="43" spans="1:1025" customHeight="1" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
@@ -43679,7 +44032,7 @@
     <row r="44" spans="1:1025" customHeight="1" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -43716,7 +44069,7 @@
       <c r="AI44" s="24"/>
       <c r="AJ44" s="24"/>
       <c r="AK44" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AL44" s="25"/>
       <c r="AM44" s="25"/>
@@ -44710,9 +45063,11 @@
       <c r="A45" s="10"/>
       <c r="B45" s="56"/>
       <c r="C45" s="57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
-      <c r="D45" s="57"/>
+      <c r="D45" s="57" t="s">
+        <v>44</v>
+      </c>
       <c r="E45" s="57"/>
       <c r="F45" s="58"/>
       <c r="G45" s="58"/>
@@ -45738,9 +46093,11 @@
       <c r="A46" s="10"/>
       <c r="B46" s="56"/>
       <c r="C46" s="57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="57" t="s">
+        <v>46</v>
+      </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
       <c r="G46" s="58"/>
@@ -45773,13 +46130,13 @@
       <c r="AH46" s="58"/>
       <c r="AI46" s="10"/>
       <c r="AJ46" s="10"/>
-      <c r="AK46" s="60"/>
-      <c r="AL46" s="60"/>
-      <c r="AM46" s="60"/>
-      <c r="AN46" s="60"/>
-      <c r="AO46" s="60"/>
-      <c r="AP46" s="60"/>
-      <c r="AQ46" s="60"/>
+      <c r="AK46" s="59"/>
+      <c r="AL46" s="59"/>
+      <c r="AM46" s="59"/>
+      <c r="AN46" s="59"/>
+      <c r="AO46" s="59"/>
+      <c r="AP46" s="59"/>
+      <c r="AQ46" s="59"/>
       <c r="AR46" s="10"/>
       <c r="AS46" s="10"/>
       <c r="AT46" s="10"/>
@@ -46764,50 +47121,52 @@
     </row>
     <row r="47" spans="1:1025" customHeight="1" ht="15">
       <c r="A47" s="10"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="62" t="s">
+      <c r="B47" s="56"/>
+      <c r="C47" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="62"/>
-      <c r="V47" s="62"/>
-      <c r="W47" s="62"/>
-      <c r="X47" s="62"/>
-      <c r="Y47" s="62"/>
-      <c r="Z47" s="62"/>
-      <c r="AA47" s="62"/>
-      <c r="AB47" s="62"/>
-      <c r="AC47" s="62"/>
-      <c r="AD47" s="62"/>
-      <c r="AE47" s="62"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="63"/>
-      <c r="AJ47" s="63"/>
-      <c r="AK47" s="64"/>
-      <c r="AL47" s="64"/>
-      <c r="AM47" s="64"/>
-      <c r="AN47" s="64"/>
-      <c r="AO47" s="64"/>
-      <c r="AP47" s="64"/>
-      <c r="AQ47" s="64"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="60"/>
+      <c r="Y47" s="60"/>
+      <c r="Z47" s="60"/>
+      <c r="AA47" s="60"/>
+      <c r="AB47" s="60"/>
+      <c r="AC47" s="60"/>
+      <c r="AD47" s="60"/>
+      <c r="AE47" s="60"/>
+      <c r="AF47" s="60"/>
+      <c r="AG47" s="60"/>
+      <c r="AH47" s="60"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="59"/>
+      <c r="AL47" s="59"/>
+      <c r="AM47" s="59"/>
+      <c r="AN47" s="59"/>
+      <c r="AO47" s="59"/>
+      <c r="AP47" s="59"/>
+      <c r="AQ47" s="59"/>
       <c r="AR47" s="10"/>
       <c r="AS47" s="10"/>
       <c r="AT47" s="10"/>
@@ -47792,50 +48151,52 @@
     </row>
     <row r="48" spans="1:1025" customHeight="1" ht="15">
       <c r="A48" s="10"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="56"/>
+      <c r="C48" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65"/>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="65"/>
-      <c r="AB48" s="65"/>
-      <c r="AC48" s="65"/>
-      <c r="AD48" s="65"/>
-      <c r="AE48" s="65"/>
-      <c r="AF48" s="65"/>
-      <c r="AG48" s="65"/>
-      <c r="AH48" s="65"/>
-      <c r="AI48" s="65"/>
-      <c r="AJ48" s="65"/>
-      <c r="AK48" s="65"/>
-      <c r="AL48" s="65"/>
-      <c r="AM48" s="65"/>
-      <c r="AN48" s="65"/>
-      <c r="AO48" s="65"/>
-      <c r="AP48" s="65"/>
-      <c r="AQ48" s="65"/>
+      <c r="D48" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="60"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="60"/>
+      <c r="AA48" s="60"/>
+      <c r="AB48" s="60"/>
+      <c r="AC48" s="60"/>
+      <c r="AD48" s="60"/>
+      <c r="AE48" s="60"/>
+      <c r="AF48" s="60"/>
+      <c r="AG48" s="60"/>
+      <c r="AH48" s="60"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="59"/>
+      <c r="AL48" s="59"/>
+      <c r="AM48" s="59"/>
+      <c r="AN48" s="59"/>
+      <c r="AO48" s="59"/>
+      <c r="AP48" s="59"/>
+      <c r="AQ48" s="59"/>
       <c r="AR48" s="10"/>
       <c r="AS48" s="10"/>
       <c r="AT48" s="10"/>
@@ -48820,54 +49181,52 @@
     </row>
     <row r="49" spans="1:1025" customHeight="1" ht="15">
       <c r="A49" s="10"/>
-      <c r="B49" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="68" t="s">
+      <c r="B49" s="56"/>
+      <c r="C49" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="67"/>
-      <c r="Y49" s="67"/>
-      <c r="Z49" s="67"/>
-      <c r="AA49" s="67"/>
-      <c r="AB49" s="67"/>
-      <c r="AC49" s="67"/>
-      <c r="AD49" s="68" t="s">
+      <c r="D49" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AE49" s="68"/>
-      <c r="AF49" s="67"/>
-      <c r="AG49" s="67"/>
-      <c r="AH49" s="67"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="67"/>
-      <c r="AN49" s="67"/>
-      <c r="AO49" s="67"/>
-      <c r="AP49" s="67"/>
-      <c r="AQ49" s="67"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="60"/>
+      <c r="AE49" s="60"/>
+      <c r="AF49" s="60"/>
+      <c r="AG49" s="60"/>
+      <c r="AH49" s="60"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="59"/>
+      <c r="AL49" s="59"/>
+      <c r="AM49" s="59"/>
+      <c r="AN49" s="59"/>
+      <c r="AO49" s="59"/>
+      <c r="AP49" s="59"/>
+      <c r="AQ49" s="59"/>
       <c r="AR49" s="10"/>
       <c r="AS49" s="10"/>
       <c r="AT49" s="10"/>
@@ -49852,48 +50211,52 @@
     </row>
     <row r="50" spans="1:1025" customHeight="1" ht="15">
       <c r="A50" s="10"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="70"/>
-      <c r="S50" s="70"/>
-      <c r="T50" s="70"/>
-      <c r="U50" s="70"/>
-      <c r="V50" s="70"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
-      <c r="Y50" s="70"/>
-      <c r="Z50" s="70"/>
-      <c r="AA50" s="70"/>
-      <c r="AB50" s="70"/>
-      <c r="AC50" s="70"/>
-      <c r="AD50" s="71"/>
-      <c r="AE50" s="71"/>
-      <c r="AF50" s="71"/>
-      <c r="AG50" s="71"/>
-      <c r="AH50" s="71"/>
-      <c r="AI50" s="71"/>
-      <c r="AJ50" s="71"/>
-      <c r="AK50" s="71"/>
-      <c r="AL50" s="71"/>
-      <c r="AM50" s="71"/>
-      <c r="AN50" s="71"/>
-      <c r="AO50" s="71"/>
-      <c r="AP50" s="71"/>
-      <c r="AQ50" s="71"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="60"/>
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="60"/>
+      <c r="AH50" s="60"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="59"/>
+      <c r="AL50" s="59"/>
+      <c r="AM50" s="59"/>
+      <c r="AN50" s="59"/>
+      <c r="AO50" s="59"/>
+      <c r="AP50" s="59"/>
+      <c r="AQ50" s="59"/>
       <c r="AR50" s="10"/>
       <c r="AS50" s="10"/>
       <c r="AT50" s="10"/>
@@ -50878,48 +51241,50 @@
     </row>
     <row r="51" spans="1:1025" customHeight="1" ht="15">
       <c r="A51" s="10"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="70"/>
-      <c r="S51" s="70"/>
-      <c r="T51" s="70"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="70"/>
-      <c r="Y51" s="70"/>
-      <c r="Z51" s="70"/>
-      <c r="AA51" s="70"/>
-      <c r="AB51" s="70"/>
-      <c r="AC51" s="70"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
-      <c r="AI51" s="71"/>
-      <c r="AJ51" s="71"/>
-      <c r="AK51" s="71"/>
-      <c r="AL51" s="71"/>
-      <c r="AM51" s="71"/>
-      <c r="AN51" s="71"/>
-      <c r="AO51" s="71"/>
-      <c r="AP51" s="71"/>
-      <c r="AQ51" s="71"/>
+      <c r="B51" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="62"/>
+      <c r="Z51" s="62"/>
+      <c r="AA51" s="62"/>
+      <c r="AB51" s="62"/>
+      <c r="AC51" s="62"/>
+      <c r="AD51" s="62"/>
+      <c r="AE51" s="62"/>
+      <c r="AF51" s="62"/>
+      <c r="AG51" s="62"/>
+      <c r="AH51" s="62"/>
+      <c r="AI51" s="62"/>
+      <c r="AJ51" s="62"/>
+      <c r="AK51" s="62"/>
+      <c r="AL51" s="62"/>
+      <c r="AM51" s="62"/>
+      <c r="AN51" s="62"/>
+      <c r="AO51" s="62"/>
+      <c r="AP51" s="62"/>
+      <c r="AQ51" s="62"/>
       <c r="AR51" s="10"/>
       <c r="AS51" s="10"/>
       <c r="AT51" s="10"/>
@@ -51902,50 +52267,62 @@
       <c r="AMI51"/>
       <c r="AMJ51"/>
     </row>
-    <row r="52" spans="1:1025" customHeight="1" ht="15">
+    <row r="52" spans="1:1025" customHeight="1" ht="13.25">
       <c r="A52" s="10"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
-      <c r="S52" s="70"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
-      <c r="Y52" s="70"/>
-      <c r="Z52" s="70"/>
-      <c r="AA52" s="70"/>
-      <c r="AB52" s="70"/>
-      <c r="AC52" s="70"/>
-      <c r="AD52" s="71"/>
-      <c r="AE52" s="71"/>
-      <c r="AF52" s="71"/>
-      <c r="AG52" s="71"/>
-      <c r="AH52" s="71"/>
-      <c r="AI52" s="71"/>
-      <c r="AJ52" s="71"/>
-      <c r="AK52" s="71"/>
-      <c r="AL52" s="71"/>
-      <c r="AM52" s="71"/>
-      <c r="AN52" s="71"/>
-      <c r="AO52" s="71"/>
-      <c r="AP52" s="71"/>
-      <c r="AQ52" s="71"/>
+      <c r="B52" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="S52" s="64"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+      <c r="Z52" s="64"/>
+      <c r="AA52" s="64"/>
+      <c r="AB52" s="64"/>
+      <c r="AC52" s="64"/>
+      <c r="AD52" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE52" s="65"/>
+      <c r="AF52" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG52" s="64"/>
+      <c r="AH52" s="64"/>
+      <c r="AI52" s="64"/>
+      <c r="AJ52" s="64"/>
+      <c r="AK52" s="64"/>
+      <c r="AL52" s="64"/>
+      <c r="AM52" s="64"/>
+      <c r="AN52" s="64"/>
+      <c r="AO52" s="64"/>
+      <c r="AP52" s="64"/>
+      <c r="AQ52" s="64"/>
       <c r="AR52" s="10"/>
       <c r="AS52" s="10"/>
       <c r="AT52" s="10"/>
@@ -52930,48 +53307,48 @@
     </row>
     <row r="53" spans="1:1025" customHeight="1" ht="15">
       <c r="A53" s="10"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
-      <c r="AA53" s="70"/>
-      <c r="AB53" s="70"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="71"/>
-      <c r="AE53" s="71"/>
-      <c r="AF53" s="71"/>
-      <c r="AG53" s="71"/>
-      <c r="AH53" s="71"/>
-      <c r="AI53" s="71"/>
-      <c r="AJ53" s="71"/>
-      <c r="AK53" s="71"/>
-      <c r="AL53" s="71"/>
-      <c r="AM53" s="71"/>
-      <c r="AN53" s="71"/>
-      <c r="AO53" s="71"/>
-      <c r="AP53" s="71"/>
-      <c r="AQ53" s="71"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="68"/>
+      <c r="AE53" s="68"/>
+      <c r="AF53" s="68"/>
+      <c r="AG53" s="68"/>
+      <c r="AH53" s="68"/>
+      <c r="AI53" s="68"/>
+      <c r="AJ53" s="68"/>
+      <c r="AK53" s="68"/>
+      <c r="AL53" s="68"/>
+      <c r="AM53" s="68"/>
+      <c r="AN53" s="68"/>
+      <c r="AO53" s="68"/>
+      <c r="AP53" s="68"/>
+      <c r="AQ53" s="68"/>
       <c r="AR53" s="10"/>
       <c r="AS53" s="10"/>
       <c r="AT53" s="10"/>
@@ -53956,48 +54333,48 @@
     </row>
     <row r="54" spans="1:1025" customHeight="1" ht="15">
       <c r="A54" s="10"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="69"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="70"/>
-      <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="71"/>
-      <c r="AE54" s="71"/>
-      <c r="AF54" s="71"/>
-      <c r="AG54" s="71"/>
-      <c r="AH54" s="71"/>
-      <c r="AI54" s="71"/>
-      <c r="AJ54" s="71"/>
-      <c r="AK54" s="71"/>
-      <c r="AL54" s="71"/>
-      <c r="AM54" s="71"/>
-      <c r="AN54" s="71"/>
-      <c r="AO54" s="71"/>
-      <c r="AP54" s="71"/>
-      <c r="AQ54" s="71"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="68"/>
+      <c r="AE54" s="68"/>
+      <c r="AF54" s="68"/>
+      <c r="AG54" s="68"/>
+      <c r="AH54" s="68"/>
+      <c r="AI54" s="68"/>
+      <c r="AJ54" s="68"/>
+      <c r="AK54" s="68"/>
+      <c r="AL54" s="68"/>
+      <c r="AM54" s="68"/>
+      <c r="AN54" s="68"/>
+      <c r="AO54" s="68"/>
+      <c r="AP54" s="68"/>
+      <c r="AQ54" s="68"/>
       <c r="AR54" s="10"/>
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
@@ -54981,63 +55358,63 @@
       <c r="AMJ54"/>
     </row>
     <row r="55" spans="1:1025" customHeight="1" ht="15">
-      <c r="A55"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="70"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="70"/>
-      <c r="AB55" s="70"/>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="71"/>
-      <c r="AE55" s="71"/>
-      <c r="AF55" s="71"/>
-      <c r="AG55" s="71"/>
-      <c r="AH55" s="71"/>
-      <c r="AI55" s="71"/>
-      <c r="AJ55" s="71"/>
-      <c r="AK55" s="71"/>
-      <c r="AL55" s="71"/>
-      <c r="AM55" s="71"/>
-      <c r="AN55" s="71"/>
-      <c r="AO55" s="71"/>
-      <c r="AP55" s="71"/>
-      <c r="AQ55" s="71"/>
-      <c r="AR55"/>
-      <c r="AS55"/>
-      <c r="AT55"/>
-      <c r="AU55"/>
-      <c r="AV55"/>
-      <c r="AW55"/>
-      <c r="AX55"/>
-      <c r="AY55"/>
-      <c r="AZ55"/>
-      <c r="BA55"/>
-      <c r="BB55"/>
-      <c r="BC55"/>
-      <c r="BD55"/>
-      <c r="BE55"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="67"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="67"/>
+      <c r="Y55" s="67"/>
+      <c r="Z55" s="67"/>
+      <c r="AA55" s="67"/>
+      <c r="AB55" s="67"/>
+      <c r="AC55" s="67"/>
+      <c r="AD55" s="68"/>
+      <c r="AE55" s="68"/>
+      <c r="AF55" s="68"/>
+      <c r="AG55" s="68"/>
+      <c r="AH55" s="68"/>
+      <c r="AI55" s="68"/>
+      <c r="AJ55" s="68"/>
+      <c r="AK55" s="68"/>
+      <c r="AL55" s="68"/>
+      <c r="AM55" s="68"/>
+      <c r="AN55" s="68"/>
+      <c r="AO55" s="68"/>
+      <c r="AP55" s="68"/>
+      <c r="AQ55" s="68"/>
+      <c r="AR55" s="10"/>
+      <c r="AS55" s="10"/>
+      <c r="AT55" s="10"/>
+      <c r="AU55" s="10"/>
+      <c r="AV55" s="10"/>
+      <c r="AW55" s="10"/>
+      <c r="AX55" s="10"/>
+      <c r="AY55" s="10"/>
+      <c r="AZ55" s="10"/>
+      <c r="BA55" s="10"/>
+      <c r="BB55" s="10"/>
+      <c r="BC55" s="10"/>
+      <c r="BD55" s="10"/>
+      <c r="BE55" s="10"/>
       <c r="BF55"/>
       <c r="BG55"/>
       <c r="BH55"/>
@@ -56007,63 +56384,63 @@
       <c r="AMJ55"/>
     </row>
     <row r="56" spans="1:1025" customHeight="1" ht="15">
-      <c r="A56"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="70"/>
-      <c r="S56" s="70"/>
-      <c r="T56" s="70"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
-      <c r="Y56" s="70"/>
-      <c r="Z56" s="70"/>
-      <c r="AA56" s="70"/>
-      <c r="AB56" s="70"/>
-      <c r="AC56" s="70"/>
-      <c r="AD56" s="71"/>
-      <c r="AE56" s="71"/>
-      <c r="AF56" s="71"/>
-      <c r="AG56" s="71"/>
-      <c r="AH56" s="71"/>
-      <c r="AI56" s="71"/>
-      <c r="AJ56" s="71"/>
-      <c r="AK56" s="71"/>
-      <c r="AL56" s="71"/>
-      <c r="AM56" s="71"/>
-      <c r="AN56" s="71"/>
-      <c r="AO56" s="71"/>
-      <c r="AP56" s="71"/>
-      <c r="AQ56" s="71"/>
-      <c r="AR56"/>
-      <c r="AS56"/>
-      <c r="AT56"/>
-      <c r="AU56"/>
-      <c r="AV56"/>
-      <c r="AW56"/>
-      <c r="AX56"/>
-      <c r="AY56"/>
-      <c r="AZ56"/>
-      <c r="BA56"/>
-      <c r="BB56"/>
-      <c r="BC56"/>
-      <c r="BD56"/>
-      <c r="BE56"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
+      <c r="O56" s="66"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="68"/>
+      <c r="AE56" s="68"/>
+      <c r="AF56" s="68"/>
+      <c r="AG56" s="68"/>
+      <c r="AH56" s="68"/>
+      <c r="AI56" s="68"/>
+      <c r="AJ56" s="68"/>
+      <c r="AK56" s="68"/>
+      <c r="AL56" s="68"/>
+      <c r="AM56" s="68"/>
+      <c r="AN56" s="68"/>
+      <c r="AO56" s="68"/>
+      <c r="AP56" s="68"/>
+      <c r="AQ56" s="68"/>
+      <c r="AR56" s="10"/>
+      <c r="AS56" s="10"/>
+      <c r="AT56" s="10"/>
+      <c r="AU56" s="10"/>
+      <c r="AV56" s="10"/>
+      <c r="AW56" s="10"/>
+      <c r="AX56" s="10"/>
+      <c r="AY56" s="10"/>
+      <c r="AZ56" s="10"/>
+      <c r="BA56" s="10"/>
+      <c r="BB56" s="10"/>
+      <c r="BC56" s="10"/>
+      <c r="BD56" s="10"/>
+      <c r="BE56" s="10"/>
       <c r="BF56"/>
       <c r="BG56"/>
       <c r="BH56"/>
@@ -57033,63 +57410,63 @@
       <c r="AMJ56"/>
     </row>
     <row r="57" spans="1:1025" customHeight="1" ht="15">
-      <c r="A57"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70"/>
-      <c r="S57" s="70"/>
-      <c r="T57" s="70"/>
-      <c r="U57" s="70"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="70"/>
-      <c r="AB57" s="70"/>
-      <c r="AC57" s="70"/>
-      <c r="AD57" s="71"/>
-      <c r="AE57" s="71"/>
-      <c r="AF57" s="71"/>
-      <c r="AG57" s="71"/>
-      <c r="AH57" s="71"/>
-      <c r="AI57" s="71"/>
-      <c r="AJ57" s="71"/>
-      <c r="AK57" s="71"/>
-      <c r="AL57" s="71"/>
-      <c r="AM57" s="71"/>
-      <c r="AN57" s="71"/>
-      <c r="AO57" s="71"/>
-      <c r="AP57" s="71"/>
-      <c r="AQ57" s="71"/>
-      <c r="AR57"/>
-      <c r="AS57"/>
-      <c r="AT57"/>
-      <c r="AU57"/>
-      <c r="AV57"/>
-      <c r="AW57"/>
-      <c r="AX57"/>
-      <c r="AY57"/>
-      <c r="AZ57"/>
-      <c r="BA57"/>
-      <c r="BB57"/>
-      <c r="BC57"/>
-      <c r="BD57"/>
-      <c r="BE57"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="68"/>
+      <c r="AE57" s="68"/>
+      <c r="AF57" s="68"/>
+      <c r="AG57" s="68"/>
+      <c r="AH57" s="68"/>
+      <c r="AI57" s="68"/>
+      <c r="AJ57" s="68"/>
+      <c r="AK57" s="68"/>
+      <c r="AL57" s="68"/>
+      <c r="AM57" s="68"/>
+      <c r="AN57" s="68"/>
+      <c r="AO57" s="68"/>
+      <c r="AP57" s="68"/>
+      <c r="AQ57" s="68"/>
+      <c r="AR57" s="10"/>
+      <c r="AS57" s="10"/>
+      <c r="AT57" s="10"/>
+      <c r="AU57" s="10"/>
+      <c r="AV57" s="10"/>
+      <c r="AW57" s="10"/>
+      <c r="AX57" s="10"/>
+      <c r="AY57" s="10"/>
+      <c r="AZ57" s="10"/>
+      <c r="BA57" s="10"/>
+      <c r="BB57" s="10"/>
+      <c r="BC57" s="10"/>
+      <c r="BD57" s="10"/>
+      <c r="BE57" s="10"/>
       <c r="BF57"/>
       <c r="BG57"/>
       <c r="BH57"/>
@@ -58060,48 +58437,48 @@
     </row>
     <row r="58" spans="1:1025" customHeight="1" ht="15">
       <c r="A58"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="71"/>
-      <c r="AE58" s="71"/>
-      <c r="AF58" s="71"/>
-      <c r="AG58" s="71"/>
-      <c r="AH58" s="71"/>
-      <c r="AI58" s="71"/>
-      <c r="AJ58" s="71"/>
-      <c r="AK58" s="71"/>
-      <c r="AL58" s="71"/>
-      <c r="AM58" s="71"/>
-      <c r="AN58" s="71"/>
-      <c r="AO58" s="71"/>
-      <c r="AP58" s="71"/>
-      <c r="AQ58" s="71"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="68"/>
+      <c r="AE58" s="68"/>
+      <c r="AF58" s="68"/>
+      <c r="AG58" s="68"/>
+      <c r="AH58" s="68"/>
+      <c r="AI58" s="68"/>
+      <c r="AJ58" s="68"/>
+      <c r="AK58" s="68"/>
+      <c r="AL58" s="68"/>
+      <c r="AM58" s="68"/>
+      <c r="AN58" s="68"/>
+      <c r="AO58" s="68"/>
+      <c r="AP58" s="68"/>
+      <c r="AQ58" s="68"/>
       <c r="AR58"/>
       <c r="AS58"/>
       <c r="AT58"/>
@@ -59086,48 +59463,48 @@
     </row>
     <row r="59" spans="1:1025" customHeight="1" ht="15">
       <c r="A59"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="70"/>
-      <c r="S59" s="70"/>
-      <c r="T59" s="70"/>
-      <c r="U59" s="70"/>
-      <c r="V59" s="70"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="70"/>
-      <c r="Y59" s="70"/>
-      <c r="Z59" s="70"/>
-      <c r="AA59" s="70"/>
-      <c r="AB59" s="70"/>
-      <c r="AC59" s="70"/>
-      <c r="AD59" s="71"/>
-      <c r="AE59" s="71"/>
-      <c r="AF59" s="71"/>
-      <c r="AG59" s="71"/>
-      <c r="AH59" s="71"/>
-      <c r="AI59" s="71"/>
-      <c r="AJ59" s="71"/>
-      <c r="AK59" s="71"/>
-      <c r="AL59" s="71"/>
-      <c r="AM59" s="71"/>
-      <c r="AN59" s="71"/>
-      <c r="AO59" s="71"/>
-      <c r="AP59" s="71"/>
-      <c r="AQ59" s="71"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="68"/>
+      <c r="AE59" s="68"/>
+      <c r="AF59" s="68"/>
+      <c r="AG59" s="68"/>
+      <c r="AH59" s="68"/>
+      <c r="AI59" s="68"/>
+      <c r="AJ59" s="68"/>
+      <c r="AK59" s="68"/>
+      <c r="AL59" s="68"/>
+      <c r="AM59" s="68"/>
+      <c r="AN59" s="68"/>
+      <c r="AO59" s="68"/>
+      <c r="AP59" s="68"/>
+      <c r="AQ59" s="68"/>
       <c r="AR59"/>
       <c r="AS59"/>
       <c r="AT59"/>
@@ -60110,94 +60487,1076 @@
       <c r="AMI59"/>
       <c r="AMJ59"/>
     </row>
-    <row r="60" spans="1:1025" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="69"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="70"/>
-      <c r="S60" s="70"/>
-      <c r="T60" s="70"/>
-      <c r="U60" s="70"/>
-      <c r="V60" s="70"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
-      <c r="Y60" s="70"/>
-      <c r="Z60" s="70"/>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="71"/>
-      <c r="AE60" s="71"/>
-      <c r="AF60" s="71"/>
-      <c r="AG60" s="71"/>
-      <c r="AH60" s="71"/>
-      <c r="AI60" s="71"/>
-      <c r="AJ60" s="71"/>
-      <c r="AK60" s="71"/>
-      <c r="AL60" s="71"/>
-      <c r="AM60" s="71"/>
-      <c r="AN60" s="71"/>
-      <c r="AO60" s="71"/>
-      <c r="AP60" s="71"/>
-      <c r="AQ60" s="71"/>
+    <row r="60" spans="1:1025" customHeight="1" ht="15">
+      <c r="A60"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="68"/>
+      <c r="AE60" s="68"/>
+      <c r="AF60" s="68"/>
+      <c r="AG60" s="68"/>
+      <c r="AH60" s="68"/>
+      <c r="AI60" s="68"/>
+      <c r="AJ60" s="68"/>
+      <c r="AK60" s="68"/>
+      <c r="AL60" s="68"/>
+      <c r="AM60" s="68"/>
+      <c r="AN60" s="68"/>
+      <c r="AO60" s="68"/>
+      <c r="AP60" s="68"/>
+      <c r="AQ60" s="68"/>
+      <c r="AR60"/>
+      <c r="AS60"/>
+      <c r="AT60"/>
+      <c r="AU60"/>
+      <c r="AV60"/>
+      <c r="AW60"/>
+      <c r="AX60"/>
+      <c r="AY60"/>
+      <c r="AZ60"/>
+      <c r="BA60"/>
+      <c r="BB60"/>
+      <c r="BC60"/>
+      <c r="BD60"/>
+      <c r="BE60"/>
+      <c r="BF60"/>
+      <c r="BG60"/>
+      <c r="BH60"/>
+      <c r="BI60"/>
+      <c r="BJ60"/>
+      <c r="BK60"/>
+      <c r="BL60"/>
+      <c r="BM60"/>
+      <c r="BN60"/>
+      <c r="BO60"/>
+      <c r="BP60"/>
+      <c r="BQ60"/>
+      <c r="BR60"/>
+      <c r="BS60"/>
+      <c r="BT60"/>
+      <c r="BU60"/>
+      <c r="BV60"/>
+      <c r="BW60"/>
+      <c r="BX60"/>
+      <c r="BY60"/>
+      <c r="BZ60"/>
+      <c r="CA60"/>
+      <c r="CB60"/>
+      <c r="CC60"/>
+      <c r="CD60"/>
+      <c r="CE60"/>
+      <c r="CF60"/>
+      <c r="CG60"/>
+      <c r="CH60"/>
+      <c r="CI60"/>
+      <c r="CJ60"/>
+      <c r="CK60"/>
+      <c r="CL60"/>
+      <c r="CM60"/>
+      <c r="CN60"/>
+      <c r="CO60"/>
+      <c r="CP60"/>
+      <c r="CQ60"/>
+      <c r="CR60"/>
+      <c r="CS60"/>
+      <c r="CT60"/>
+      <c r="CU60"/>
+      <c r="CV60"/>
+      <c r="CW60"/>
+      <c r="CX60"/>
+      <c r="CY60"/>
+      <c r="CZ60"/>
+      <c r="DA60"/>
+      <c r="DB60"/>
+      <c r="DC60"/>
+      <c r="DD60"/>
+      <c r="DE60"/>
+      <c r="DF60"/>
+      <c r="DG60"/>
+      <c r="DH60"/>
+      <c r="DI60"/>
+      <c r="DJ60"/>
+      <c r="DK60"/>
+      <c r="DL60"/>
+      <c r="DM60"/>
+      <c r="DN60"/>
+      <c r="DO60"/>
+      <c r="DP60"/>
+      <c r="DQ60"/>
+      <c r="DR60"/>
+      <c r="DS60"/>
+      <c r="DT60"/>
+      <c r="DU60"/>
+      <c r="DV60"/>
+      <c r="DW60"/>
+      <c r="DX60"/>
+      <c r="DY60"/>
+      <c r="DZ60"/>
+      <c r="EA60"/>
+      <c r="EB60"/>
+      <c r="EC60"/>
+      <c r="ED60"/>
+      <c r="EE60"/>
+      <c r="EF60"/>
+      <c r="EG60"/>
+      <c r="EH60"/>
+      <c r="EI60"/>
+      <c r="EJ60"/>
+      <c r="EK60"/>
+      <c r="EL60"/>
+      <c r="EM60"/>
+      <c r="EN60"/>
+      <c r="EO60"/>
+      <c r="EP60"/>
+      <c r="EQ60"/>
+      <c r="ER60"/>
+      <c r="ES60"/>
+      <c r="ET60"/>
+      <c r="EU60"/>
+      <c r="EV60"/>
+      <c r="EW60"/>
+      <c r="EX60"/>
+      <c r="EY60"/>
+      <c r="EZ60"/>
+      <c r="FA60"/>
+      <c r="FB60"/>
+      <c r="FC60"/>
+      <c r="FD60"/>
+      <c r="FE60"/>
+      <c r="FF60"/>
+      <c r="FG60"/>
+      <c r="FH60"/>
+      <c r="FI60"/>
+      <c r="FJ60"/>
+      <c r="FK60"/>
+      <c r="FL60"/>
+      <c r="FM60"/>
+      <c r="FN60"/>
+      <c r="FO60"/>
+      <c r="FP60"/>
+      <c r="FQ60"/>
+      <c r="FR60"/>
+      <c r="FS60"/>
+      <c r="FT60"/>
+      <c r="FU60"/>
+      <c r="FV60"/>
+      <c r="FW60"/>
+      <c r="FX60"/>
+      <c r="FY60"/>
+      <c r="FZ60"/>
+      <c r="GA60"/>
+      <c r="GB60"/>
+      <c r="GC60"/>
+      <c r="GD60"/>
+      <c r="GE60"/>
+      <c r="GF60"/>
+      <c r="GG60"/>
+      <c r="GH60"/>
+      <c r="GI60"/>
+      <c r="GJ60"/>
+      <c r="GK60"/>
+      <c r="GL60"/>
+      <c r="GM60"/>
+      <c r="GN60"/>
+      <c r="GO60"/>
+      <c r="GP60"/>
+      <c r="GQ60"/>
+      <c r="GR60"/>
+      <c r="GS60"/>
+      <c r="GT60"/>
+      <c r="GU60"/>
+      <c r="GV60"/>
+      <c r="GW60"/>
+      <c r="GX60"/>
+      <c r="GY60"/>
+      <c r="GZ60"/>
+      <c r="HA60"/>
+      <c r="HB60"/>
+      <c r="HC60"/>
+      <c r="HD60"/>
+      <c r="HE60"/>
+      <c r="HF60"/>
+      <c r="HG60"/>
+      <c r="HH60"/>
+      <c r="HI60"/>
+      <c r="HJ60"/>
+      <c r="HK60"/>
+      <c r="HL60"/>
+      <c r="HM60"/>
+      <c r="HN60"/>
+      <c r="HO60"/>
+      <c r="HP60"/>
+      <c r="HQ60"/>
+      <c r="HR60"/>
+      <c r="HS60"/>
+      <c r="HT60"/>
+      <c r="HU60"/>
+      <c r="HV60"/>
+      <c r="HW60"/>
+      <c r="HX60"/>
+      <c r="HY60"/>
+      <c r="HZ60"/>
+      <c r="IA60"/>
+      <c r="IB60"/>
+      <c r="IC60"/>
+      <c r="ID60"/>
+      <c r="IE60"/>
+      <c r="IF60"/>
+      <c r="IG60"/>
+      <c r="IH60"/>
+      <c r="II60"/>
+      <c r="IJ60"/>
+      <c r="IK60"/>
+      <c r="IL60"/>
+      <c r="IM60"/>
+      <c r="IN60"/>
+      <c r="IO60"/>
+      <c r="IP60"/>
+      <c r="IQ60"/>
+      <c r="IR60"/>
+      <c r="IS60"/>
+      <c r="IT60"/>
+      <c r="IU60"/>
+      <c r="IV60"/>
+      <c r="IW60"/>
+      <c r="IX60"/>
+      <c r="IY60"/>
+      <c r="IZ60"/>
+      <c r="JA60"/>
+      <c r="JB60"/>
+      <c r="JC60"/>
+      <c r="JD60"/>
+      <c r="JE60"/>
+      <c r="JF60"/>
+      <c r="JG60"/>
+      <c r="JH60"/>
+      <c r="JI60"/>
+      <c r="JJ60"/>
+      <c r="JK60"/>
+      <c r="JL60"/>
+      <c r="JM60"/>
+      <c r="JN60"/>
+      <c r="JO60"/>
+      <c r="JP60"/>
+      <c r="JQ60"/>
+      <c r="JR60"/>
+      <c r="JS60"/>
+      <c r="JT60"/>
+      <c r="JU60"/>
+      <c r="JV60"/>
+      <c r="JW60"/>
+      <c r="JX60"/>
+      <c r="JY60"/>
+      <c r="JZ60"/>
+      <c r="KA60"/>
+      <c r="KB60"/>
+      <c r="KC60"/>
+      <c r="KD60"/>
+      <c r="KE60"/>
+      <c r="KF60"/>
+      <c r="KG60"/>
+      <c r="KH60"/>
+      <c r="KI60"/>
+      <c r="KJ60"/>
+      <c r="KK60"/>
+      <c r="KL60"/>
+      <c r="KM60"/>
+      <c r="KN60"/>
+      <c r="KO60"/>
+      <c r="KP60"/>
+      <c r="KQ60"/>
+      <c r="KR60"/>
+      <c r="KS60"/>
+      <c r="KT60"/>
+      <c r="KU60"/>
+      <c r="KV60"/>
+      <c r="KW60"/>
+      <c r="KX60"/>
+      <c r="KY60"/>
+      <c r="KZ60"/>
+      <c r="LA60"/>
+      <c r="LB60"/>
+      <c r="LC60"/>
+      <c r="LD60"/>
+      <c r="LE60"/>
+      <c r="LF60"/>
+      <c r="LG60"/>
+      <c r="LH60"/>
+      <c r="LI60"/>
+      <c r="LJ60"/>
+      <c r="LK60"/>
+      <c r="LL60"/>
+      <c r="LM60"/>
+      <c r="LN60"/>
+      <c r="LO60"/>
+      <c r="LP60"/>
+      <c r="LQ60"/>
+      <c r="LR60"/>
+      <c r="LS60"/>
+      <c r="LT60"/>
+      <c r="LU60"/>
+      <c r="LV60"/>
+      <c r="LW60"/>
+      <c r="LX60"/>
+      <c r="LY60"/>
+      <c r="LZ60"/>
+      <c r="MA60"/>
+      <c r="MB60"/>
+      <c r="MC60"/>
+      <c r="MD60"/>
+      <c r="ME60"/>
+      <c r="MF60"/>
+      <c r="MG60"/>
+      <c r="MH60"/>
+      <c r="MI60"/>
+      <c r="MJ60"/>
+      <c r="MK60"/>
+      <c r="ML60"/>
+      <c r="MM60"/>
+      <c r="MN60"/>
+      <c r="MO60"/>
+      <c r="MP60"/>
+      <c r="MQ60"/>
+      <c r="MR60"/>
+      <c r="MS60"/>
+      <c r="MT60"/>
+      <c r="MU60"/>
+      <c r="MV60"/>
+      <c r="MW60"/>
+      <c r="MX60"/>
+      <c r="MY60"/>
+      <c r="MZ60"/>
+      <c r="NA60"/>
+      <c r="NB60"/>
+      <c r="NC60"/>
+      <c r="ND60"/>
+      <c r="NE60"/>
+      <c r="NF60"/>
+      <c r="NG60"/>
+      <c r="NH60"/>
+      <c r="NI60"/>
+      <c r="NJ60"/>
+      <c r="NK60"/>
+      <c r="NL60"/>
+      <c r="NM60"/>
+      <c r="NN60"/>
+      <c r="NO60"/>
+      <c r="NP60"/>
+      <c r="NQ60"/>
+      <c r="NR60"/>
+      <c r="NS60"/>
+      <c r="NT60"/>
+      <c r="NU60"/>
+      <c r="NV60"/>
+      <c r="NW60"/>
+      <c r="NX60"/>
+      <c r="NY60"/>
+      <c r="NZ60"/>
+      <c r="OA60"/>
+      <c r="OB60"/>
+      <c r="OC60"/>
+      <c r="OD60"/>
+      <c r="OE60"/>
+      <c r="OF60"/>
+      <c r="OG60"/>
+      <c r="OH60"/>
+      <c r="OI60"/>
+      <c r="OJ60"/>
+      <c r="OK60"/>
+      <c r="OL60"/>
+      <c r="OM60"/>
+      <c r="ON60"/>
+      <c r="OO60"/>
+      <c r="OP60"/>
+      <c r="OQ60"/>
+      <c r="OR60"/>
+      <c r="OS60"/>
+      <c r="OT60"/>
+      <c r="OU60"/>
+      <c r="OV60"/>
+      <c r="OW60"/>
+      <c r="OX60"/>
+      <c r="OY60"/>
+      <c r="OZ60"/>
+      <c r="PA60"/>
+      <c r="PB60"/>
+      <c r="PC60"/>
+      <c r="PD60"/>
+      <c r="PE60"/>
+      <c r="PF60"/>
+      <c r="PG60"/>
+      <c r="PH60"/>
+      <c r="PI60"/>
+      <c r="PJ60"/>
+      <c r="PK60"/>
+      <c r="PL60"/>
+      <c r="PM60"/>
+      <c r="PN60"/>
+      <c r="PO60"/>
+      <c r="PP60"/>
+      <c r="PQ60"/>
+      <c r="PR60"/>
+      <c r="PS60"/>
+      <c r="PT60"/>
+      <c r="PU60"/>
+      <c r="PV60"/>
+      <c r="PW60"/>
+      <c r="PX60"/>
+      <c r="PY60"/>
+      <c r="PZ60"/>
+      <c r="QA60"/>
+      <c r="QB60"/>
+      <c r="QC60"/>
+      <c r="QD60"/>
+      <c r="QE60"/>
+      <c r="QF60"/>
+      <c r="QG60"/>
+      <c r="QH60"/>
+      <c r="QI60"/>
+      <c r="QJ60"/>
+      <c r="QK60"/>
+      <c r="QL60"/>
+      <c r="QM60"/>
+      <c r="QN60"/>
+      <c r="QO60"/>
+      <c r="QP60"/>
+      <c r="QQ60"/>
+      <c r="QR60"/>
+      <c r="QS60"/>
+      <c r="QT60"/>
+      <c r="QU60"/>
+      <c r="QV60"/>
+      <c r="QW60"/>
+      <c r="QX60"/>
+      <c r="QY60"/>
+      <c r="QZ60"/>
+      <c r="RA60"/>
+      <c r="RB60"/>
+      <c r="RC60"/>
+      <c r="RD60"/>
+      <c r="RE60"/>
+      <c r="RF60"/>
+      <c r="RG60"/>
+      <c r="RH60"/>
+      <c r="RI60"/>
+      <c r="RJ60"/>
+      <c r="RK60"/>
+      <c r="RL60"/>
+      <c r="RM60"/>
+      <c r="RN60"/>
+      <c r="RO60"/>
+      <c r="RP60"/>
+      <c r="RQ60"/>
+      <c r="RR60"/>
+      <c r="RS60"/>
+      <c r="RT60"/>
+      <c r="RU60"/>
+      <c r="RV60"/>
+      <c r="RW60"/>
+      <c r="RX60"/>
+      <c r="RY60"/>
+      <c r="RZ60"/>
+      <c r="SA60"/>
+      <c r="SB60"/>
+      <c r="SC60"/>
+      <c r="SD60"/>
+      <c r="SE60"/>
+      <c r="SF60"/>
+      <c r="SG60"/>
+      <c r="SH60"/>
+      <c r="SI60"/>
+      <c r="SJ60"/>
+      <c r="SK60"/>
+      <c r="SL60"/>
+      <c r="SM60"/>
+      <c r="SN60"/>
+      <c r="SO60"/>
+      <c r="SP60"/>
+      <c r="SQ60"/>
+      <c r="SR60"/>
+      <c r="SS60"/>
+      <c r="ST60"/>
+      <c r="SU60"/>
+      <c r="SV60"/>
+      <c r="SW60"/>
+      <c r="SX60"/>
+      <c r="SY60"/>
+      <c r="SZ60"/>
+      <c r="TA60"/>
+      <c r="TB60"/>
+      <c r="TC60"/>
+      <c r="TD60"/>
+      <c r="TE60"/>
+      <c r="TF60"/>
+      <c r="TG60"/>
+      <c r="TH60"/>
+      <c r="TI60"/>
+      <c r="TJ60"/>
+      <c r="TK60"/>
+      <c r="TL60"/>
+      <c r="TM60"/>
+      <c r="TN60"/>
+      <c r="TO60"/>
+      <c r="TP60"/>
+      <c r="TQ60"/>
+      <c r="TR60"/>
+      <c r="TS60"/>
+      <c r="TT60"/>
+      <c r="TU60"/>
+      <c r="TV60"/>
+      <c r="TW60"/>
+      <c r="TX60"/>
+      <c r="TY60"/>
+      <c r="TZ60"/>
+      <c r="UA60"/>
+      <c r="UB60"/>
+      <c r="UC60"/>
+      <c r="UD60"/>
+      <c r="UE60"/>
+      <c r="UF60"/>
+      <c r="UG60"/>
+      <c r="UH60"/>
+      <c r="UI60"/>
+      <c r="UJ60"/>
+      <c r="UK60"/>
+      <c r="UL60"/>
+      <c r="UM60"/>
+      <c r="UN60"/>
+      <c r="UO60"/>
+      <c r="UP60"/>
+      <c r="UQ60"/>
+      <c r="UR60"/>
+      <c r="US60"/>
+      <c r="UT60"/>
+      <c r="UU60"/>
+      <c r="UV60"/>
+      <c r="UW60"/>
+      <c r="UX60"/>
+      <c r="UY60"/>
+      <c r="UZ60"/>
+      <c r="VA60"/>
+      <c r="VB60"/>
+      <c r="VC60"/>
+      <c r="VD60"/>
+      <c r="VE60"/>
+      <c r="VF60"/>
+      <c r="VG60"/>
+      <c r="VH60"/>
+      <c r="VI60"/>
+      <c r="VJ60"/>
+      <c r="VK60"/>
+      <c r="VL60"/>
+      <c r="VM60"/>
+      <c r="VN60"/>
+      <c r="VO60"/>
+      <c r="VP60"/>
+      <c r="VQ60"/>
+      <c r="VR60"/>
+      <c r="VS60"/>
+      <c r="VT60"/>
+      <c r="VU60"/>
+      <c r="VV60"/>
+      <c r="VW60"/>
+      <c r="VX60"/>
+      <c r="VY60"/>
+      <c r="VZ60"/>
+      <c r="WA60"/>
+      <c r="WB60"/>
+      <c r="WC60"/>
+      <c r="WD60"/>
+      <c r="WE60"/>
+      <c r="WF60"/>
+      <c r="WG60"/>
+      <c r="WH60"/>
+      <c r="WI60"/>
+      <c r="WJ60"/>
+      <c r="WK60"/>
+      <c r="WL60"/>
+      <c r="WM60"/>
+      <c r="WN60"/>
+      <c r="WO60"/>
+      <c r="WP60"/>
+      <c r="WQ60"/>
+      <c r="WR60"/>
+      <c r="WS60"/>
+      <c r="WT60"/>
+      <c r="WU60"/>
+      <c r="WV60"/>
+      <c r="WW60"/>
+      <c r="WX60"/>
+      <c r="WY60"/>
+      <c r="WZ60"/>
+      <c r="XA60"/>
+      <c r="XB60"/>
+      <c r="XC60"/>
+      <c r="XD60"/>
+      <c r="XE60"/>
+      <c r="XF60"/>
+      <c r="XG60"/>
+      <c r="XH60"/>
+      <c r="XI60"/>
+      <c r="XJ60"/>
+      <c r="XK60"/>
+      <c r="XL60"/>
+      <c r="XM60"/>
+      <c r="XN60"/>
+      <c r="XO60"/>
+      <c r="XP60"/>
+      <c r="XQ60"/>
+      <c r="XR60"/>
+      <c r="XS60"/>
+      <c r="XT60"/>
+      <c r="XU60"/>
+      <c r="XV60"/>
+      <c r="XW60"/>
+      <c r="XX60"/>
+      <c r="XY60"/>
+      <c r="XZ60"/>
+      <c r="YA60"/>
+      <c r="YB60"/>
+      <c r="YC60"/>
+      <c r="YD60"/>
+      <c r="YE60"/>
+      <c r="YF60"/>
+      <c r="YG60"/>
+      <c r="YH60"/>
+      <c r="YI60"/>
+      <c r="YJ60"/>
+      <c r="YK60"/>
+      <c r="YL60"/>
+      <c r="YM60"/>
+      <c r="YN60"/>
+      <c r="YO60"/>
+      <c r="YP60"/>
+      <c r="YQ60"/>
+      <c r="YR60"/>
+      <c r="YS60"/>
+      <c r="YT60"/>
+      <c r="YU60"/>
+      <c r="YV60"/>
+      <c r="YW60"/>
+      <c r="YX60"/>
+      <c r="YY60"/>
+      <c r="YZ60"/>
+      <c r="ZA60"/>
+      <c r="ZB60"/>
+      <c r="ZC60"/>
+      <c r="ZD60"/>
+      <c r="ZE60"/>
+      <c r="ZF60"/>
+      <c r="ZG60"/>
+      <c r="ZH60"/>
+      <c r="ZI60"/>
+      <c r="ZJ60"/>
+      <c r="ZK60"/>
+      <c r="ZL60"/>
+      <c r="ZM60"/>
+      <c r="ZN60"/>
+      <c r="ZO60"/>
+      <c r="ZP60"/>
+      <c r="ZQ60"/>
+      <c r="ZR60"/>
+      <c r="ZS60"/>
+      <c r="ZT60"/>
+      <c r="ZU60"/>
+      <c r="ZV60"/>
+      <c r="ZW60"/>
+      <c r="ZX60"/>
+      <c r="ZY60"/>
+      <c r="ZZ60"/>
+      <c r="AAA60"/>
+      <c r="AAB60"/>
+      <c r="AAC60"/>
+      <c r="AAD60"/>
+      <c r="AAE60"/>
+      <c r="AAF60"/>
+      <c r="AAG60"/>
+      <c r="AAH60"/>
+      <c r="AAI60"/>
+      <c r="AAJ60"/>
+      <c r="AAK60"/>
+      <c r="AAL60"/>
+      <c r="AAM60"/>
+      <c r="AAN60"/>
+      <c r="AAO60"/>
+      <c r="AAP60"/>
+      <c r="AAQ60"/>
+      <c r="AAR60"/>
+      <c r="AAS60"/>
+      <c r="AAT60"/>
+      <c r="AAU60"/>
+      <c r="AAV60"/>
+      <c r="AAW60"/>
+      <c r="AAX60"/>
+      <c r="AAY60"/>
+      <c r="AAZ60"/>
+      <c r="ABA60"/>
+      <c r="ABB60"/>
+      <c r="ABC60"/>
+      <c r="ABD60"/>
+      <c r="ABE60"/>
+      <c r="ABF60"/>
+      <c r="ABG60"/>
+      <c r="ABH60"/>
+      <c r="ABI60"/>
+      <c r="ABJ60"/>
+      <c r="ABK60"/>
+      <c r="ABL60"/>
+      <c r="ABM60"/>
+      <c r="ABN60"/>
+      <c r="ABO60"/>
+      <c r="ABP60"/>
+      <c r="ABQ60"/>
+      <c r="ABR60"/>
+      <c r="ABS60"/>
+      <c r="ABT60"/>
+      <c r="ABU60"/>
+      <c r="ABV60"/>
+      <c r="ABW60"/>
+      <c r="ABX60"/>
+      <c r="ABY60"/>
+      <c r="ABZ60"/>
+      <c r="ACA60"/>
+      <c r="ACB60"/>
+      <c r="ACC60"/>
+      <c r="ACD60"/>
+      <c r="ACE60"/>
+      <c r="ACF60"/>
+      <c r="ACG60"/>
+      <c r="ACH60"/>
+      <c r="ACI60"/>
+      <c r="ACJ60"/>
+      <c r="ACK60"/>
+      <c r="ACL60"/>
+      <c r="ACM60"/>
+      <c r="ACN60"/>
+      <c r="ACO60"/>
+      <c r="ACP60"/>
+      <c r="ACQ60"/>
+      <c r="ACR60"/>
+      <c r="ACS60"/>
+      <c r="ACT60"/>
+      <c r="ACU60"/>
+      <c r="ACV60"/>
+      <c r="ACW60"/>
+      <c r="ACX60"/>
+      <c r="ACY60"/>
+      <c r="ACZ60"/>
+      <c r="ADA60"/>
+      <c r="ADB60"/>
+      <c r="ADC60"/>
+      <c r="ADD60"/>
+      <c r="ADE60"/>
+      <c r="ADF60"/>
+      <c r="ADG60"/>
+      <c r="ADH60"/>
+      <c r="ADI60"/>
+      <c r="ADJ60"/>
+      <c r="ADK60"/>
+      <c r="ADL60"/>
+      <c r="ADM60"/>
+      <c r="ADN60"/>
+      <c r="ADO60"/>
+      <c r="ADP60"/>
+      <c r="ADQ60"/>
+      <c r="ADR60"/>
+      <c r="ADS60"/>
+      <c r="ADT60"/>
+      <c r="ADU60"/>
+      <c r="ADV60"/>
+      <c r="ADW60"/>
+      <c r="ADX60"/>
+      <c r="ADY60"/>
+      <c r="ADZ60"/>
+      <c r="AEA60"/>
+      <c r="AEB60"/>
+      <c r="AEC60"/>
+      <c r="AED60"/>
+      <c r="AEE60"/>
+      <c r="AEF60"/>
+      <c r="AEG60"/>
+      <c r="AEH60"/>
+      <c r="AEI60"/>
+      <c r="AEJ60"/>
+      <c r="AEK60"/>
+      <c r="AEL60"/>
+      <c r="AEM60"/>
+      <c r="AEN60"/>
+      <c r="AEO60"/>
+      <c r="AEP60"/>
+      <c r="AEQ60"/>
+      <c r="AER60"/>
+      <c r="AES60"/>
+      <c r="AET60"/>
+      <c r="AEU60"/>
+      <c r="AEV60"/>
+      <c r="AEW60"/>
+      <c r="AEX60"/>
+      <c r="AEY60"/>
+      <c r="AEZ60"/>
+      <c r="AFA60"/>
+      <c r="AFB60"/>
+      <c r="AFC60"/>
+      <c r="AFD60"/>
+      <c r="AFE60"/>
+      <c r="AFF60"/>
+      <c r="AFG60"/>
+      <c r="AFH60"/>
+      <c r="AFI60"/>
+      <c r="AFJ60"/>
+      <c r="AFK60"/>
+      <c r="AFL60"/>
+      <c r="AFM60"/>
+      <c r="AFN60"/>
+      <c r="AFO60"/>
+      <c r="AFP60"/>
+      <c r="AFQ60"/>
+      <c r="AFR60"/>
+      <c r="AFS60"/>
+      <c r="AFT60"/>
+      <c r="AFU60"/>
+      <c r="AFV60"/>
+      <c r="AFW60"/>
+      <c r="AFX60"/>
+      <c r="AFY60"/>
+      <c r="AFZ60"/>
+      <c r="AGA60"/>
+      <c r="AGB60"/>
+      <c r="AGC60"/>
+      <c r="AGD60"/>
+      <c r="AGE60"/>
+      <c r="AGF60"/>
+      <c r="AGG60"/>
+      <c r="AGH60"/>
+      <c r="AGI60"/>
+      <c r="AGJ60"/>
+      <c r="AGK60"/>
+      <c r="AGL60"/>
+      <c r="AGM60"/>
+      <c r="AGN60"/>
+      <c r="AGO60"/>
+      <c r="AGP60"/>
+      <c r="AGQ60"/>
+      <c r="AGR60"/>
+      <c r="AGS60"/>
+      <c r="AGT60"/>
+      <c r="AGU60"/>
+      <c r="AGV60"/>
+      <c r="AGW60"/>
+      <c r="AGX60"/>
+      <c r="AGY60"/>
+      <c r="AGZ60"/>
+      <c r="AHA60"/>
+      <c r="AHB60"/>
+      <c r="AHC60"/>
+      <c r="AHD60"/>
+      <c r="AHE60"/>
+      <c r="AHF60"/>
+      <c r="AHG60"/>
+      <c r="AHH60"/>
+      <c r="AHI60"/>
+      <c r="AHJ60"/>
+      <c r="AHK60"/>
+      <c r="AHL60"/>
+      <c r="AHM60"/>
+      <c r="AHN60"/>
+      <c r="AHO60"/>
+      <c r="AHP60"/>
+      <c r="AHQ60"/>
+      <c r="AHR60"/>
+      <c r="AHS60"/>
+      <c r="AHT60"/>
+      <c r="AHU60"/>
+      <c r="AHV60"/>
+      <c r="AHW60"/>
+      <c r="AHX60"/>
+      <c r="AHY60"/>
+      <c r="AHZ60"/>
+      <c r="AIA60"/>
+      <c r="AIB60"/>
+      <c r="AIC60"/>
+      <c r="AID60"/>
+      <c r="AIE60"/>
+      <c r="AIF60"/>
+      <c r="AIG60"/>
+      <c r="AIH60"/>
+      <c r="AII60"/>
+      <c r="AIJ60"/>
+      <c r="AIK60"/>
+      <c r="AIL60"/>
+      <c r="AIM60"/>
+      <c r="AIN60"/>
+      <c r="AIO60"/>
+      <c r="AIP60"/>
+      <c r="AIQ60"/>
+      <c r="AIR60"/>
+      <c r="AIS60"/>
+      <c r="AIT60"/>
+      <c r="AIU60"/>
+      <c r="AIV60"/>
+      <c r="AIW60"/>
+      <c r="AIX60"/>
+      <c r="AIY60"/>
+      <c r="AIZ60"/>
+      <c r="AJA60"/>
+      <c r="AJB60"/>
+      <c r="AJC60"/>
+      <c r="AJD60"/>
+      <c r="AJE60"/>
+      <c r="AJF60"/>
+      <c r="AJG60"/>
+      <c r="AJH60"/>
+      <c r="AJI60"/>
+      <c r="AJJ60"/>
+      <c r="AJK60"/>
+      <c r="AJL60"/>
+      <c r="AJM60"/>
+      <c r="AJN60"/>
+      <c r="AJO60"/>
+      <c r="AJP60"/>
+      <c r="AJQ60"/>
+      <c r="AJR60"/>
+      <c r="AJS60"/>
+      <c r="AJT60"/>
+      <c r="AJU60"/>
+      <c r="AJV60"/>
+      <c r="AJW60"/>
+      <c r="AJX60"/>
+      <c r="AJY60"/>
+      <c r="AJZ60"/>
+      <c r="AKA60"/>
+      <c r="AKB60"/>
+      <c r="AKC60"/>
+      <c r="AKD60"/>
+      <c r="AKE60"/>
+      <c r="AKF60"/>
+      <c r="AKG60"/>
+      <c r="AKH60"/>
+      <c r="AKI60"/>
+      <c r="AKJ60"/>
+      <c r="AKK60"/>
+      <c r="AKL60"/>
+      <c r="AKM60"/>
+      <c r="AKN60"/>
+      <c r="AKO60"/>
+      <c r="AKP60"/>
+      <c r="AKQ60"/>
+      <c r="AKR60"/>
+      <c r="AKS60"/>
+      <c r="AKT60"/>
+      <c r="AKU60"/>
+      <c r="AKV60"/>
+      <c r="AKW60"/>
+      <c r="AKX60"/>
+      <c r="AKY60"/>
+      <c r="AKZ60"/>
+      <c r="ALA60"/>
+      <c r="ALB60"/>
+      <c r="ALC60"/>
+      <c r="ALD60"/>
+      <c r="ALE60"/>
+      <c r="ALF60"/>
+      <c r="ALG60"/>
+      <c r="ALH60"/>
+      <c r="ALI60"/>
+      <c r="ALJ60"/>
+      <c r="ALK60"/>
+      <c r="ALL60"/>
+      <c r="ALM60"/>
+      <c r="ALN60"/>
+      <c r="ALO60"/>
+      <c r="ALP60"/>
+      <c r="ALQ60"/>
+      <c r="ALR60"/>
+      <c r="ALS60"/>
+      <c r="ALT60"/>
+      <c r="ALU60"/>
+      <c r="ALV60"/>
+      <c r="ALW60"/>
+      <c r="ALX60"/>
+      <c r="ALY60"/>
+      <c r="ALZ60"/>
+      <c r="AMA60"/>
+      <c r="AMB60"/>
+      <c r="AMC60"/>
+      <c r="AMD60"/>
+      <c r="AME60"/>
+      <c r="AMF60"/>
+      <c r="AMG60"/>
+      <c r="AMH60"/>
+      <c r="AMI60"/>
+      <c r="AMJ60"/>
     </row>
     <row r="61" spans="1:1025" customHeight="1" ht="15">
       <c r="A61"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="69"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="70"/>
-      <c r="R61" s="70"/>
-      <c r="S61" s="70"/>
-      <c r="T61" s="70"/>
-      <c r="U61" s="70"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="70"/>
-      <c r="Z61" s="70"/>
-      <c r="AA61" s="70"/>
-      <c r="AB61" s="70"/>
-      <c r="AC61" s="70"/>
-      <c r="AD61" s="71"/>
-      <c r="AE61" s="71"/>
-      <c r="AF61" s="71"/>
-      <c r="AG61" s="71"/>
-      <c r="AH61" s="71"/>
-      <c r="AI61" s="71"/>
-      <c r="AJ61" s="71"/>
-      <c r="AK61" s="71"/>
-      <c r="AL61" s="71"/>
-      <c r="AM61" s="71"/>
-      <c r="AN61" s="71"/>
-      <c r="AO61" s="71"/>
-      <c r="AP61" s="71"/>
-      <c r="AQ61" s="71"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="67"/>
+      <c r="Z61" s="67"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="68"/>
+      <c r="AE61" s="68"/>
+      <c r="AF61" s="68"/>
+      <c r="AG61" s="68"/>
+      <c r="AH61" s="68"/>
+      <c r="AI61" s="68"/>
+      <c r="AJ61" s="68"/>
+      <c r="AK61" s="68"/>
+      <c r="AL61" s="68"/>
+      <c r="AM61" s="68"/>
+      <c r="AN61" s="68"/>
+      <c r="AO61" s="68"/>
+      <c r="AP61" s="68"/>
+      <c r="AQ61" s="68"/>
       <c r="AR61"/>
       <c r="AS61"/>
       <c r="AT61"/>
@@ -61182,48 +62541,48 @@
     </row>
     <row r="62" spans="1:1025" customHeight="1" ht="15">
       <c r="A62"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="69"/>
-      <c r="P62" s="70"/>
-      <c r="Q62" s="70"/>
-      <c r="R62" s="70"/>
-      <c r="S62" s="70"/>
-      <c r="T62" s="70"/>
-      <c r="U62" s="70"/>
-      <c r="V62" s="70"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="70"/>
-      <c r="Y62" s="70"/>
-      <c r="Z62" s="70"/>
-      <c r="AA62" s="70"/>
-      <c r="AB62" s="70"/>
-      <c r="AC62" s="70"/>
-      <c r="AD62" s="71"/>
-      <c r="AE62" s="71"/>
-      <c r="AF62" s="71"/>
-      <c r="AG62" s="71"/>
-      <c r="AH62" s="71"/>
-      <c r="AI62" s="71"/>
-      <c r="AJ62" s="71"/>
-      <c r="AK62" s="71"/>
-      <c r="AL62" s="71"/>
-      <c r="AM62" s="71"/>
-      <c r="AN62" s="71"/>
-      <c r="AO62" s="71"/>
-      <c r="AP62" s="71"/>
-      <c r="AQ62" s="71"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="67"/>
+      <c r="Z62" s="67"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="67"/>
+      <c r="AD62" s="68"/>
+      <c r="AE62" s="68"/>
+      <c r="AF62" s="68"/>
+      <c r="AG62" s="68"/>
+      <c r="AH62" s="68"/>
+      <c r="AI62" s="68"/>
+      <c r="AJ62" s="68"/>
+      <c r="AK62" s="68"/>
+      <c r="AL62" s="68"/>
+      <c r="AM62" s="68"/>
+      <c r="AN62" s="68"/>
+      <c r="AO62" s="68"/>
+      <c r="AP62" s="68"/>
+      <c r="AQ62" s="68"/>
       <c r="AR62"/>
       <c r="AS62"/>
       <c r="AT62"/>
@@ -62206,1015 +63565,68 @@
       <c r="AMI62"/>
       <c r="AMJ62"/>
     </row>
-    <row r="63" spans="1:1025" customHeight="1" ht="15">
-      <c r="A63"/>
-      <c r="B63" s="72"/>
-      <c r="AP63" s="10"/>
-      <c r="AQ63" s="73"/>
-      <c r="AR63"/>
-      <c r="AS63"/>
-      <c r="AT63"/>
-      <c r="AU63"/>
-      <c r="AV63"/>
-      <c r="AW63"/>
-      <c r="AX63"/>
-      <c r="AY63"/>
-      <c r="AZ63"/>
-      <c r="BA63"/>
-      <c r="BB63"/>
-      <c r="BC63"/>
-      <c r="BD63"/>
-      <c r="BE63"/>
-      <c r="BF63"/>
-      <c r="BG63"/>
-      <c r="BH63"/>
-      <c r="BI63"/>
-      <c r="BJ63"/>
-      <c r="BK63"/>
-      <c r="BL63"/>
-      <c r="BM63"/>
-      <c r="BN63"/>
-      <c r="BO63"/>
-      <c r="BP63"/>
-      <c r="BQ63"/>
-      <c r="BR63"/>
-      <c r="BS63"/>
-      <c r="BT63"/>
-      <c r="BU63"/>
-      <c r="BV63"/>
-      <c r="BW63"/>
-      <c r="BX63"/>
-      <c r="BY63"/>
-      <c r="BZ63"/>
-      <c r="CA63"/>
-      <c r="CB63"/>
-      <c r="CC63"/>
-      <c r="CD63"/>
-      <c r="CE63"/>
-      <c r="CF63"/>
-      <c r="CG63"/>
-      <c r="CH63"/>
-      <c r="CI63"/>
-      <c r="CJ63"/>
-      <c r="CK63"/>
-      <c r="CL63"/>
-      <c r="CM63"/>
-      <c r="CN63"/>
-      <c r="CO63"/>
-      <c r="CP63"/>
-      <c r="CQ63"/>
-      <c r="CR63"/>
-      <c r="CS63"/>
-      <c r="CT63"/>
-      <c r="CU63"/>
-      <c r="CV63"/>
-      <c r="CW63"/>
-      <c r="CX63"/>
-      <c r="CY63"/>
-      <c r="CZ63"/>
-      <c r="DA63"/>
-      <c r="DB63"/>
-      <c r="DC63"/>
-      <c r="DD63"/>
-      <c r="DE63"/>
-      <c r="DF63"/>
-      <c r="DG63"/>
-      <c r="DH63"/>
-      <c r="DI63"/>
-      <c r="DJ63"/>
-      <c r="DK63"/>
-      <c r="DL63"/>
-      <c r="DM63"/>
-      <c r="DN63"/>
-      <c r="DO63"/>
-      <c r="DP63"/>
-      <c r="DQ63"/>
-      <c r="DR63"/>
-      <c r="DS63"/>
-      <c r="DT63"/>
-      <c r="DU63"/>
-      <c r="DV63"/>
-      <c r="DW63"/>
-      <c r="DX63"/>
-      <c r="DY63"/>
-      <c r="DZ63"/>
-      <c r="EA63"/>
-      <c r="EB63"/>
-      <c r="EC63"/>
-      <c r="ED63"/>
-      <c r="EE63"/>
-      <c r="EF63"/>
-      <c r="EG63"/>
-      <c r="EH63"/>
-      <c r="EI63"/>
-      <c r="EJ63"/>
-      <c r="EK63"/>
-      <c r="EL63"/>
-      <c r="EM63"/>
-      <c r="EN63"/>
-      <c r="EO63"/>
-      <c r="EP63"/>
-      <c r="EQ63"/>
-      <c r="ER63"/>
-      <c r="ES63"/>
-      <c r="ET63"/>
-      <c r="EU63"/>
-      <c r="EV63"/>
-      <c r="EW63"/>
-      <c r="EX63"/>
-      <c r="EY63"/>
-      <c r="EZ63"/>
-      <c r="FA63"/>
-      <c r="FB63"/>
-      <c r="FC63"/>
-      <c r="FD63"/>
-      <c r="FE63"/>
-      <c r="FF63"/>
-      <c r="FG63"/>
-      <c r="FH63"/>
-      <c r="FI63"/>
-      <c r="FJ63"/>
-      <c r="FK63"/>
-      <c r="FL63"/>
-      <c r="FM63"/>
-      <c r="FN63"/>
-      <c r="FO63"/>
-      <c r="FP63"/>
-      <c r="FQ63"/>
-      <c r="FR63"/>
-      <c r="FS63"/>
-      <c r="FT63"/>
-      <c r="FU63"/>
-      <c r="FV63"/>
-      <c r="FW63"/>
-      <c r="FX63"/>
-      <c r="FY63"/>
-      <c r="FZ63"/>
-      <c r="GA63"/>
-      <c r="GB63"/>
-      <c r="GC63"/>
-      <c r="GD63"/>
-      <c r="GE63"/>
-      <c r="GF63"/>
-      <c r="GG63"/>
-      <c r="GH63"/>
-      <c r="GI63"/>
-      <c r="GJ63"/>
-      <c r="GK63"/>
-      <c r="GL63"/>
-      <c r="GM63"/>
-      <c r="GN63"/>
-      <c r="GO63"/>
-      <c r="GP63"/>
-      <c r="GQ63"/>
-      <c r="GR63"/>
-      <c r="GS63"/>
-      <c r="GT63"/>
-      <c r="GU63"/>
-      <c r="GV63"/>
-      <c r="GW63"/>
-      <c r="GX63"/>
-      <c r="GY63"/>
-      <c r="GZ63"/>
-      <c r="HA63"/>
-      <c r="HB63"/>
-      <c r="HC63"/>
-      <c r="HD63"/>
-      <c r="HE63"/>
-      <c r="HF63"/>
-      <c r="HG63"/>
-      <c r="HH63"/>
-      <c r="HI63"/>
-      <c r="HJ63"/>
-      <c r="HK63"/>
-      <c r="HL63"/>
-      <c r="HM63"/>
-      <c r="HN63"/>
-      <c r="HO63"/>
-      <c r="HP63"/>
-      <c r="HQ63"/>
-      <c r="HR63"/>
-      <c r="HS63"/>
-      <c r="HT63"/>
-      <c r="HU63"/>
-      <c r="HV63"/>
-      <c r="HW63"/>
-      <c r="HX63"/>
-      <c r="HY63"/>
-      <c r="HZ63"/>
-      <c r="IA63"/>
-      <c r="IB63"/>
-      <c r="IC63"/>
-      <c r="ID63"/>
-      <c r="IE63"/>
-      <c r="IF63"/>
-      <c r="IG63"/>
-      <c r="IH63"/>
-      <c r="II63"/>
-      <c r="IJ63"/>
-      <c r="IK63"/>
-      <c r="IL63"/>
-      <c r="IM63"/>
-      <c r="IN63"/>
-      <c r="IO63"/>
-      <c r="IP63"/>
-      <c r="IQ63"/>
-      <c r="IR63"/>
-      <c r="IS63"/>
-      <c r="IT63"/>
-      <c r="IU63"/>
-      <c r="IV63"/>
-      <c r="IW63"/>
-      <c r="IX63"/>
-      <c r="IY63"/>
-      <c r="IZ63"/>
-      <c r="JA63"/>
-      <c r="JB63"/>
-      <c r="JC63"/>
-      <c r="JD63"/>
-      <c r="JE63"/>
-      <c r="JF63"/>
-      <c r="JG63"/>
-      <c r="JH63"/>
-      <c r="JI63"/>
-      <c r="JJ63"/>
-      <c r="JK63"/>
-      <c r="JL63"/>
-      <c r="JM63"/>
-      <c r="JN63"/>
-      <c r="JO63"/>
-      <c r="JP63"/>
-      <c r="JQ63"/>
-      <c r="JR63"/>
-      <c r="JS63"/>
-      <c r="JT63"/>
-      <c r="JU63"/>
-      <c r="JV63"/>
-      <c r="JW63"/>
-      <c r="JX63"/>
-      <c r="JY63"/>
-      <c r="JZ63"/>
-      <c r="KA63"/>
-      <c r="KB63"/>
-      <c r="KC63"/>
-      <c r="KD63"/>
-      <c r="KE63"/>
-      <c r="KF63"/>
-      <c r="KG63"/>
-      <c r="KH63"/>
-      <c r="KI63"/>
-      <c r="KJ63"/>
-      <c r="KK63"/>
-      <c r="KL63"/>
-      <c r="KM63"/>
-      <c r="KN63"/>
-      <c r="KO63"/>
-      <c r="KP63"/>
-      <c r="KQ63"/>
-      <c r="KR63"/>
-      <c r="KS63"/>
-      <c r="KT63"/>
-      <c r="KU63"/>
-      <c r="KV63"/>
-      <c r="KW63"/>
-      <c r="KX63"/>
-      <c r="KY63"/>
-      <c r="KZ63"/>
-      <c r="LA63"/>
-      <c r="LB63"/>
-      <c r="LC63"/>
-      <c r="LD63"/>
-      <c r="LE63"/>
-      <c r="LF63"/>
-      <c r="LG63"/>
-      <c r="LH63"/>
-      <c r="LI63"/>
-      <c r="LJ63"/>
-      <c r="LK63"/>
-      <c r="LL63"/>
-      <c r="LM63"/>
-      <c r="LN63"/>
-      <c r="LO63"/>
-      <c r="LP63"/>
-      <c r="LQ63"/>
-      <c r="LR63"/>
-      <c r="LS63"/>
-      <c r="LT63"/>
-      <c r="LU63"/>
-      <c r="LV63"/>
-      <c r="LW63"/>
-      <c r="LX63"/>
-      <c r="LY63"/>
-      <c r="LZ63"/>
-      <c r="MA63"/>
-      <c r="MB63"/>
-      <c r="MC63"/>
-      <c r="MD63"/>
-      <c r="ME63"/>
-      <c r="MF63"/>
-      <c r="MG63"/>
-      <c r="MH63"/>
-      <c r="MI63"/>
-      <c r="MJ63"/>
-      <c r="MK63"/>
-      <c r="ML63"/>
-      <c r="MM63"/>
-      <c r="MN63"/>
-      <c r="MO63"/>
-      <c r="MP63"/>
-      <c r="MQ63"/>
-      <c r="MR63"/>
-      <c r="MS63"/>
-      <c r="MT63"/>
-      <c r="MU63"/>
-      <c r="MV63"/>
-      <c r="MW63"/>
-      <c r="MX63"/>
-      <c r="MY63"/>
-      <c r="MZ63"/>
-      <c r="NA63"/>
-      <c r="NB63"/>
-      <c r="NC63"/>
-      <c r="ND63"/>
-      <c r="NE63"/>
-      <c r="NF63"/>
-      <c r="NG63"/>
-      <c r="NH63"/>
-      <c r="NI63"/>
-      <c r="NJ63"/>
-      <c r="NK63"/>
-      <c r="NL63"/>
-      <c r="NM63"/>
-      <c r="NN63"/>
-      <c r="NO63"/>
-      <c r="NP63"/>
-      <c r="NQ63"/>
-      <c r="NR63"/>
-      <c r="NS63"/>
-      <c r="NT63"/>
-      <c r="NU63"/>
-      <c r="NV63"/>
-      <c r="NW63"/>
-      <c r="NX63"/>
-      <c r="NY63"/>
-      <c r="NZ63"/>
-      <c r="OA63"/>
-      <c r="OB63"/>
-      <c r="OC63"/>
-      <c r="OD63"/>
-      <c r="OE63"/>
-      <c r="OF63"/>
-      <c r="OG63"/>
-      <c r="OH63"/>
-      <c r="OI63"/>
-      <c r="OJ63"/>
-      <c r="OK63"/>
-      <c r="OL63"/>
-      <c r="OM63"/>
-      <c r="ON63"/>
-      <c r="OO63"/>
-      <c r="OP63"/>
-      <c r="OQ63"/>
-      <c r="OR63"/>
-      <c r="OS63"/>
-      <c r="OT63"/>
-      <c r="OU63"/>
-      <c r="OV63"/>
-      <c r="OW63"/>
-      <c r="OX63"/>
-      <c r="OY63"/>
-      <c r="OZ63"/>
-      <c r="PA63"/>
-      <c r="PB63"/>
-      <c r="PC63"/>
-      <c r="PD63"/>
-      <c r="PE63"/>
-      <c r="PF63"/>
-      <c r="PG63"/>
-      <c r="PH63"/>
-      <c r="PI63"/>
-      <c r="PJ63"/>
-      <c r="PK63"/>
-      <c r="PL63"/>
-      <c r="PM63"/>
-      <c r="PN63"/>
-      <c r="PO63"/>
-      <c r="PP63"/>
-      <c r="PQ63"/>
-      <c r="PR63"/>
-      <c r="PS63"/>
-      <c r="PT63"/>
-      <c r="PU63"/>
-      <c r="PV63"/>
-      <c r="PW63"/>
-      <c r="PX63"/>
-      <c r="PY63"/>
-      <c r="PZ63"/>
-      <c r="QA63"/>
-      <c r="QB63"/>
-      <c r="QC63"/>
-      <c r="QD63"/>
-      <c r="QE63"/>
-      <c r="QF63"/>
-      <c r="QG63"/>
-      <c r="QH63"/>
-      <c r="QI63"/>
-      <c r="QJ63"/>
-      <c r="QK63"/>
-      <c r="QL63"/>
-      <c r="QM63"/>
-      <c r="QN63"/>
-      <c r="QO63"/>
-      <c r="QP63"/>
-      <c r="QQ63"/>
-      <c r="QR63"/>
-      <c r="QS63"/>
-      <c r="QT63"/>
-      <c r="QU63"/>
-      <c r="QV63"/>
-      <c r="QW63"/>
-      <c r="QX63"/>
-      <c r="QY63"/>
-      <c r="QZ63"/>
-      <c r="RA63"/>
-      <c r="RB63"/>
-      <c r="RC63"/>
-      <c r="RD63"/>
-      <c r="RE63"/>
-      <c r="RF63"/>
-      <c r="RG63"/>
-      <c r="RH63"/>
-      <c r="RI63"/>
-      <c r="RJ63"/>
-      <c r="RK63"/>
-      <c r="RL63"/>
-      <c r="RM63"/>
-      <c r="RN63"/>
-      <c r="RO63"/>
-      <c r="RP63"/>
-      <c r="RQ63"/>
-      <c r="RR63"/>
-      <c r="RS63"/>
-      <c r="RT63"/>
-      <c r="RU63"/>
-      <c r="RV63"/>
-      <c r="RW63"/>
-      <c r="RX63"/>
-      <c r="RY63"/>
-      <c r="RZ63"/>
-      <c r="SA63"/>
-      <c r="SB63"/>
-      <c r="SC63"/>
-      <c r="SD63"/>
-      <c r="SE63"/>
-      <c r="SF63"/>
-      <c r="SG63"/>
-      <c r="SH63"/>
-      <c r="SI63"/>
-      <c r="SJ63"/>
-      <c r="SK63"/>
-      <c r="SL63"/>
-      <c r="SM63"/>
-      <c r="SN63"/>
-      <c r="SO63"/>
-      <c r="SP63"/>
-      <c r="SQ63"/>
-      <c r="SR63"/>
-      <c r="SS63"/>
-      <c r="ST63"/>
-      <c r="SU63"/>
-      <c r="SV63"/>
-      <c r="SW63"/>
-      <c r="SX63"/>
-      <c r="SY63"/>
-      <c r="SZ63"/>
-      <c r="TA63"/>
-      <c r="TB63"/>
-      <c r="TC63"/>
-      <c r="TD63"/>
-      <c r="TE63"/>
-      <c r="TF63"/>
-      <c r="TG63"/>
-      <c r="TH63"/>
-      <c r="TI63"/>
-      <c r="TJ63"/>
-      <c r="TK63"/>
-      <c r="TL63"/>
-      <c r="TM63"/>
-      <c r="TN63"/>
-      <c r="TO63"/>
-      <c r="TP63"/>
-      <c r="TQ63"/>
-      <c r="TR63"/>
-      <c r="TS63"/>
-      <c r="TT63"/>
-      <c r="TU63"/>
-      <c r="TV63"/>
-      <c r="TW63"/>
-      <c r="TX63"/>
-      <c r="TY63"/>
-      <c r="TZ63"/>
-      <c r="UA63"/>
-      <c r="UB63"/>
-      <c r="UC63"/>
-      <c r="UD63"/>
-      <c r="UE63"/>
-      <c r="UF63"/>
-      <c r="UG63"/>
-      <c r="UH63"/>
-      <c r="UI63"/>
-      <c r="UJ63"/>
-      <c r="UK63"/>
-      <c r="UL63"/>
-      <c r="UM63"/>
-      <c r="UN63"/>
-      <c r="UO63"/>
-      <c r="UP63"/>
-      <c r="UQ63"/>
-      <c r="UR63"/>
-      <c r="US63"/>
-      <c r="UT63"/>
-      <c r="UU63"/>
-      <c r="UV63"/>
-      <c r="UW63"/>
-      <c r="UX63"/>
-      <c r="UY63"/>
-      <c r="UZ63"/>
-      <c r="VA63"/>
-      <c r="VB63"/>
-      <c r="VC63"/>
-      <c r="VD63"/>
-      <c r="VE63"/>
-      <c r="VF63"/>
-      <c r="VG63"/>
-      <c r="VH63"/>
-      <c r="VI63"/>
-      <c r="VJ63"/>
-      <c r="VK63"/>
-      <c r="VL63"/>
-      <c r="VM63"/>
-      <c r="VN63"/>
-      <c r="VO63"/>
-      <c r="VP63"/>
-      <c r="VQ63"/>
-      <c r="VR63"/>
-      <c r="VS63"/>
-      <c r="VT63"/>
-      <c r="VU63"/>
-      <c r="VV63"/>
-      <c r="VW63"/>
-      <c r="VX63"/>
-      <c r="VY63"/>
-      <c r="VZ63"/>
-      <c r="WA63"/>
-      <c r="WB63"/>
-      <c r="WC63"/>
-      <c r="WD63"/>
-      <c r="WE63"/>
-      <c r="WF63"/>
-      <c r="WG63"/>
-      <c r="WH63"/>
-      <c r="WI63"/>
-      <c r="WJ63"/>
-      <c r="WK63"/>
-      <c r="WL63"/>
-      <c r="WM63"/>
-      <c r="WN63"/>
-      <c r="WO63"/>
-      <c r="WP63"/>
-      <c r="WQ63"/>
-      <c r="WR63"/>
-      <c r="WS63"/>
-      <c r="WT63"/>
-      <c r="WU63"/>
-      <c r="WV63"/>
-      <c r="WW63"/>
-      <c r="WX63"/>
-      <c r="WY63"/>
-      <c r="WZ63"/>
-      <c r="XA63"/>
-      <c r="XB63"/>
-      <c r="XC63"/>
-      <c r="XD63"/>
-      <c r="XE63"/>
-      <c r="XF63"/>
-      <c r="XG63"/>
-      <c r="XH63"/>
-      <c r="XI63"/>
-      <c r="XJ63"/>
-      <c r="XK63"/>
-      <c r="XL63"/>
-      <c r="XM63"/>
-      <c r="XN63"/>
-      <c r="XO63"/>
-      <c r="XP63"/>
-      <c r="XQ63"/>
-      <c r="XR63"/>
-      <c r="XS63"/>
-      <c r="XT63"/>
-      <c r="XU63"/>
-      <c r="XV63"/>
-      <c r="XW63"/>
-      <c r="XX63"/>
-      <c r="XY63"/>
-      <c r="XZ63"/>
-      <c r="YA63"/>
-      <c r="YB63"/>
-      <c r="YC63"/>
-      <c r="YD63"/>
-      <c r="YE63"/>
-      <c r="YF63"/>
-      <c r="YG63"/>
-      <c r="YH63"/>
-      <c r="YI63"/>
-      <c r="YJ63"/>
-      <c r="YK63"/>
-      <c r="YL63"/>
-      <c r="YM63"/>
-      <c r="YN63"/>
-      <c r="YO63"/>
-      <c r="YP63"/>
-      <c r="YQ63"/>
-      <c r="YR63"/>
-      <c r="YS63"/>
-      <c r="YT63"/>
-      <c r="YU63"/>
-      <c r="YV63"/>
-      <c r="YW63"/>
-      <c r="YX63"/>
-      <c r="YY63"/>
-      <c r="YZ63"/>
-      <c r="ZA63"/>
-      <c r="ZB63"/>
-      <c r="ZC63"/>
-      <c r="ZD63"/>
-      <c r="ZE63"/>
-      <c r="ZF63"/>
-      <c r="ZG63"/>
-      <c r="ZH63"/>
-      <c r="ZI63"/>
-      <c r="ZJ63"/>
-      <c r="ZK63"/>
-      <c r="ZL63"/>
-      <c r="ZM63"/>
-      <c r="ZN63"/>
-      <c r="ZO63"/>
-      <c r="ZP63"/>
-      <c r="ZQ63"/>
-      <c r="ZR63"/>
-      <c r="ZS63"/>
-      <c r="ZT63"/>
-      <c r="ZU63"/>
-      <c r="ZV63"/>
-      <c r="ZW63"/>
-      <c r="ZX63"/>
-      <c r="ZY63"/>
-      <c r="ZZ63"/>
-      <c r="AAA63"/>
-      <c r="AAB63"/>
-      <c r="AAC63"/>
-      <c r="AAD63"/>
-      <c r="AAE63"/>
-      <c r="AAF63"/>
-      <c r="AAG63"/>
-      <c r="AAH63"/>
-      <c r="AAI63"/>
-      <c r="AAJ63"/>
-      <c r="AAK63"/>
-      <c r="AAL63"/>
-      <c r="AAM63"/>
-      <c r="AAN63"/>
-      <c r="AAO63"/>
-      <c r="AAP63"/>
-      <c r="AAQ63"/>
-      <c r="AAR63"/>
-      <c r="AAS63"/>
-      <c r="AAT63"/>
-      <c r="AAU63"/>
-      <c r="AAV63"/>
-      <c r="AAW63"/>
-      <c r="AAX63"/>
-      <c r="AAY63"/>
-      <c r="AAZ63"/>
-      <c r="ABA63"/>
-      <c r="ABB63"/>
-      <c r="ABC63"/>
-      <c r="ABD63"/>
-      <c r="ABE63"/>
-      <c r="ABF63"/>
-      <c r="ABG63"/>
-      <c r="ABH63"/>
-      <c r="ABI63"/>
-      <c r="ABJ63"/>
-      <c r="ABK63"/>
-      <c r="ABL63"/>
-      <c r="ABM63"/>
-      <c r="ABN63"/>
-      <c r="ABO63"/>
-      <c r="ABP63"/>
-      <c r="ABQ63"/>
-      <c r="ABR63"/>
-      <c r="ABS63"/>
-      <c r="ABT63"/>
-      <c r="ABU63"/>
-      <c r="ABV63"/>
-      <c r="ABW63"/>
-      <c r="ABX63"/>
-      <c r="ABY63"/>
-      <c r="ABZ63"/>
-      <c r="ACA63"/>
-      <c r="ACB63"/>
-      <c r="ACC63"/>
-      <c r="ACD63"/>
-      <c r="ACE63"/>
-      <c r="ACF63"/>
-      <c r="ACG63"/>
-      <c r="ACH63"/>
-      <c r="ACI63"/>
-      <c r="ACJ63"/>
-      <c r="ACK63"/>
-      <c r="ACL63"/>
-      <c r="ACM63"/>
-      <c r="ACN63"/>
-      <c r="ACO63"/>
-      <c r="ACP63"/>
-      <c r="ACQ63"/>
-      <c r="ACR63"/>
-      <c r="ACS63"/>
-      <c r="ACT63"/>
-      <c r="ACU63"/>
-      <c r="ACV63"/>
-      <c r="ACW63"/>
-      <c r="ACX63"/>
-      <c r="ACY63"/>
-      <c r="ACZ63"/>
-      <c r="ADA63"/>
-      <c r="ADB63"/>
-      <c r="ADC63"/>
-      <c r="ADD63"/>
-      <c r="ADE63"/>
-      <c r="ADF63"/>
-      <c r="ADG63"/>
-      <c r="ADH63"/>
-      <c r="ADI63"/>
-      <c r="ADJ63"/>
-      <c r="ADK63"/>
-      <c r="ADL63"/>
-      <c r="ADM63"/>
-      <c r="ADN63"/>
-      <c r="ADO63"/>
-      <c r="ADP63"/>
-      <c r="ADQ63"/>
-      <c r="ADR63"/>
-      <c r="ADS63"/>
-      <c r="ADT63"/>
-      <c r="ADU63"/>
-      <c r="ADV63"/>
-      <c r="ADW63"/>
-      <c r="ADX63"/>
-      <c r="ADY63"/>
-      <c r="ADZ63"/>
-      <c r="AEA63"/>
-      <c r="AEB63"/>
-      <c r="AEC63"/>
-      <c r="AED63"/>
-      <c r="AEE63"/>
-      <c r="AEF63"/>
-      <c r="AEG63"/>
-      <c r="AEH63"/>
-      <c r="AEI63"/>
-      <c r="AEJ63"/>
-      <c r="AEK63"/>
-      <c r="AEL63"/>
-      <c r="AEM63"/>
-      <c r="AEN63"/>
-      <c r="AEO63"/>
-      <c r="AEP63"/>
-      <c r="AEQ63"/>
-      <c r="AER63"/>
-      <c r="AES63"/>
-      <c r="AET63"/>
-      <c r="AEU63"/>
-      <c r="AEV63"/>
-      <c r="AEW63"/>
-      <c r="AEX63"/>
-      <c r="AEY63"/>
-      <c r="AEZ63"/>
-      <c r="AFA63"/>
-      <c r="AFB63"/>
-      <c r="AFC63"/>
-      <c r="AFD63"/>
-      <c r="AFE63"/>
-      <c r="AFF63"/>
-      <c r="AFG63"/>
-      <c r="AFH63"/>
-      <c r="AFI63"/>
-      <c r="AFJ63"/>
-      <c r="AFK63"/>
-      <c r="AFL63"/>
-      <c r="AFM63"/>
-      <c r="AFN63"/>
-      <c r="AFO63"/>
-      <c r="AFP63"/>
-      <c r="AFQ63"/>
-      <c r="AFR63"/>
-      <c r="AFS63"/>
-      <c r="AFT63"/>
-      <c r="AFU63"/>
-      <c r="AFV63"/>
-      <c r="AFW63"/>
-      <c r="AFX63"/>
-      <c r="AFY63"/>
-      <c r="AFZ63"/>
-      <c r="AGA63"/>
-      <c r="AGB63"/>
-      <c r="AGC63"/>
-      <c r="AGD63"/>
-      <c r="AGE63"/>
-      <c r="AGF63"/>
-      <c r="AGG63"/>
-      <c r="AGH63"/>
-      <c r="AGI63"/>
-      <c r="AGJ63"/>
-      <c r="AGK63"/>
-      <c r="AGL63"/>
-      <c r="AGM63"/>
-      <c r="AGN63"/>
-      <c r="AGO63"/>
-      <c r="AGP63"/>
-      <c r="AGQ63"/>
-      <c r="AGR63"/>
-      <c r="AGS63"/>
-      <c r="AGT63"/>
-      <c r="AGU63"/>
-      <c r="AGV63"/>
-      <c r="AGW63"/>
-      <c r="AGX63"/>
-      <c r="AGY63"/>
-      <c r="AGZ63"/>
-      <c r="AHA63"/>
-      <c r="AHB63"/>
-      <c r="AHC63"/>
-      <c r="AHD63"/>
-      <c r="AHE63"/>
-      <c r="AHF63"/>
-      <c r="AHG63"/>
-      <c r="AHH63"/>
-      <c r="AHI63"/>
-      <c r="AHJ63"/>
-      <c r="AHK63"/>
-      <c r="AHL63"/>
-      <c r="AHM63"/>
-      <c r="AHN63"/>
-      <c r="AHO63"/>
-      <c r="AHP63"/>
-      <c r="AHQ63"/>
-      <c r="AHR63"/>
-      <c r="AHS63"/>
-      <c r="AHT63"/>
-      <c r="AHU63"/>
-      <c r="AHV63"/>
-      <c r="AHW63"/>
-      <c r="AHX63"/>
-      <c r="AHY63"/>
-      <c r="AHZ63"/>
-      <c r="AIA63"/>
-      <c r="AIB63"/>
-      <c r="AIC63"/>
-      <c r="AID63"/>
-      <c r="AIE63"/>
-      <c r="AIF63"/>
-      <c r="AIG63"/>
-      <c r="AIH63"/>
-      <c r="AII63"/>
-      <c r="AIJ63"/>
-      <c r="AIK63"/>
-      <c r="AIL63"/>
-      <c r="AIM63"/>
-      <c r="AIN63"/>
-      <c r="AIO63"/>
-      <c r="AIP63"/>
-      <c r="AIQ63"/>
-      <c r="AIR63"/>
-      <c r="AIS63"/>
-      <c r="AIT63"/>
-      <c r="AIU63"/>
-      <c r="AIV63"/>
-      <c r="AIW63"/>
-      <c r="AIX63"/>
-      <c r="AIY63"/>
-      <c r="AIZ63"/>
-      <c r="AJA63"/>
-      <c r="AJB63"/>
-      <c r="AJC63"/>
-      <c r="AJD63"/>
-      <c r="AJE63"/>
-      <c r="AJF63"/>
-      <c r="AJG63"/>
-      <c r="AJH63"/>
-      <c r="AJI63"/>
-      <c r="AJJ63"/>
-      <c r="AJK63"/>
-      <c r="AJL63"/>
-      <c r="AJM63"/>
-      <c r="AJN63"/>
-      <c r="AJO63"/>
-      <c r="AJP63"/>
-      <c r="AJQ63"/>
-      <c r="AJR63"/>
-      <c r="AJS63"/>
-      <c r="AJT63"/>
-      <c r="AJU63"/>
-      <c r="AJV63"/>
-      <c r="AJW63"/>
-      <c r="AJX63"/>
-      <c r="AJY63"/>
-      <c r="AJZ63"/>
-      <c r="AKA63"/>
-      <c r="AKB63"/>
-      <c r="AKC63"/>
-      <c r="AKD63"/>
-      <c r="AKE63"/>
-      <c r="AKF63"/>
-      <c r="AKG63"/>
-      <c r="AKH63"/>
-      <c r="AKI63"/>
-      <c r="AKJ63"/>
-      <c r="AKK63"/>
-      <c r="AKL63"/>
-      <c r="AKM63"/>
-      <c r="AKN63"/>
-      <c r="AKO63"/>
-      <c r="AKP63"/>
-      <c r="AKQ63"/>
-      <c r="AKR63"/>
-      <c r="AKS63"/>
-      <c r="AKT63"/>
-      <c r="AKU63"/>
-      <c r="AKV63"/>
-      <c r="AKW63"/>
-      <c r="AKX63"/>
-      <c r="AKY63"/>
-      <c r="AKZ63"/>
-      <c r="ALA63"/>
-      <c r="ALB63"/>
-      <c r="ALC63"/>
-      <c r="ALD63"/>
-      <c r="ALE63"/>
-      <c r="ALF63"/>
-      <c r="ALG63"/>
-      <c r="ALH63"/>
-      <c r="ALI63"/>
-      <c r="ALJ63"/>
-      <c r="ALK63"/>
-      <c r="ALL63"/>
-      <c r="ALM63"/>
-      <c r="ALN63"/>
-      <c r="ALO63"/>
-      <c r="ALP63"/>
-      <c r="ALQ63"/>
-      <c r="ALR63"/>
-      <c r="ALS63"/>
-      <c r="ALT63"/>
-      <c r="ALU63"/>
-      <c r="ALV63"/>
-      <c r="ALW63"/>
-      <c r="ALX63"/>
-      <c r="ALY63"/>
-      <c r="ALZ63"/>
-      <c r="AMA63"/>
-      <c r="AMB63"/>
-      <c r="AMC63"/>
-      <c r="AMD63"/>
-      <c r="AME63"/>
-      <c r="AMF63"/>
-      <c r="AMG63"/>
-      <c r="AMH63"/>
-      <c r="AMI63"/>
-      <c r="AMJ63"/>
+    <row r="63" spans="1:1025" customHeight="1" ht="15" s="10" customFormat="1">
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="68"/>
+      <c r="AE63" s="68"/>
+      <c r="AF63" s="68"/>
+      <c r="AG63" s="68"/>
+      <c r="AH63" s="68"/>
+      <c r="AI63" s="68"/>
+      <c r="AJ63" s="68"/>
+      <c r="AK63" s="68"/>
+      <c r="AL63" s="68"/>
+      <c r="AM63" s="68"/>
+      <c r="AN63" s="68"/>
+      <c r="AO63" s="68"/>
+      <c r="AP63" s="68"/>
+      <c r="AQ63" s="68"/>
     </row>
     <row r="64" spans="1:1025" customHeight="1" ht="15">
       <c r="A64"/>
-      <c r="B64" s="66" t="s">
-        <v>50</v>
-      </c>
+      <c r="B64" s="66"/>
       <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q64" s="68"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
       <c r="R64" s="67"/>
       <c r="S64" s="67"/>
       <c r="T64" s="67"/>
@@ -63227,22 +63639,20 @@
       <c r="AA64" s="67"/>
       <c r="AB64" s="67"/>
       <c r="AC64" s="67"/>
-      <c r="AD64" s="68" t="s">
-        <v>52</v>
-      </c>
+      <c r="AD64" s="68"/>
       <c r="AE64" s="68"/>
-      <c r="AF64" s="74"/>
-      <c r="AG64" s="74"/>
-      <c r="AH64" s="74"/>
-      <c r="AI64" s="74"/>
-      <c r="AJ64" s="74"/>
-      <c r="AK64" s="74"/>
-      <c r="AL64" s="74"/>
-      <c r="AM64" s="74"/>
-      <c r="AN64" s="74"/>
-      <c r="AO64" s="74"/>
-      <c r="AP64" s="74"/>
-      <c r="AQ64" s="74"/>
+      <c r="AF64" s="68"/>
+      <c r="AG64" s="68"/>
+      <c r="AH64" s="68"/>
+      <c r="AI64" s="68"/>
+      <c r="AJ64" s="68"/>
+      <c r="AK64" s="68"/>
+      <c r="AL64" s="68"/>
+      <c r="AM64" s="68"/>
+      <c r="AN64" s="68"/>
+      <c r="AO64" s="68"/>
+      <c r="AP64" s="68"/>
+      <c r="AQ64" s="68"/>
       <c r="AR64"/>
       <c r="AS64"/>
       <c r="AT64"/>
@@ -64225,50 +64635,50 @@
       <c r="AMI64"/>
       <c r="AMJ64"/>
     </row>
-    <row r="65" spans="1:1025" customHeight="1" ht="15">
+    <row r="65" spans="1:1025" customHeight="1" ht="85.40000000000001">
       <c r="A65"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="69"/>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="70"/>
-      <c r="S65" s="70"/>
-      <c r="T65" s="70"/>
-      <c r="U65" s="70"/>
-      <c r="V65" s="70"/>
-      <c r="W65" s="70"/>
-      <c r="X65" s="70"/>
-      <c r="Y65" s="70"/>
-      <c r="Z65" s="70"/>
-      <c r="AA65" s="70"/>
-      <c r="AB65" s="70"/>
-      <c r="AC65" s="70"/>
-      <c r="AD65" s="71"/>
-      <c r="AE65" s="71"/>
-      <c r="AF65" s="71"/>
-      <c r="AG65" s="71"/>
-      <c r="AH65" s="71"/>
-      <c r="AI65" s="71"/>
-      <c r="AJ65" s="71"/>
-      <c r="AK65" s="71"/>
-      <c r="AL65" s="71"/>
-      <c r="AM65" s="71"/>
-      <c r="AN65" s="71"/>
-      <c r="AO65" s="71"/>
-      <c r="AP65" s="71"/>
-      <c r="AQ65" s="71"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
+      <c r="X65" s="67"/>
+      <c r="Y65" s="67"/>
+      <c r="Z65" s="67"/>
+      <c r="AA65" s="67"/>
+      <c r="AB65" s="67"/>
+      <c r="AC65" s="67"/>
+      <c r="AD65" s="68"/>
+      <c r="AE65" s="68"/>
+      <c r="AF65" s="68"/>
+      <c r="AG65" s="68"/>
+      <c r="AH65" s="68"/>
+      <c r="AI65" s="68"/>
+      <c r="AJ65" s="68"/>
+      <c r="AK65" s="68"/>
+      <c r="AL65" s="68"/>
+      <c r="AM65" s="68"/>
+      <c r="AN65" s="68"/>
+      <c r="AO65" s="68"/>
+      <c r="AP65" s="68"/>
+      <c r="AQ65" s="68"/>
       <c r="AR65"/>
       <c r="AS65"/>
       <c r="AT65"/>
@@ -65254,47 +65664,47 @@
     <row r="66" spans="1:1025" customHeight="1" ht="15">
       <c r="A66"/>
       <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="69"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="69"/>
-      <c r="P66" s="70"/>
-      <c r="Q66" s="70"/>
-      <c r="R66" s="70"/>
-      <c r="S66" s="70"/>
-      <c r="T66" s="70"/>
-      <c r="U66" s="70"/>
-      <c r="V66" s="70"/>
-      <c r="W66" s="70"/>
-      <c r="X66" s="70"/>
-      <c r="Y66" s="70"/>
-      <c r="Z66" s="70"/>
-      <c r="AA66" s="70"/>
-      <c r="AB66" s="70"/>
-      <c r="AC66" s="70"/>
-      <c r="AD66" s="71"/>
-      <c r="AE66" s="71"/>
-      <c r="AF66" s="71"/>
-      <c r="AG66" s="71"/>
-      <c r="AH66" s="71"/>
-      <c r="AI66" s="71"/>
-      <c r="AJ66" s="71"/>
-      <c r="AK66" s="71"/>
-      <c r="AL66" s="71"/>
-      <c r="AM66" s="71"/>
-      <c r="AN66" s="71"/>
-      <c r="AO66" s="71"/>
-      <c r="AP66" s="71"/>
-      <c r="AQ66" s="71"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66" s="10"/>
+      <c r="AQ66" s="70"/>
       <c r="AR66"/>
       <c r="AS66"/>
       <c r="AT66"/>
@@ -66279,37 +66689,49 @@
     </row>
     <row r="67" spans="1:1025" customHeight="1" ht="15">
       <c r="A67"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="69"/>
-      <c r="O67" s="69"/>
-      <c r="P67" s="70"/>
-      <c r="Q67" s="70"/>
-      <c r="R67" s="70"/>
-      <c r="S67" s="70"/>
-      <c r="T67" s="70"/>
-      <c r="U67" s="70"/>
-      <c r="V67" s="70"/>
-      <c r="W67" s="70"/>
-      <c r="X67" s="70"/>
-      <c r="Y67" s="70"/>
-      <c r="Z67" s="70"/>
-      <c r="AA67" s="70"/>
-      <c r="AB67" s="70"/>
-      <c r="AC67" s="70"/>
-      <c r="AD67" s="71"/>
-      <c r="AE67" s="71"/>
-      <c r="AF67" s="71"/>
+      <c r="B67" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="63"/>
+      <c r="D67" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="S67" s="64"/>
+      <c r="T67" s="64"/>
+      <c r="U67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="64"/>
+      <c r="Y67" s="64"/>
+      <c r="Z67" s="64"/>
+      <c r="AA67" s="64"/>
+      <c r="AB67" s="64"/>
+      <c r="AC67" s="64"/>
+      <c r="AD67" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE67" s="65"/>
+      <c r="AF67" s="71" t="s">
+        <v>57</v>
+      </c>
       <c r="AG67" s="71"/>
       <c r="AH67" s="71"/>
       <c r="AI67" s="71"/>
@@ -67305,48 +67727,48 @@
     </row>
     <row r="68" spans="1:1025" customHeight="1" ht="15">
       <c r="A68"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="69"/>
-      <c r="P68" s="70"/>
-      <c r="Q68" s="70"/>
-      <c r="R68" s="70"/>
-      <c r="S68" s="70"/>
-      <c r="T68" s="70"/>
-      <c r="U68" s="70"/>
-      <c r="V68" s="70"/>
-      <c r="W68" s="70"/>
-      <c r="X68" s="70"/>
-      <c r="Y68" s="70"/>
-      <c r="Z68" s="70"/>
-      <c r="AA68" s="70"/>
-      <c r="AB68" s="70"/>
-      <c r="AC68" s="70"/>
-      <c r="AD68" s="71"/>
-      <c r="AE68" s="71"/>
-      <c r="AF68" s="71"/>
-      <c r="AG68" s="71"/>
-      <c r="AH68" s="71"/>
-      <c r="AI68" s="71"/>
-      <c r="AJ68" s="71"/>
-      <c r="AK68" s="71"/>
-      <c r="AL68" s="71"/>
-      <c r="AM68" s="71"/>
-      <c r="AN68" s="71"/>
-      <c r="AO68" s="71"/>
-      <c r="AP68" s="71"/>
-      <c r="AQ68" s="71"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="67"/>
+      <c r="Q68" s="67"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="67"/>
+      <c r="W68" s="67"/>
+      <c r="X68" s="67"/>
+      <c r="Y68" s="67"/>
+      <c r="Z68" s="67"/>
+      <c r="AA68" s="67"/>
+      <c r="AB68" s="67"/>
+      <c r="AC68" s="67"/>
+      <c r="AD68" s="68"/>
+      <c r="AE68" s="68"/>
+      <c r="AF68" s="68"/>
+      <c r="AG68" s="68"/>
+      <c r="AH68" s="68"/>
+      <c r="AI68" s="68"/>
+      <c r="AJ68" s="68"/>
+      <c r="AK68" s="68"/>
+      <c r="AL68" s="68"/>
+      <c r="AM68" s="68"/>
+      <c r="AN68" s="68"/>
+      <c r="AO68" s="68"/>
+      <c r="AP68" s="68"/>
+      <c r="AQ68" s="68"/>
       <c r="AR68"/>
       <c r="AS68"/>
       <c r="AT68"/>
@@ -68331,48 +68753,48 @@
     </row>
     <row r="69" spans="1:1025" customHeight="1" ht="15">
       <c r="A69"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="70"/>
-      <c r="S69" s="70"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="70"/>
-      <c r="V69" s="70"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="70"/>
-      <c r="Y69" s="70"/>
-      <c r="Z69" s="70"/>
-      <c r="AA69" s="70"/>
-      <c r="AB69" s="70"/>
-      <c r="AC69" s="70"/>
-      <c r="AD69" s="71"/>
-      <c r="AE69" s="71"/>
-      <c r="AF69" s="71"/>
-      <c r="AG69" s="71"/>
-      <c r="AH69" s="71"/>
-      <c r="AI69" s="71"/>
-      <c r="AJ69" s="71"/>
-      <c r="AK69" s="71"/>
-      <c r="AL69" s="71"/>
-      <c r="AM69" s="71"/>
-      <c r="AN69" s="71"/>
-      <c r="AO69" s="71"/>
-      <c r="AP69" s="71"/>
-      <c r="AQ69" s="71"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
+      <c r="M69" s="66"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="66"/>
+      <c r="P69" s="67"/>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
+      <c r="U69" s="67"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="67"/>
+      <c r="X69" s="67"/>
+      <c r="Y69" s="67"/>
+      <c r="Z69" s="67"/>
+      <c r="AA69" s="67"/>
+      <c r="AB69" s="67"/>
+      <c r="AC69" s="67"/>
+      <c r="AD69" s="68"/>
+      <c r="AE69" s="68"/>
+      <c r="AF69" s="68"/>
+      <c r="AG69" s="68"/>
+      <c r="AH69" s="68"/>
+      <c r="AI69" s="68"/>
+      <c r="AJ69" s="68"/>
+      <c r="AK69" s="68"/>
+      <c r="AL69" s="68"/>
+      <c r="AM69" s="68"/>
+      <c r="AN69" s="68"/>
+      <c r="AO69" s="68"/>
+      <c r="AP69" s="68"/>
+      <c r="AQ69" s="68"/>
       <c r="AR69"/>
       <c r="AS69"/>
       <c r="AT69"/>
@@ -69357,48 +69779,48 @@
     </row>
     <row r="70" spans="1:1025" customHeight="1" ht="15">
       <c r="A70"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="69"/>
-      <c r="N70" s="69"/>
-      <c r="O70" s="69"/>
-      <c r="P70" s="70"/>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="70"/>
-      <c r="S70" s="70"/>
-      <c r="T70" s="70"/>
-      <c r="U70" s="70"/>
-      <c r="V70" s="70"/>
-      <c r="W70" s="70"/>
-      <c r="X70" s="70"/>
-      <c r="Y70" s="70"/>
-      <c r="Z70" s="70"/>
-      <c r="AA70" s="70"/>
-      <c r="AB70" s="70"/>
-      <c r="AC70" s="70"/>
-      <c r="AD70" s="71"/>
-      <c r="AE70" s="71"/>
-      <c r="AF70" s="71"/>
-      <c r="AG70" s="71"/>
-      <c r="AH70" s="71"/>
-      <c r="AI70" s="71"/>
-      <c r="AJ70" s="71"/>
-      <c r="AK70" s="71"/>
-      <c r="AL70" s="71"/>
-      <c r="AM70" s="71"/>
-      <c r="AN70" s="71"/>
-      <c r="AO70" s="71"/>
-      <c r="AP70" s="71"/>
-      <c r="AQ70" s="71"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="66"/>
+      <c r="P70" s="67"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
+      <c r="V70" s="67"/>
+      <c r="W70" s="67"/>
+      <c r="X70" s="67"/>
+      <c r="Y70" s="67"/>
+      <c r="Z70" s="67"/>
+      <c r="AA70" s="67"/>
+      <c r="AB70" s="67"/>
+      <c r="AC70" s="67"/>
+      <c r="AD70" s="68"/>
+      <c r="AE70" s="68"/>
+      <c r="AF70" s="68"/>
+      <c r="AG70" s="68"/>
+      <c r="AH70" s="68"/>
+      <c r="AI70" s="68"/>
+      <c r="AJ70" s="68"/>
+      <c r="AK70" s="68"/>
+      <c r="AL70" s="68"/>
+      <c r="AM70" s="68"/>
+      <c r="AN70" s="68"/>
+      <c r="AO70" s="68"/>
+      <c r="AP70" s="68"/>
+      <c r="AQ70" s="68"/>
       <c r="AR70"/>
       <c r="AS70"/>
       <c r="AT70"/>
@@ -70383,48 +70805,48 @@
     </row>
     <row r="71" spans="1:1025" customHeight="1" ht="15">
       <c r="A71"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="69"/>
-      <c r="N71" s="69"/>
-      <c r="O71" s="69"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="70"/>
-      <c r="R71" s="70"/>
-      <c r="S71" s="70"/>
-      <c r="T71" s="70"/>
-      <c r="U71" s="70"/>
-      <c r="V71" s="70"/>
-      <c r="W71" s="70"/>
-      <c r="X71" s="70"/>
-      <c r="Y71" s="70"/>
-      <c r="Z71" s="70"/>
-      <c r="AA71" s="70"/>
-      <c r="AB71" s="70"/>
-      <c r="AC71" s="70"/>
-      <c r="AD71" s="71"/>
-      <c r="AE71" s="71"/>
-      <c r="AF71" s="71"/>
-      <c r="AG71" s="71"/>
-      <c r="AH71" s="71"/>
-      <c r="AI71" s="71"/>
-      <c r="AJ71" s="71"/>
-      <c r="AK71" s="71"/>
-      <c r="AL71" s="71"/>
-      <c r="AM71" s="71"/>
-      <c r="AN71" s="71"/>
-      <c r="AO71" s="71"/>
-      <c r="AP71" s="71"/>
-      <c r="AQ71" s="71"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="67"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="67"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="67"/>
+      <c r="X71" s="67"/>
+      <c r="Y71" s="67"/>
+      <c r="Z71" s="67"/>
+      <c r="AA71" s="67"/>
+      <c r="AB71" s="67"/>
+      <c r="AC71" s="67"/>
+      <c r="AD71" s="68"/>
+      <c r="AE71" s="68"/>
+      <c r="AF71" s="68"/>
+      <c r="AG71" s="68"/>
+      <c r="AH71" s="68"/>
+      <c r="AI71" s="68"/>
+      <c r="AJ71" s="68"/>
+      <c r="AK71" s="68"/>
+      <c r="AL71" s="68"/>
+      <c r="AM71" s="68"/>
+      <c r="AN71" s="68"/>
+      <c r="AO71" s="68"/>
+      <c r="AP71" s="68"/>
+      <c r="AQ71" s="68"/>
       <c r="AR71"/>
       <c r="AS71"/>
       <c r="AT71"/>
@@ -71409,48 +71831,48 @@
     </row>
     <row r="72" spans="1:1025" customHeight="1" ht="15">
       <c r="A72"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="69"/>
-      <c r="J72" s="69"/>
-      <c r="K72" s="69"/>
-      <c r="L72" s="69"/>
-      <c r="M72" s="69"/>
-      <c r="N72" s="69"/>
-      <c r="O72" s="69"/>
-      <c r="P72" s="70"/>
-      <c r="Q72" s="70"/>
-      <c r="R72" s="70"/>
-      <c r="S72" s="70"/>
-      <c r="T72" s="70"/>
-      <c r="U72" s="70"/>
-      <c r="V72" s="70"/>
-      <c r="W72" s="70"/>
-      <c r="X72" s="70"/>
-      <c r="Y72" s="70"/>
-      <c r="Z72" s="70"/>
-      <c r="AA72" s="70"/>
-      <c r="AB72" s="70"/>
-      <c r="AC72" s="70"/>
-      <c r="AD72" s="71"/>
-      <c r="AE72" s="71"/>
-      <c r="AF72" s="71"/>
-      <c r="AG72" s="71"/>
-      <c r="AH72" s="71"/>
-      <c r="AI72" s="71"/>
-      <c r="AJ72" s="71"/>
-      <c r="AK72" s="71"/>
-      <c r="AL72" s="71"/>
-      <c r="AM72" s="71"/>
-      <c r="AN72" s="71"/>
-      <c r="AO72" s="71"/>
-      <c r="AP72" s="71"/>
-      <c r="AQ72" s="71"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="66"/>
+      <c r="P72" s="67"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="U72" s="67"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="67"/>
+      <c r="X72" s="67"/>
+      <c r="Y72" s="67"/>
+      <c r="Z72" s="67"/>
+      <c r="AA72" s="67"/>
+      <c r="AB72" s="67"/>
+      <c r="AC72" s="67"/>
+      <c r="AD72" s="68"/>
+      <c r="AE72" s="68"/>
+      <c r="AF72" s="68"/>
+      <c r="AG72" s="68"/>
+      <c r="AH72" s="68"/>
+      <c r="AI72" s="68"/>
+      <c r="AJ72" s="68"/>
+      <c r="AK72" s="68"/>
+      <c r="AL72" s="68"/>
+      <c r="AM72" s="68"/>
+      <c r="AN72" s="68"/>
+      <c r="AO72" s="68"/>
+      <c r="AP72" s="68"/>
+      <c r="AQ72" s="68"/>
       <c r="AR72"/>
       <c r="AS72"/>
       <c r="AT72"/>
@@ -72435,48 +72857,48 @@
     </row>
     <row r="73" spans="1:1025" customHeight="1" ht="15">
       <c r="A73"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="69"/>
-      <c r="K73" s="69"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="69"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="69"/>
-      <c r="P73" s="70"/>
-      <c r="Q73" s="70"/>
-      <c r="R73" s="70"/>
-      <c r="S73" s="70"/>
-      <c r="T73" s="70"/>
-      <c r="U73" s="70"/>
-      <c r="V73" s="70"/>
-      <c r="W73" s="70"/>
-      <c r="X73" s="70"/>
-      <c r="Y73" s="70"/>
-      <c r="Z73" s="70"/>
-      <c r="AA73" s="70"/>
-      <c r="AB73" s="70"/>
-      <c r="AC73" s="70"/>
-      <c r="AD73" s="71"/>
-      <c r="AE73" s="71"/>
-      <c r="AF73" s="71"/>
-      <c r="AG73" s="71"/>
-      <c r="AH73" s="71"/>
-      <c r="AI73" s="71"/>
-      <c r="AJ73" s="71"/>
-      <c r="AK73" s="71"/>
-      <c r="AL73" s="71"/>
-      <c r="AM73" s="71"/>
-      <c r="AN73" s="71"/>
-      <c r="AO73" s="71"/>
-      <c r="AP73" s="71"/>
-      <c r="AQ73" s="71"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="67"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="U73" s="67"/>
+      <c r="V73" s="67"/>
+      <c r="W73" s="67"/>
+      <c r="X73" s="67"/>
+      <c r="Y73" s="67"/>
+      <c r="Z73" s="67"/>
+      <c r="AA73" s="67"/>
+      <c r="AB73" s="67"/>
+      <c r="AC73" s="67"/>
+      <c r="AD73" s="68"/>
+      <c r="AE73" s="68"/>
+      <c r="AF73" s="68"/>
+      <c r="AG73" s="68"/>
+      <c r="AH73" s="68"/>
+      <c r="AI73" s="68"/>
+      <c r="AJ73" s="68"/>
+      <c r="AK73" s="68"/>
+      <c r="AL73" s="68"/>
+      <c r="AM73" s="68"/>
+      <c r="AN73" s="68"/>
+      <c r="AO73" s="68"/>
+      <c r="AP73" s="68"/>
+      <c r="AQ73" s="68"/>
       <c r="AR73"/>
       <c r="AS73"/>
       <c r="AT73"/>
@@ -73461,48 +73883,48 @@
     </row>
     <row r="74" spans="1:1025" customHeight="1" ht="15">
       <c r="A74"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="69"/>
-      <c r="N74" s="69"/>
-      <c r="O74" s="69"/>
-      <c r="P74" s="70"/>
-      <c r="Q74" s="70"/>
-      <c r="R74" s="70"/>
-      <c r="S74" s="70"/>
-      <c r="T74" s="70"/>
-      <c r="U74" s="70"/>
-      <c r="V74" s="70"/>
-      <c r="W74" s="70"/>
-      <c r="X74" s="70"/>
-      <c r="Y74" s="70"/>
-      <c r="Z74" s="70"/>
-      <c r="AA74" s="70"/>
-      <c r="AB74" s="70"/>
-      <c r="AC74" s="70"/>
-      <c r="AD74" s="71"/>
-      <c r="AE74" s="71"/>
-      <c r="AF74" s="71"/>
-      <c r="AG74" s="71"/>
-      <c r="AH74" s="71"/>
-      <c r="AI74" s="71"/>
-      <c r="AJ74" s="71"/>
-      <c r="AK74" s="71"/>
-      <c r="AL74" s="71"/>
-      <c r="AM74" s="71"/>
-      <c r="AN74" s="71"/>
-      <c r="AO74" s="71"/>
-      <c r="AP74" s="71"/>
-      <c r="AQ74" s="71"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="67"/>
+      <c r="Q74" s="67"/>
+      <c r="R74" s="67"/>
+      <c r="S74" s="67"/>
+      <c r="T74" s="67"/>
+      <c r="U74" s="67"/>
+      <c r="V74" s="67"/>
+      <c r="W74" s="67"/>
+      <c r="X74" s="67"/>
+      <c r="Y74" s="67"/>
+      <c r="Z74" s="67"/>
+      <c r="AA74" s="67"/>
+      <c r="AB74" s="67"/>
+      <c r="AC74" s="67"/>
+      <c r="AD74" s="68"/>
+      <c r="AE74" s="68"/>
+      <c r="AF74" s="68"/>
+      <c r="AG74" s="68"/>
+      <c r="AH74" s="68"/>
+      <c r="AI74" s="68"/>
+      <c r="AJ74" s="68"/>
+      <c r="AK74" s="68"/>
+      <c r="AL74" s="68"/>
+      <c r="AM74" s="68"/>
+      <c r="AN74" s="68"/>
+      <c r="AO74" s="68"/>
+      <c r="AP74" s="68"/>
+      <c r="AQ74" s="68"/>
       <c r="AR74"/>
       <c r="AS74"/>
       <c r="AT74"/>
@@ -74487,48 +74909,48 @@
     </row>
     <row r="75" spans="1:1025" customHeight="1" ht="15">
       <c r="A75"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="69"/>
-      <c r="K75" s="69"/>
-      <c r="L75" s="69"/>
-      <c r="M75" s="69"/>
-      <c r="N75" s="69"/>
-      <c r="O75" s="69"/>
-      <c r="P75" s="70"/>
-      <c r="Q75" s="70"/>
-      <c r="R75" s="70"/>
-      <c r="S75" s="70"/>
-      <c r="T75" s="70"/>
-      <c r="U75" s="70"/>
-      <c r="V75" s="70"/>
-      <c r="W75" s="70"/>
-      <c r="X75" s="70"/>
-      <c r="Y75" s="70"/>
-      <c r="Z75" s="70"/>
-      <c r="AA75" s="70"/>
-      <c r="AB75" s="70"/>
-      <c r="AC75" s="70"/>
-      <c r="AD75" s="71"/>
-      <c r="AE75" s="71"/>
-      <c r="AF75" s="71"/>
-      <c r="AG75" s="71"/>
-      <c r="AH75" s="71"/>
-      <c r="AI75" s="71"/>
-      <c r="AJ75" s="71"/>
-      <c r="AK75" s="71"/>
-      <c r="AL75" s="71"/>
-      <c r="AM75" s="71"/>
-      <c r="AN75" s="71"/>
-      <c r="AO75" s="71"/>
-      <c r="AP75" s="71"/>
-      <c r="AQ75" s="71"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="67"/>
+      <c r="Q75" s="67"/>
+      <c r="R75" s="67"/>
+      <c r="S75" s="67"/>
+      <c r="T75" s="67"/>
+      <c r="U75" s="67"/>
+      <c r="V75" s="67"/>
+      <c r="W75" s="67"/>
+      <c r="X75" s="67"/>
+      <c r="Y75" s="67"/>
+      <c r="Z75" s="67"/>
+      <c r="AA75" s="67"/>
+      <c r="AB75" s="67"/>
+      <c r="AC75" s="67"/>
+      <c r="AD75" s="68"/>
+      <c r="AE75" s="68"/>
+      <c r="AF75" s="68"/>
+      <c r="AG75" s="68"/>
+      <c r="AH75" s="68"/>
+      <c r="AI75" s="68"/>
+      <c r="AJ75" s="68"/>
+      <c r="AK75" s="68"/>
+      <c r="AL75" s="68"/>
+      <c r="AM75" s="68"/>
+      <c r="AN75" s="68"/>
+      <c r="AO75" s="68"/>
+      <c r="AP75" s="68"/>
+      <c r="AQ75" s="68"/>
       <c r="AR75"/>
       <c r="AS75"/>
       <c r="AT75"/>
@@ -75513,48 +75935,48 @@
     </row>
     <row r="76" spans="1:1025" customHeight="1" ht="15">
       <c r="A76"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="69"/>
-      <c r="P76" s="70"/>
-      <c r="Q76" s="70"/>
-      <c r="R76" s="70"/>
-      <c r="S76" s="70"/>
-      <c r="T76" s="70"/>
-      <c r="U76" s="70"/>
-      <c r="V76" s="70"/>
-      <c r="W76" s="70"/>
-      <c r="X76" s="70"/>
-      <c r="Y76" s="70"/>
-      <c r="Z76" s="70"/>
-      <c r="AA76" s="70"/>
-      <c r="AB76" s="70"/>
-      <c r="AC76" s="70"/>
-      <c r="AD76" s="71"/>
-      <c r="AE76" s="71"/>
-      <c r="AF76" s="71"/>
-      <c r="AG76" s="71"/>
-      <c r="AH76" s="71"/>
-      <c r="AI76" s="71"/>
-      <c r="AJ76" s="71"/>
-      <c r="AK76" s="71"/>
-      <c r="AL76" s="71"/>
-      <c r="AM76" s="71"/>
-      <c r="AN76" s="71"/>
-      <c r="AO76" s="71"/>
-      <c r="AP76" s="71"/>
-      <c r="AQ76" s="71"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="66"/>
+      <c r="N76" s="66"/>
+      <c r="O76" s="66"/>
+      <c r="P76" s="67"/>
+      <c r="Q76" s="67"/>
+      <c r="R76" s="67"/>
+      <c r="S76" s="67"/>
+      <c r="T76" s="67"/>
+      <c r="U76" s="67"/>
+      <c r="V76" s="67"/>
+      <c r="W76" s="67"/>
+      <c r="X76" s="67"/>
+      <c r="Y76" s="67"/>
+      <c r="Z76" s="67"/>
+      <c r="AA76" s="67"/>
+      <c r="AB76" s="67"/>
+      <c r="AC76" s="67"/>
+      <c r="AD76" s="68"/>
+      <c r="AE76" s="68"/>
+      <c r="AF76" s="68"/>
+      <c r="AG76" s="68"/>
+      <c r="AH76" s="68"/>
+      <c r="AI76" s="68"/>
+      <c r="AJ76" s="68"/>
+      <c r="AK76" s="68"/>
+      <c r="AL76" s="68"/>
+      <c r="AM76" s="68"/>
+      <c r="AN76" s="68"/>
+      <c r="AO76" s="68"/>
+      <c r="AP76" s="68"/>
+      <c r="AQ76" s="68"/>
       <c r="AR76"/>
       <c r="AS76"/>
       <c r="AT76"/>
@@ -76537,139 +76959,3261 @@
       <c r="AMI76"/>
       <c r="AMJ76"/>
     </row>
-    <row r="77" spans="1:1025" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="B77" s="69"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="69"/>
-      <c r="N77" s="69"/>
-      <c r="O77" s="69"/>
-      <c r="P77" s="70"/>
-      <c r="Q77" s="70"/>
-      <c r="R77" s="70"/>
-      <c r="S77" s="70"/>
-      <c r="T77" s="70"/>
-      <c r="U77" s="70"/>
-      <c r="V77" s="70"/>
-      <c r="W77" s="70"/>
-      <c r="X77" s="70"/>
-      <c r="Y77" s="70"/>
-      <c r="Z77" s="70"/>
-      <c r="AA77" s="70"/>
-      <c r="AB77" s="70"/>
-      <c r="AC77" s="70"/>
-      <c r="AD77" s="71"/>
-      <c r="AE77" s="71"/>
-      <c r="AF77" s="71"/>
-      <c r="AG77" s="71"/>
-      <c r="AH77" s="71"/>
-      <c r="AI77" s="71"/>
-      <c r="AJ77" s="71"/>
-      <c r="AK77" s="71"/>
-      <c r="AL77" s="71"/>
-      <c r="AM77" s="71"/>
-      <c r="AN77" s="71"/>
-      <c r="AO77" s="71"/>
-      <c r="AP77" s="71"/>
-      <c r="AQ77" s="71"/>
+    <row r="77" spans="1:1025" customHeight="1" ht="15">
+      <c r="A77"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
+      <c r="O77" s="66"/>
+      <c r="P77" s="67"/>
+      <c r="Q77" s="67"/>
+      <c r="R77" s="67"/>
+      <c r="S77" s="67"/>
+      <c r="T77" s="67"/>
+      <c r="U77" s="67"/>
+      <c r="V77" s="67"/>
+      <c r="W77" s="67"/>
+      <c r="X77" s="67"/>
+      <c r="Y77" s="67"/>
+      <c r="Z77" s="67"/>
+      <c r="AA77" s="67"/>
+      <c r="AB77" s="67"/>
+      <c r="AC77" s="67"/>
+      <c r="AD77" s="68"/>
+      <c r="AE77" s="68"/>
+      <c r="AF77" s="68"/>
+      <c r="AG77" s="68"/>
+      <c r="AH77" s="68"/>
+      <c r="AI77" s="68"/>
+      <c r="AJ77" s="68"/>
+      <c r="AK77" s="68"/>
+      <c r="AL77" s="68"/>
+      <c r="AM77" s="68"/>
+      <c r="AN77" s="68"/>
+      <c r="AO77" s="68"/>
+      <c r="AP77" s="68"/>
+      <c r="AQ77" s="68"/>
+      <c r="AR77"/>
+      <c r="AS77"/>
+      <c r="AT77"/>
+      <c r="AU77"/>
+      <c r="AV77"/>
+      <c r="AW77"/>
+      <c r="AX77"/>
+      <c r="AY77"/>
+      <c r="AZ77"/>
+      <c r="BA77"/>
+      <c r="BB77"/>
+      <c r="BC77"/>
+      <c r="BD77"/>
+      <c r="BE77"/>
+      <c r="BF77"/>
+      <c r="BG77"/>
+      <c r="BH77"/>
+      <c r="BI77"/>
+      <c r="BJ77"/>
+      <c r="BK77"/>
+      <c r="BL77"/>
+      <c r="BM77"/>
+      <c r="BN77"/>
+      <c r="BO77"/>
+      <c r="BP77"/>
+      <c r="BQ77"/>
+      <c r="BR77"/>
+      <c r="BS77"/>
+      <c r="BT77"/>
+      <c r="BU77"/>
+      <c r="BV77"/>
+      <c r="BW77"/>
+      <c r="BX77"/>
+      <c r="BY77"/>
+      <c r="BZ77"/>
+      <c r="CA77"/>
+      <c r="CB77"/>
+      <c r="CC77"/>
+      <c r="CD77"/>
+      <c r="CE77"/>
+      <c r="CF77"/>
+      <c r="CG77"/>
+      <c r="CH77"/>
+      <c r="CI77"/>
+      <c r="CJ77"/>
+      <c r="CK77"/>
+      <c r="CL77"/>
+      <c r="CM77"/>
+      <c r="CN77"/>
+      <c r="CO77"/>
+      <c r="CP77"/>
+      <c r="CQ77"/>
+      <c r="CR77"/>
+      <c r="CS77"/>
+      <c r="CT77"/>
+      <c r="CU77"/>
+      <c r="CV77"/>
+      <c r="CW77"/>
+      <c r="CX77"/>
+      <c r="CY77"/>
+      <c r="CZ77"/>
+      <c r="DA77"/>
+      <c r="DB77"/>
+      <c r="DC77"/>
+      <c r="DD77"/>
+      <c r="DE77"/>
+      <c r="DF77"/>
+      <c r="DG77"/>
+      <c r="DH77"/>
+      <c r="DI77"/>
+      <c r="DJ77"/>
+      <c r="DK77"/>
+      <c r="DL77"/>
+      <c r="DM77"/>
+      <c r="DN77"/>
+      <c r="DO77"/>
+      <c r="DP77"/>
+      <c r="DQ77"/>
+      <c r="DR77"/>
+      <c r="DS77"/>
+      <c r="DT77"/>
+      <c r="DU77"/>
+      <c r="DV77"/>
+      <c r="DW77"/>
+      <c r="DX77"/>
+      <c r="DY77"/>
+      <c r="DZ77"/>
+      <c r="EA77"/>
+      <c r="EB77"/>
+      <c r="EC77"/>
+      <c r="ED77"/>
+      <c r="EE77"/>
+      <c r="EF77"/>
+      <c r="EG77"/>
+      <c r="EH77"/>
+      <c r="EI77"/>
+      <c r="EJ77"/>
+      <c r="EK77"/>
+      <c r="EL77"/>
+      <c r="EM77"/>
+      <c r="EN77"/>
+      <c r="EO77"/>
+      <c r="EP77"/>
+      <c r="EQ77"/>
+      <c r="ER77"/>
+      <c r="ES77"/>
+      <c r="ET77"/>
+      <c r="EU77"/>
+      <c r="EV77"/>
+      <c r="EW77"/>
+      <c r="EX77"/>
+      <c r="EY77"/>
+      <c r="EZ77"/>
+      <c r="FA77"/>
+      <c r="FB77"/>
+      <c r="FC77"/>
+      <c r="FD77"/>
+      <c r="FE77"/>
+      <c r="FF77"/>
+      <c r="FG77"/>
+      <c r="FH77"/>
+      <c r="FI77"/>
+      <c r="FJ77"/>
+      <c r="FK77"/>
+      <c r="FL77"/>
+      <c r="FM77"/>
+      <c r="FN77"/>
+      <c r="FO77"/>
+      <c r="FP77"/>
+      <c r="FQ77"/>
+      <c r="FR77"/>
+      <c r="FS77"/>
+      <c r="FT77"/>
+      <c r="FU77"/>
+      <c r="FV77"/>
+      <c r="FW77"/>
+      <c r="FX77"/>
+      <c r="FY77"/>
+      <c r="FZ77"/>
+      <c r="GA77"/>
+      <c r="GB77"/>
+      <c r="GC77"/>
+      <c r="GD77"/>
+      <c r="GE77"/>
+      <c r="GF77"/>
+      <c r="GG77"/>
+      <c r="GH77"/>
+      <c r="GI77"/>
+      <c r="GJ77"/>
+      <c r="GK77"/>
+      <c r="GL77"/>
+      <c r="GM77"/>
+      <c r="GN77"/>
+      <c r="GO77"/>
+      <c r="GP77"/>
+      <c r="GQ77"/>
+      <c r="GR77"/>
+      <c r="GS77"/>
+      <c r="GT77"/>
+      <c r="GU77"/>
+      <c r="GV77"/>
+      <c r="GW77"/>
+      <c r="GX77"/>
+      <c r="GY77"/>
+      <c r="GZ77"/>
+      <c r="HA77"/>
+      <c r="HB77"/>
+      <c r="HC77"/>
+      <c r="HD77"/>
+      <c r="HE77"/>
+      <c r="HF77"/>
+      <c r="HG77"/>
+      <c r="HH77"/>
+      <c r="HI77"/>
+      <c r="HJ77"/>
+      <c r="HK77"/>
+      <c r="HL77"/>
+      <c r="HM77"/>
+      <c r="HN77"/>
+      <c r="HO77"/>
+      <c r="HP77"/>
+      <c r="HQ77"/>
+      <c r="HR77"/>
+      <c r="HS77"/>
+      <c r="HT77"/>
+      <c r="HU77"/>
+      <c r="HV77"/>
+      <c r="HW77"/>
+      <c r="HX77"/>
+      <c r="HY77"/>
+      <c r="HZ77"/>
+      <c r="IA77"/>
+      <c r="IB77"/>
+      <c r="IC77"/>
+      <c r="ID77"/>
+      <c r="IE77"/>
+      <c r="IF77"/>
+      <c r="IG77"/>
+      <c r="IH77"/>
+      <c r="II77"/>
+      <c r="IJ77"/>
+      <c r="IK77"/>
+      <c r="IL77"/>
+      <c r="IM77"/>
+      <c r="IN77"/>
+      <c r="IO77"/>
+      <c r="IP77"/>
+      <c r="IQ77"/>
+      <c r="IR77"/>
+      <c r="IS77"/>
+      <c r="IT77"/>
+      <c r="IU77"/>
+      <c r="IV77"/>
+      <c r="IW77"/>
+      <c r="IX77"/>
+      <c r="IY77"/>
+      <c r="IZ77"/>
+      <c r="JA77"/>
+      <c r="JB77"/>
+      <c r="JC77"/>
+      <c r="JD77"/>
+      <c r="JE77"/>
+      <c r="JF77"/>
+      <c r="JG77"/>
+      <c r="JH77"/>
+      <c r="JI77"/>
+      <c r="JJ77"/>
+      <c r="JK77"/>
+      <c r="JL77"/>
+      <c r="JM77"/>
+      <c r="JN77"/>
+      <c r="JO77"/>
+      <c r="JP77"/>
+      <c r="JQ77"/>
+      <c r="JR77"/>
+      <c r="JS77"/>
+      <c r="JT77"/>
+      <c r="JU77"/>
+      <c r="JV77"/>
+      <c r="JW77"/>
+      <c r="JX77"/>
+      <c r="JY77"/>
+      <c r="JZ77"/>
+      <c r="KA77"/>
+      <c r="KB77"/>
+      <c r="KC77"/>
+      <c r="KD77"/>
+      <c r="KE77"/>
+      <c r="KF77"/>
+      <c r="KG77"/>
+      <c r="KH77"/>
+      <c r="KI77"/>
+      <c r="KJ77"/>
+      <c r="KK77"/>
+      <c r="KL77"/>
+      <c r="KM77"/>
+      <c r="KN77"/>
+      <c r="KO77"/>
+      <c r="KP77"/>
+      <c r="KQ77"/>
+      <c r="KR77"/>
+      <c r="KS77"/>
+      <c r="KT77"/>
+      <c r="KU77"/>
+      <c r="KV77"/>
+      <c r="KW77"/>
+      <c r="KX77"/>
+      <c r="KY77"/>
+      <c r="KZ77"/>
+      <c r="LA77"/>
+      <c r="LB77"/>
+      <c r="LC77"/>
+      <c r="LD77"/>
+      <c r="LE77"/>
+      <c r="LF77"/>
+      <c r="LG77"/>
+      <c r="LH77"/>
+      <c r="LI77"/>
+      <c r="LJ77"/>
+      <c r="LK77"/>
+      <c r="LL77"/>
+      <c r="LM77"/>
+      <c r="LN77"/>
+      <c r="LO77"/>
+      <c r="LP77"/>
+      <c r="LQ77"/>
+      <c r="LR77"/>
+      <c r="LS77"/>
+      <c r="LT77"/>
+      <c r="LU77"/>
+      <c r="LV77"/>
+      <c r="LW77"/>
+      <c r="LX77"/>
+      <c r="LY77"/>
+      <c r="LZ77"/>
+      <c r="MA77"/>
+      <c r="MB77"/>
+      <c r="MC77"/>
+      <c r="MD77"/>
+      <c r="ME77"/>
+      <c r="MF77"/>
+      <c r="MG77"/>
+      <c r="MH77"/>
+      <c r="MI77"/>
+      <c r="MJ77"/>
+      <c r="MK77"/>
+      <c r="ML77"/>
+      <c r="MM77"/>
+      <c r="MN77"/>
+      <c r="MO77"/>
+      <c r="MP77"/>
+      <c r="MQ77"/>
+      <c r="MR77"/>
+      <c r="MS77"/>
+      <c r="MT77"/>
+      <c r="MU77"/>
+      <c r="MV77"/>
+      <c r="MW77"/>
+      <c r="MX77"/>
+      <c r="MY77"/>
+      <c r="MZ77"/>
+      <c r="NA77"/>
+      <c r="NB77"/>
+      <c r="NC77"/>
+      <c r="ND77"/>
+      <c r="NE77"/>
+      <c r="NF77"/>
+      <c r="NG77"/>
+      <c r="NH77"/>
+      <c r="NI77"/>
+      <c r="NJ77"/>
+      <c r="NK77"/>
+      <c r="NL77"/>
+      <c r="NM77"/>
+      <c r="NN77"/>
+      <c r="NO77"/>
+      <c r="NP77"/>
+      <c r="NQ77"/>
+      <c r="NR77"/>
+      <c r="NS77"/>
+      <c r="NT77"/>
+      <c r="NU77"/>
+      <c r="NV77"/>
+      <c r="NW77"/>
+      <c r="NX77"/>
+      <c r="NY77"/>
+      <c r="NZ77"/>
+      <c r="OA77"/>
+      <c r="OB77"/>
+      <c r="OC77"/>
+      <c r="OD77"/>
+      <c r="OE77"/>
+      <c r="OF77"/>
+      <c r="OG77"/>
+      <c r="OH77"/>
+      <c r="OI77"/>
+      <c r="OJ77"/>
+      <c r="OK77"/>
+      <c r="OL77"/>
+      <c r="OM77"/>
+      <c r="ON77"/>
+      <c r="OO77"/>
+      <c r="OP77"/>
+      <c r="OQ77"/>
+      <c r="OR77"/>
+      <c r="OS77"/>
+      <c r="OT77"/>
+      <c r="OU77"/>
+      <c r="OV77"/>
+      <c r="OW77"/>
+      <c r="OX77"/>
+      <c r="OY77"/>
+      <c r="OZ77"/>
+      <c r="PA77"/>
+      <c r="PB77"/>
+      <c r="PC77"/>
+      <c r="PD77"/>
+      <c r="PE77"/>
+      <c r="PF77"/>
+      <c r="PG77"/>
+      <c r="PH77"/>
+      <c r="PI77"/>
+      <c r="PJ77"/>
+      <c r="PK77"/>
+      <c r="PL77"/>
+      <c r="PM77"/>
+      <c r="PN77"/>
+      <c r="PO77"/>
+      <c r="PP77"/>
+      <c r="PQ77"/>
+      <c r="PR77"/>
+      <c r="PS77"/>
+      <c r="PT77"/>
+      <c r="PU77"/>
+      <c r="PV77"/>
+      <c r="PW77"/>
+      <c r="PX77"/>
+      <c r="PY77"/>
+      <c r="PZ77"/>
+      <c r="QA77"/>
+      <c r="QB77"/>
+      <c r="QC77"/>
+      <c r="QD77"/>
+      <c r="QE77"/>
+      <c r="QF77"/>
+      <c r="QG77"/>
+      <c r="QH77"/>
+      <c r="QI77"/>
+      <c r="QJ77"/>
+      <c r="QK77"/>
+      <c r="QL77"/>
+      <c r="QM77"/>
+      <c r="QN77"/>
+      <c r="QO77"/>
+      <c r="QP77"/>
+      <c r="QQ77"/>
+      <c r="QR77"/>
+      <c r="QS77"/>
+      <c r="QT77"/>
+      <c r="QU77"/>
+      <c r="QV77"/>
+      <c r="QW77"/>
+      <c r="QX77"/>
+      <c r="QY77"/>
+      <c r="QZ77"/>
+      <c r="RA77"/>
+      <c r="RB77"/>
+      <c r="RC77"/>
+      <c r="RD77"/>
+      <c r="RE77"/>
+      <c r="RF77"/>
+      <c r="RG77"/>
+      <c r="RH77"/>
+      <c r="RI77"/>
+      <c r="RJ77"/>
+      <c r="RK77"/>
+      <c r="RL77"/>
+      <c r="RM77"/>
+      <c r="RN77"/>
+      <c r="RO77"/>
+      <c r="RP77"/>
+      <c r="RQ77"/>
+      <c r="RR77"/>
+      <c r="RS77"/>
+      <c r="RT77"/>
+      <c r="RU77"/>
+      <c r="RV77"/>
+      <c r="RW77"/>
+      <c r="RX77"/>
+      <c r="RY77"/>
+      <c r="RZ77"/>
+      <c r="SA77"/>
+      <c r="SB77"/>
+      <c r="SC77"/>
+      <c r="SD77"/>
+      <c r="SE77"/>
+      <c r="SF77"/>
+      <c r="SG77"/>
+      <c r="SH77"/>
+      <c r="SI77"/>
+      <c r="SJ77"/>
+      <c r="SK77"/>
+      <c r="SL77"/>
+      <c r="SM77"/>
+      <c r="SN77"/>
+      <c r="SO77"/>
+      <c r="SP77"/>
+      <c r="SQ77"/>
+      <c r="SR77"/>
+      <c r="SS77"/>
+      <c r="ST77"/>
+      <c r="SU77"/>
+      <c r="SV77"/>
+      <c r="SW77"/>
+      <c r="SX77"/>
+      <c r="SY77"/>
+      <c r="SZ77"/>
+      <c r="TA77"/>
+      <c r="TB77"/>
+      <c r="TC77"/>
+      <c r="TD77"/>
+      <c r="TE77"/>
+      <c r="TF77"/>
+      <c r="TG77"/>
+      <c r="TH77"/>
+      <c r="TI77"/>
+      <c r="TJ77"/>
+      <c r="TK77"/>
+      <c r="TL77"/>
+      <c r="TM77"/>
+      <c r="TN77"/>
+      <c r="TO77"/>
+      <c r="TP77"/>
+      <c r="TQ77"/>
+      <c r="TR77"/>
+      <c r="TS77"/>
+      <c r="TT77"/>
+      <c r="TU77"/>
+      <c r="TV77"/>
+      <c r="TW77"/>
+      <c r="TX77"/>
+      <c r="TY77"/>
+      <c r="TZ77"/>
+      <c r="UA77"/>
+      <c r="UB77"/>
+      <c r="UC77"/>
+      <c r="UD77"/>
+      <c r="UE77"/>
+      <c r="UF77"/>
+      <c r="UG77"/>
+      <c r="UH77"/>
+      <c r="UI77"/>
+      <c r="UJ77"/>
+      <c r="UK77"/>
+      <c r="UL77"/>
+      <c r="UM77"/>
+      <c r="UN77"/>
+      <c r="UO77"/>
+      <c r="UP77"/>
+      <c r="UQ77"/>
+      <c r="UR77"/>
+      <c r="US77"/>
+      <c r="UT77"/>
+      <c r="UU77"/>
+      <c r="UV77"/>
+      <c r="UW77"/>
+      <c r="UX77"/>
+      <c r="UY77"/>
+      <c r="UZ77"/>
+      <c r="VA77"/>
+      <c r="VB77"/>
+      <c r="VC77"/>
+      <c r="VD77"/>
+      <c r="VE77"/>
+      <c r="VF77"/>
+      <c r="VG77"/>
+      <c r="VH77"/>
+      <c r="VI77"/>
+      <c r="VJ77"/>
+      <c r="VK77"/>
+      <c r="VL77"/>
+      <c r="VM77"/>
+      <c r="VN77"/>
+      <c r="VO77"/>
+      <c r="VP77"/>
+      <c r="VQ77"/>
+      <c r="VR77"/>
+      <c r="VS77"/>
+      <c r="VT77"/>
+      <c r="VU77"/>
+      <c r="VV77"/>
+      <c r="VW77"/>
+      <c r="VX77"/>
+      <c r="VY77"/>
+      <c r="VZ77"/>
+      <c r="WA77"/>
+      <c r="WB77"/>
+      <c r="WC77"/>
+      <c r="WD77"/>
+      <c r="WE77"/>
+      <c r="WF77"/>
+      <c r="WG77"/>
+      <c r="WH77"/>
+      <c r="WI77"/>
+      <c r="WJ77"/>
+      <c r="WK77"/>
+      <c r="WL77"/>
+      <c r="WM77"/>
+      <c r="WN77"/>
+      <c r="WO77"/>
+      <c r="WP77"/>
+      <c r="WQ77"/>
+      <c r="WR77"/>
+      <c r="WS77"/>
+      <c r="WT77"/>
+      <c r="WU77"/>
+      <c r="WV77"/>
+      <c r="WW77"/>
+      <c r="WX77"/>
+      <c r="WY77"/>
+      <c r="WZ77"/>
+      <c r="XA77"/>
+      <c r="XB77"/>
+      <c r="XC77"/>
+      <c r="XD77"/>
+      <c r="XE77"/>
+      <c r="XF77"/>
+      <c r="XG77"/>
+      <c r="XH77"/>
+      <c r="XI77"/>
+      <c r="XJ77"/>
+      <c r="XK77"/>
+      <c r="XL77"/>
+      <c r="XM77"/>
+      <c r="XN77"/>
+      <c r="XO77"/>
+      <c r="XP77"/>
+      <c r="XQ77"/>
+      <c r="XR77"/>
+      <c r="XS77"/>
+      <c r="XT77"/>
+      <c r="XU77"/>
+      <c r="XV77"/>
+      <c r="XW77"/>
+      <c r="XX77"/>
+      <c r="XY77"/>
+      <c r="XZ77"/>
+      <c r="YA77"/>
+      <c r="YB77"/>
+      <c r="YC77"/>
+      <c r="YD77"/>
+      <c r="YE77"/>
+      <c r="YF77"/>
+      <c r="YG77"/>
+      <c r="YH77"/>
+      <c r="YI77"/>
+      <c r="YJ77"/>
+      <c r="YK77"/>
+      <c r="YL77"/>
+      <c r="YM77"/>
+      <c r="YN77"/>
+      <c r="YO77"/>
+      <c r="YP77"/>
+      <c r="YQ77"/>
+      <c r="YR77"/>
+      <c r="YS77"/>
+      <c r="YT77"/>
+      <c r="YU77"/>
+      <c r="YV77"/>
+      <c r="YW77"/>
+      <c r="YX77"/>
+      <c r="YY77"/>
+      <c r="YZ77"/>
+      <c r="ZA77"/>
+      <c r="ZB77"/>
+      <c r="ZC77"/>
+      <c r="ZD77"/>
+      <c r="ZE77"/>
+      <c r="ZF77"/>
+      <c r="ZG77"/>
+      <c r="ZH77"/>
+      <c r="ZI77"/>
+      <c r="ZJ77"/>
+      <c r="ZK77"/>
+      <c r="ZL77"/>
+      <c r="ZM77"/>
+      <c r="ZN77"/>
+      <c r="ZO77"/>
+      <c r="ZP77"/>
+      <c r="ZQ77"/>
+      <c r="ZR77"/>
+      <c r="ZS77"/>
+      <c r="ZT77"/>
+      <c r="ZU77"/>
+      <c r="ZV77"/>
+      <c r="ZW77"/>
+      <c r="ZX77"/>
+      <c r="ZY77"/>
+      <c r="ZZ77"/>
+      <c r="AAA77"/>
+      <c r="AAB77"/>
+      <c r="AAC77"/>
+      <c r="AAD77"/>
+      <c r="AAE77"/>
+      <c r="AAF77"/>
+      <c r="AAG77"/>
+      <c r="AAH77"/>
+      <c r="AAI77"/>
+      <c r="AAJ77"/>
+      <c r="AAK77"/>
+      <c r="AAL77"/>
+      <c r="AAM77"/>
+      <c r="AAN77"/>
+      <c r="AAO77"/>
+      <c r="AAP77"/>
+      <c r="AAQ77"/>
+      <c r="AAR77"/>
+      <c r="AAS77"/>
+      <c r="AAT77"/>
+      <c r="AAU77"/>
+      <c r="AAV77"/>
+      <c r="AAW77"/>
+      <c r="AAX77"/>
+      <c r="AAY77"/>
+      <c r="AAZ77"/>
+      <c r="ABA77"/>
+      <c r="ABB77"/>
+      <c r="ABC77"/>
+      <c r="ABD77"/>
+      <c r="ABE77"/>
+      <c r="ABF77"/>
+      <c r="ABG77"/>
+      <c r="ABH77"/>
+      <c r="ABI77"/>
+      <c r="ABJ77"/>
+      <c r="ABK77"/>
+      <c r="ABL77"/>
+      <c r="ABM77"/>
+      <c r="ABN77"/>
+      <c r="ABO77"/>
+      <c r="ABP77"/>
+      <c r="ABQ77"/>
+      <c r="ABR77"/>
+      <c r="ABS77"/>
+      <c r="ABT77"/>
+      <c r="ABU77"/>
+      <c r="ABV77"/>
+      <c r="ABW77"/>
+      <c r="ABX77"/>
+      <c r="ABY77"/>
+      <c r="ABZ77"/>
+      <c r="ACA77"/>
+      <c r="ACB77"/>
+      <c r="ACC77"/>
+      <c r="ACD77"/>
+      <c r="ACE77"/>
+      <c r="ACF77"/>
+      <c r="ACG77"/>
+      <c r="ACH77"/>
+      <c r="ACI77"/>
+      <c r="ACJ77"/>
+      <c r="ACK77"/>
+      <c r="ACL77"/>
+      <c r="ACM77"/>
+      <c r="ACN77"/>
+      <c r="ACO77"/>
+      <c r="ACP77"/>
+      <c r="ACQ77"/>
+      <c r="ACR77"/>
+      <c r="ACS77"/>
+      <c r="ACT77"/>
+      <c r="ACU77"/>
+      <c r="ACV77"/>
+      <c r="ACW77"/>
+      <c r="ACX77"/>
+      <c r="ACY77"/>
+      <c r="ACZ77"/>
+      <c r="ADA77"/>
+      <c r="ADB77"/>
+      <c r="ADC77"/>
+      <c r="ADD77"/>
+      <c r="ADE77"/>
+      <c r="ADF77"/>
+      <c r="ADG77"/>
+      <c r="ADH77"/>
+      <c r="ADI77"/>
+      <c r="ADJ77"/>
+      <c r="ADK77"/>
+      <c r="ADL77"/>
+      <c r="ADM77"/>
+      <c r="ADN77"/>
+      <c r="ADO77"/>
+      <c r="ADP77"/>
+      <c r="ADQ77"/>
+      <c r="ADR77"/>
+      <c r="ADS77"/>
+      <c r="ADT77"/>
+      <c r="ADU77"/>
+      <c r="ADV77"/>
+      <c r="ADW77"/>
+      <c r="ADX77"/>
+      <c r="ADY77"/>
+      <c r="ADZ77"/>
+      <c r="AEA77"/>
+      <c r="AEB77"/>
+      <c r="AEC77"/>
+      <c r="AED77"/>
+      <c r="AEE77"/>
+      <c r="AEF77"/>
+      <c r="AEG77"/>
+      <c r="AEH77"/>
+      <c r="AEI77"/>
+      <c r="AEJ77"/>
+      <c r="AEK77"/>
+      <c r="AEL77"/>
+      <c r="AEM77"/>
+      <c r="AEN77"/>
+      <c r="AEO77"/>
+      <c r="AEP77"/>
+      <c r="AEQ77"/>
+      <c r="AER77"/>
+      <c r="AES77"/>
+      <c r="AET77"/>
+      <c r="AEU77"/>
+      <c r="AEV77"/>
+      <c r="AEW77"/>
+      <c r="AEX77"/>
+      <c r="AEY77"/>
+      <c r="AEZ77"/>
+      <c r="AFA77"/>
+      <c r="AFB77"/>
+      <c r="AFC77"/>
+      <c r="AFD77"/>
+      <c r="AFE77"/>
+      <c r="AFF77"/>
+      <c r="AFG77"/>
+      <c r="AFH77"/>
+      <c r="AFI77"/>
+      <c r="AFJ77"/>
+      <c r="AFK77"/>
+      <c r="AFL77"/>
+      <c r="AFM77"/>
+      <c r="AFN77"/>
+      <c r="AFO77"/>
+      <c r="AFP77"/>
+      <c r="AFQ77"/>
+      <c r="AFR77"/>
+      <c r="AFS77"/>
+      <c r="AFT77"/>
+      <c r="AFU77"/>
+      <c r="AFV77"/>
+      <c r="AFW77"/>
+      <c r="AFX77"/>
+      <c r="AFY77"/>
+      <c r="AFZ77"/>
+      <c r="AGA77"/>
+      <c r="AGB77"/>
+      <c r="AGC77"/>
+      <c r="AGD77"/>
+      <c r="AGE77"/>
+      <c r="AGF77"/>
+      <c r="AGG77"/>
+      <c r="AGH77"/>
+      <c r="AGI77"/>
+      <c r="AGJ77"/>
+      <c r="AGK77"/>
+      <c r="AGL77"/>
+      <c r="AGM77"/>
+      <c r="AGN77"/>
+      <c r="AGO77"/>
+      <c r="AGP77"/>
+      <c r="AGQ77"/>
+      <c r="AGR77"/>
+      <c r="AGS77"/>
+      <c r="AGT77"/>
+      <c r="AGU77"/>
+      <c r="AGV77"/>
+      <c r="AGW77"/>
+      <c r="AGX77"/>
+      <c r="AGY77"/>
+      <c r="AGZ77"/>
+      <c r="AHA77"/>
+      <c r="AHB77"/>
+      <c r="AHC77"/>
+      <c r="AHD77"/>
+      <c r="AHE77"/>
+      <c r="AHF77"/>
+      <c r="AHG77"/>
+      <c r="AHH77"/>
+      <c r="AHI77"/>
+      <c r="AHJ77"/>
+      <c r="AHK77"/>
+      <c r="AHL77"/>
+      <c r="AHM77"/>
+      <c r="AHN77"/>
+      <c r="AHO77"/>
+      <c r="AHP77"/>
+      <c r="AHQ77"/>
+      <c r="AHR77"/>
+      <c r="AHS77"/>
+      <c r="AHT77"/>
+      <c r="AHU77"/>
+      <c r="AHV77"/>
+      <c r="AHW77"/>
+      <c r="AHX77"/>
+      <c r="AHY77"/>
+      <c r="AHZ77"/>
+      <c r="AIA77"/>
+      <c r="AIB77"/>
+      <c r="AIC77"/>
+      <c r="AID77"/>
+      <c r="AIE77"/>
+      <c r="AIF77"/>
+      <c r="AIG77"/>
+      <c r="AIH77"/>
+      <c r="AII77"/>
+      <c r="AIJ77"/>
+      <c r="AIK77"/>
+      <c r="AIL77"/>
+      <c r="AIM77"/>
+      <c r="AIN77"/>
+      <c r="AIO77"/>
+      <c r="AIP77"/>
+      <c r="AIQ77"/>
+      <c r="AIR77"/>
+      <c r="AIS77"/>
+      <c r="AIT77"/>
+      <c r="AIU77"/>
+      <c r="AIV77"/>
+      <c r="AIW77"/>
+      <c r="AIX77"/>
+      <c r="AIY77"/>
+      <c r="AIZ77"/>
+      <c r="AJA77"/>
+      <c r="AJB77"/>
+      <c r="AJC77"/>
+      <c r="AJD77"/>
+      <c r="AJE77"/>
+      <c r="AJF77"/>
+      <c r="AJG77"/>
+      <c r="AJH77"/>
+      <c r="AJI77"/>
+      <c r="AJJ77"/>
+      <c r="AJK77"/>
+      <c r="AJL77"/>
+      <c r="AJM77"/>
+      <c r="AJN77"/>
+      <c r="AJO77"/>
+      <c r="AJP77"/>
+      <c r="AJQ77"/>
+      <c r="AJR77"/>
+      <c r="AJS77"/>
+      <c r="AJT77"/>
+      <c r="AJU77"/>
+      <c r="AJV77"/>
+      <c r="AJW77"/>
+      <c r="AJX77"/>
+      <c r="AJY77"/>
+      <c r="AJZ77"/>
+      <c r="AKA77"/>
+      <c r="AKB77"/>
+      <c r="AKC77"/>
+      <c r="AKD77"/>
+      <c r="AKE77"/>
+      <c r="AKF77"/>
+      <c r="AKG77"/>
+      <c r="AKH77"/>
+      <c r="AKI77"/>
+      <c r="AKJ77"/>
+      <c r="AKK77"/>
+      <c r="AKL77"/>
+      <c r="AKM77"/>
+      <c r="AKN77"/>
+      <c r="AKO77"/>
+      <c r="AKP77"/>
+      <c r="AKQ77"/>
+      <c r="AKR77"/>
+      <c r="AKS77"/>
+      <c r="AKT77"/>
+      <c r="AKU77"/>
+      <c r="AKV77"/>
+      <c r="AKW77"/>
+      <c r="AKX77"/>
+      <c r="AKY77"/>
+      <c r="AKZ77"/>
+      <c r="ALA77"/>
+      <c r="ALB77"/>
+      <c r="ALC77"/>
+      <c r="ALD77"/>
+      <c r="ALE77"/>
+      <c r="ALF77"/>
+      <c r="ALG77"/>
+      <c r="ALH77"/>
+      <c r="ALI77"/>
+      <c r="ALJ77"/>
+      <c r="ALK77"/>
+      <c r="ALL77"/>
+      <c r="ALM77"/>
+      <c r="ALN77"/>
+      <c r="ALO77"/>
+      <c r="ALP77"/>
+      <c r="ALQ77"/>
+      <c r="ALR77"/>
+      <c r="ALS77"/>
+      <c r="ALT77"/>
+      <c r="ALU77"/>
+      <c r="ALV77"/>
+      <c r="ALW77"/>
+      <c r="ALX77"/>
+      <c r="ALY77"/>
+      <c r="ALZ77"/>
+      <c r="AMA77"/>
+      <c r="AMB77"/>
+      <c r="AMC77"/>
+      <c r="AMD77"/>
+      <c r="AME77"/>
+      <c r="AMF77"/>
+      <c r="AMG77"/>
+      <c r="AMH77"/>
+      <c r="AMI77"/>
+      <c r="AMJ77"/>
     </row>
     <row r="78" spans="1:1025" customHeight="1" ht="15">
-      <c r="B78" s="72"/>
-      <c r="AQ78" s="11"/>
+      <c r="A78"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="67"/>
+      <c r="Q78" s="67"/>
+      <c r="R78" s="67"/>
+      <c r="S78" s="67"/>
+      <c r="T78" s="67"/>
+      <c r="U78" s="67"/>
+      <c r="V78" s="67"/>
+      <c r="W78" s="67"/>
+      <c r="X78" s="67"/>
+      <c r="Y78" s="67"/>
+      <c r="Z78" s="67"/>
+      <c r="AA78" s="67"/>
+      <c r="AB78" s="67"/>
+      <c r="AC78" s="67"/>
+      <c r="AD78" s="68"/>
+      <c r="AE78" s="68"/>
+      <c r="AF78" s="68"/>
+      <c r="AG78" s="68"/>
+      <c r="AH78" s="68"/>
+      <c r="AI78" s="68"/>
+      <c r="AJ78" s="68"/>
+      <c r="AK78" s="68"/>
+      <c r="AL78" s="68"/>
+      <c r="AM78" s="68"/>
+      <c r="AN78" s="68"/>
+      <c r="AO78" s="68"/>
+      <c r="AP78" s="68"/>
+      <c r="AQ78" s="68"/>
+      <c r="AR78"/>
+      <c r="AS78"/>
+      <c r="AT78"/>
+      <c r="AU78"/>
+      <c r="AV78"/>
+      <c r="AW78"/>
+      <c r="AX78"/>
+      <c r="AY78"/>
+      <c r="AZ78"/>
+      <c r="BA78"/>
+      <c r="BB78"/>
+      <c r="BC78"/>
+      <c r="BD78"/>
+      <c r="BE78"/>
+      <c r="BF78"/>
+      <c r="BG78"/>
+      <c r="BH78"/>
+      <c r="BI78"/>
+      <c r="BJ78"/>
+      <c r="BK78"/>
+      <c r="BL78"/>
+      <c r="BM78"/>
+      <c r="BN78"/>
+      <c r="BO78"/>
+      <c r="BP78"/>
+      <c r="BQ78"/>
+      <c r="BR78"/>
+      <c r="BS78"/>
+      <c r="BT78"/>
+      <c r="BU78"/>
+      <c r="BV78"/>
+      <c r="BW78"/>
+      <c r="BX78"/>
+      <c r="BY78"/>
+      <c r="BZ78"/>
+      <c r="CA78"/>
+      <c r="CB78"/>
+      <c r="CC78"/>
+      <c r="CD78"/>
+      <c r="CE78"/>
+      <c r="CF78"/>
+      <c r="CG78"/>
+      <c r="CH78"/>
+      <c r="CI78"/>
+      <c r="CJ78"/>
+      <c r="CK78"/>
+      <c r="CL78"/>
+      <c r="CM78"/>
+      <c r="CN78"/>
+      <c r="CO78"/>
+      <c r="CP78"/>
+      <c r="CQ78"/>
+      <c r="CR78"/>
+      <c r="CS78"/>
+      <c r="CT78"/>
+      <c r="CU78"/>
+      <c r="CV78"/>
+      <c r="CW78"/>
+      <c r="CX78"/>
+      <c r="CY78"/>
+      <c r="CZ78"/>
+      <c r="DA78"/>
+      <c r="DB78"/>
+      <c r="DC78"/>
+      <c r="DD78"/>
+      <c r="DE78"/>
+      <c r="DF78"/>
+      <c r="DG78"/>
+      <c r="DH78"/>
+      <c r="DI78"/>
+      <c r="DJ78"/>
+      <c r="DK78"/>
+      <c r="DL78"/>
+      <c r="DM78"/>
+      <c r="DN78"/>
+      <c r="DO78"/>
+      <c r="DP78"/>
+      <c r="DQ78"/>
+      <c r="DR78"/>
+      <c r="DS78"/>
+      <c r="DT78"/>
+      <c r="DU78"/>
+      <c r="DV78"/>
+      <c r="DW78"/>
+      <c r="DX78"/>
+      <c r="DY78"/>
+      <c r="DZ78"/>
+      <c r="EA78"/>
+      <c r="EB78"/>
+      <c r="EC78"/>
+      <c r="ED78"/>
+      <c r="EE78"/>
+      <c r="EF78"/>
+      <c r="EG78"/>
+      <c r="EH78"/>
+      <c r="EI78"/>
+      <c r="EJ78"/>
+      <c r="EK78"/>
+      <c r="EL78"/>
+      <c r="EM78"/>
+      <c r="EN78"/>
+      <c r="EO78"/>
+      <c r="EP78"/>
+      <c r="EQ78"/>
+      <c r="ER78"/>
+      <c r="ES78"/>
+      <c r="ET78"/>
+      <c r="EU78"/>
+      <c r="EV78"/>
+      <c r="EW78"/>
+      <c r="EX78"/>
+      <c r="EY78"/>
+      <c r="EZ78"/>
+      <c r="FA78"/>
+      <c r="FB78"/>
+      <c r="FC78"/>
+      <c r="FD78"/>
+      <c r="FE78"/>
+      <c r="FF78"/>
+      <c r="FG78"/>
+      <c r="FH78"/>
+      <c r="FI78"/>
+      <c r="FJ78"/>
+      <c r="FK78"/>
+      <c r="FL78"/>
+      <c r="FM78"/>
+      <c r="FN78"/>
+      <c r="FO78"/>
+      <c r="FP78"/>
+      <c r="FQ78"/>
+      <c r="FR78"/>
+      <c r="FS78"/>
+      <c r="FT78"/>
+      <c r="FU78"/>
+      <c r="FV78"/>
+      <c r="FW78"/>
+      <c r="FX78"/>
+      <c r="FY78"/>
+      <c r="FZ78"/>
+      <c r="GA78"/>
+      <c r="GB78"/>
+      <c r="GC78"/>
+      <c r="GD78"/>
+      <c r="GE78"/>
+      <c r="GF78"/>
+      <c r="GG78"/>
+      <c r="GH78"/>
+      <c r="GI78"/>
+      <c r="GJ78"/>
+      <c r="GK78"/>
+      <c r="GL78"/>
+      <c r="GM78"/>
+      <c r="GN78"/>
+      <c r="GO78"/>
+      <c r="GP78"/>
+      <c r="GQ78"/>
+      <c r="GR78"/>
+      <c r="GS78"/>
+      <c r="GT78"/>
+      <c r="GU78"/>
+      <c r="GV78"/>
+      <c r="GW78"/>
+      <c r="GX78"/>
+      <c r="GY78"/>
+      <c r="GZ78"/>
+      <c r="HA78"/>
+      <c r="HB78"/>
+      <c r="HC78"/>
+      <c r="HD78"/>
+      <c r="HE78"/>
+      <c r="HF78"/>
+      <c r="HG78"/>
+      <c r="HH78"/>
+      <c r="HI78"/>
+      <c r="HJ78"/>
+      <c r="HK78"/>
+      <c r="HL78"/>
+      <c r="HM78"/>
+      <c r="HN78"/>
+      <c r="HO78"/>
+      <c r="HP78"/>
+      <c r="HQ78"/>
+      <c r="HR78"/>
+      <c r="HS78"/>
+      <c r="HT78"/>
+      <c r="HU78"/>
+      <c r="HV78"/>
+      <c r="HW78"/>
+      <c r="HX78"/>
+      <c r="HY78"/>
+      <c r="HZ78"/>
+      <c r="IA78"/>
+      <c r="IB78"/>
+      <c r="IC78"/>
+      <c r="ID78"/>
+      <c r="IE78"/>
+      <c r="IF78"/>
+      <c r="IG78"/>
+      <c r="IH78"/>
+      <c r="II78"/>
+      <c r="IJ78"/>
+      <c r="IK78"/>
+      <c r="IL78"/>
+      <c r="IM78"/>
+      <c r="IN78"/>
+      <c r="IO78"/>
+      <c r="IP78"/>
+      <c r="IQ78"/>
+      <c r="IR78"/>
+      <c r="IS78"/>
+      <c r="IT78"/>
+      <c r="IU78"/>
+      <c r="IV78"/>
+      <c r="IW78"/>
+      <c r="IX78"/>
+      <c r="IY78"/>
+      <c r="IZ78"/>
+      <c r="JA78"/>
+      <c r="JB78"/>
+      <c r="JC78"/>
+      <c r="JD78"/>
+      <c r="JE78"/>
+      <c r="JF78"/>
+      <c r="JG78"/>
+      <c r="JH78"/>
+      <c r="JI78"/>
+      <c r="JJ78"/>
+      <c r="JK78"/>
+      <c r="JL78"/>
+      <c r="JM78"/>
+      <c r="JN78"/>
+      <c r="JO78"/>
+      <c r="JP78"/>
+      <c r="JQ78"/>
+      <c r="JR78"/>
+      <c r="JS78"/>
+      <c r="JT78"/>
+      <c r="JU78"/>
+      <c r="JV78"/>
+      <c r="JW78"/>
+      <c r="JX78"/>
+      <c r="JY78"/>
+      <c r="JZ78"/>
+      <c r="KA78"/>
+      <c r="KB78"/>
+      <c r="KC78"/>
+      <c r="KD78"/>
+      <c r="KE78"/>
+      <c r="KF78"/>
+      <c r="KG78"/>
+      <c r="KH78"/>
+      <c r="KI78"/>
+      <c r="KJ78"/>
+      <c r="KK78"/>
+      <c r="KL78"/>
+      <c r="KM78"/>
+      <c r="KN78"/>
+      <c r="KO78"/>
+      <c r="KP78"/>
+      <c r="KQ78"/>
+      <c r="KR78"/>
+      <c r="KS78"/>
+      <c r="KT78"/>
+      <c r="KU78"/>
+      <c r="KV78"/>
+      <c r="KW78"/>
+      <c r="KX78"/>
+      <c r="KY78"/>
+      <c r="KZ78"/>
+      <c r="LA78"/>
+      <c r="LB78"/>
+      <c r="LC78"/>
+      <c r="LD78"/>
+      <c r="LE78"/>
+      <c r="LF78"/>
+      <c r="LG78"/>
+      <c r="LH78"/>
+      <c r="LI78"/>
+      <c r="LJ78"/>
+      <c r="LK78"/>
+      <c r="LL78"/>
+      <c r="LM78"/>
+      <c r="LN78"/>
+      <c r="LO78"/>
+      <c r="LP78"/>
+      <c r="LQ78"/>
+      <c r="LR78"/>
+      <c r="LS78"/>
+      <c r="LT78"/>
+      <c r="LU78"/>
+      <c r="LV78"/>
+      <c r="LW78"/>
+      <c r="LX78"/>
+      <c r="LY78"/>
+      <c r="LZ78"/>
+      <c r="MA78"/>
+      <c r="MB78"/>
+      <c r="MC78"/>
+      <c r="MD78"/>
+      <c r="ME78"/>
+      <c r="MF78"/>
+      <c r="MG78"/>
+      <c r="MH78"/>
+      <c r="MI78"/>
+      <c r="MJ78"/>
+      <c r="MK78"/>
+      <c r="ML78"/>
+      <c r="MM78"/>
+      <c r="MN78"/>
+      <c r="MO78"/>
+      <c r="MP78"/>
+      <c r="MQ78"/>
+      <c r="MR78"/>
+      <c r="MS78"/>
+      <c r="MT78"/>
+      <c r="MU78"/>
+      <c r="MV78"/>
+      <c r="MW78"/>
+      <c r="MX78"/>
+      <c r="MY78"/>
+      <c r="MZ78"/>
+      <c r="NA78"/>
+      <c r="NB78"/>
+      <c r="NC78"/>
+      <c r="ND78"/>
+      <c r="NE78"/>
+      <c r="NF78"/>
+      <c r="NG78"/>
+      <c r="NH78"/>
+      <c r="NI78"/>
+      <c r="NJ78"/>
+      <c r="NK78"/>
+      <c r="NL78"/>
+      <c r="NM78"/>
+      <c r="NN78"/>
+      <c r="NO78"/>
+      <c r="NP78"/>
+      <c r="NQ78"/>
+      <c r="NR78"/>
+      <c r="NS78"/>
+      <c r="NT78"/>
+      <c r="NU78"/>
+      <c r="NV78"/>
+      <c r="NW78"/>
+      <c r="NX78"/>
+      <c r="NY78"/>
+      <c r="NZ78"/>
+      <c r="OA78"/>
+      <c r="OB78"/>
+      <c r="OC78"/>
+      <c r="OD78"/>
+      <c r="OE78"/>
+      <c r="OF78"/>
+      <c r="OG78"/>
+      <c r="OH78"/>
+      <c r="OI78"/>
+      <c r="OJ78"/>
+      <c r="OK78"/>
+      <c r="OL78"/>
+      <c r="OM78"/>
+      <c r="ON78"/>
+      <c r="OO78"/>
+      <c r="OP78"/>
+      <c r="OQ78"/>
+      <c r="OR78"/>
+      <c r="OS78"/>
+      <c r="OT78"/>
+      <c r="OU78"/>
+      <c r="OV78"/>
+      <c r="OW78"/>
+      <c r="OX78"/>
+      <c r="OY78"/>
+      <c r="OZ78"/>
+      <c r="PA78"/>
+      <c r="PB78"/>
+      <c r="PC78"/>
+      <c r="PD78"/>
+      <c r="PE78"/>
+      <c r="PF78"/>
+      <c r="PG78"/>
+      <c r="PH78"/>
+      <c r="PI78"/>
+      <c r="PJ78"/>
+      <c r="PK78"/>
+      <c r="PL78"/>
+      <c r="PM78"/>
+      <c r="PN78"/>
+      <c r="PO78"/>
+      <c r="PP78"/>
+      <c r="PQ78"/>
+      <c r="PR78"/>
+      <c r="PS78"/>
+      <c r="PT78"/>
+      <c r="PU78"/>
+      <c r="PV78"/>
+      <c r="PW78"/>
+      <c r="PX78"/>
+      <c r="PY78"/>
+      <c r="PZ78"/>
+      <c r="QA78"/>
+      <c r="QB78"/>
+      <c r="QC78"/>
+      <c r="QD78"/>
+      <c r="QE78"/>
+      <c r="QF78"/>
+      <c r="QG78"/>
+      <c r="QH78"/>
+      <c r="QI78"/>
+      <c r="QJ78"/>
+      <c r="QK78"/>
+      <c r="QL78"/>
+      <c r="QM78"/>
+      <c r="QN78"/>
+      <c r="QO78"/>
+      <c r="QP78"/>
+      <c r="QQ78"/>
+      <c r="QR78"/>
+      <c r="QS78"/>
+      <c r="QT78"/>
+      <c r="QU78"/>
+      <c r="QV78"/>
+      <c r="QW78"/>
+      <c r="QX78"/>
+      <c r="QY78"/>
+      <c r="QZ78"/>
+      <c r="RA78"/>
+      <c r="RB78"/>
+      <c r="RC78"/>
+      <c r="RD78"/>
+      <c r="RE78"/>
+      <c r="RF78"/>
+      <c r="RG78"/>
+      <c r="RH78"/>
+      <c r="RI78"/>
+      <c r="RJ78"/>
+      <c r="RK78"/>
+      <c r="RL78"/>
+      <c r="RM78"/>
+      <c r="RN78"/>
+      <c r="RO78"/>
+      <c r="RP78"/>
+      <c r="RQ78"/>
+      <c r="RR78"/>
+      <c r="RS78"/>
+      <c r="RT78"/>
+      <c r="RU78"/>
+      <c r="RV78"/>
+      <c r="RW78"/>
+      <c r="RX78"/>
+      <c r="RY78"/>
+      <c r="RZ78"/>
+      <c r="SA78"/>
+      <c r="SB78"/>
+      <c r="SC78"/>
+      <c r="SD78"/>
+      <c r="SE78"/>
+      <c r="SF78"/>
+      <c r="SG78"/>
+      <c r="SH78"/>
+      <c r="SI78"/>
+      <c r="SJ78"/>
+      <c r="SK78"/>
+      <c r="SL78"/>
+      <c r="SM78"/>
+      <c r="SN78"/>
+      <c r="SO78"/>
+      <c r="SP78"/>
+      <c r="SQ78"/>
+      <c r="SR78"/>
+      <c r="SS78"/>
+      <c r="ST78"/>
+      <c r="SU78"/>
+      <c r="SV78"/>
+      <c r="SW78"/>
+      <c r="SX78"/>
+      <c r="SY78"/>
+      <c r="SZ78"/>
+      <c r="TA78"/>
+      <c r="TB78"/>
+      <c r="TC78"/>
+      <c r="TD78"/>
+      <c r="TE78"/>
+      <c r="TF78"/>
+      <c r="TG78"/>
+      <c r="TH78"/>
+      <c r="TI78"/>
+      <c r="TJ78"/>
+      <c r="TK78"/>
+      <c r="TL78"/>
+      <c r="TM78"/>
+      <c r="TN78"/>
+      <c r="TO78"/>
+      <c r="TP78"/>
+      <c r="TQ78"/>
+      <c r="TR78"/>
+      <c r="TS78"/>
+      <c r="TT78"/>
+      <c r="TU78"/>
+      <c r="TV78"/>
+      <c r="TW78"/>
+      <c r="TX78"/>
+      <c r="TY78"/>
+      <c r="TZ78"/>
+      <c r="UA78"/>
+      <c r="UB78"/>
+      <c r="UC78"/>
+      <c r="UD78"/>
+      <c r="UE78"/>
+      <c r="UF78"/>
+      <c r="UG78"/>
+      <c r="UH78"/>
+      <c r="UI78"/>
+      <c r="UJ78"/>
+      <c r="UK78"/>
+      <c r="UL78"/>
+      <c r="UM78"/>
+      <c r="UN78"/>
+      <c r="UO78"/>
+      <c r="UP78"/>
+      <c r="UQ78"/>
+      <c r="UR78"/>
+      <c r="US78"/>
+      <c r="UT78"/>
+      <c r="UU78"/>
+      <c r="UV78"/>
+      <c r="UW78"/>
+      <c r="UX78"/>
+      <c r="UY78"/>
+      <c r="UZ78"/>
+      <c r="VA78"/>
+      <c r="VB78"/>
+      <c r="VC78"/>
+      <c r="VD78"/>
+      <c r="VE78"/>
+      <c r="VF78"/>
+      <c r="VG78"/>
+      <c r="VH78"/>
+      <c r="VI78"/>
+      <c r="VJ78"/>
+      <c r="VK78"/>
+      <c r="VL78"/>
+      <c r="VM78"/>
+      <c r="VN78"/>
+      <c r="VO78"/>
+      <c r="VP78"/>
+      <c r="VQ78"/>
+      <c r="VR78"/>
+      <c r="VS78"/>
+      <c r="VT78"/>
+      <c r="VU78"/>
+      <c r="VV78"/>
+      <c r="VW78"/>
+      <c r="VX78"/>
+      <c r="VY78"/>
+      <c r="VZ78"/>
+      <c r="WA78"/>
+      <c r="WB78"/>
+      <c r="WC78"/>
+      <c r="WD78"/>
+      <c r="WE78"/>
+      <c r="WF78"/>
+      <c r="WG78"/>
+      <c r="WH78"/>
+      <c r="WI78"/>
+      <c r="WJ78"/>
+      <c r="WK78"/>
+      <c r="WL78"/>
+      <c r="WM78"/>
+      <c r="WN78"/>
+      <c r="WO78"/>
+      <c r="WP78"/>
+      <c r="WQ78"/>
+      <c r="WR78"/>
+      <c r="WS78"/>
+      <c r="WT78"/>
+      <c r="WU78"/>
+      <c r="WV78"/>
+      <c r="WW78"/>
+      <c r="WX78"/>
+      <c r="WY78"/>
+      <c r="WZ78"/>
+      <c r="XA78"/>
+      <c r="XB78"/>
+      <c r="XC78"/>
+      <c r="XD78"/>
+      <c r="XE78"/>
+      <c r="XF78"/>
+      <c r="XG78"/>
+      <c r="XH78"/>
+      <c r="XI78"/>
+      <c r="XJ78"/>
+      <c r="XK78"/>
+      <c r="XL78"/>
+      <c r="XM78"/>
+      <c r="XN78"/>
+      <c r="XO78"/>
+      <c r="XP78"/>
+      <c r="XQ78"/>
+      <c r="XR78"/>
+      <c r="XS78"/>
+      <c r="XT78"/>
+      <c r="XU78"/>
+      <c r="XV78"/>
+      <c r="XW78"/>
+      <c r="XX78"/>
+      <c r="XY78"/>
+      <c r="XZ78"/>
+      <c r="YA78"/>
+      <c r="YB78"/>
+      <c r="YC78"/>
+      <c r="YD78"/>
+      <c r="YE78"/>
+      <c r="YF78"/>
+      <c r="YG78"/>
+      <c r="YH78"/>
+      <c r="YI78"/>
+      <c r="YJ78"/>
+      <c r="YK78"/>
+      <c r="YL78"/>
+      <c r="YM78"/>
+      <c r="YN78"/>
+      <c r="YO78"/>
+      <c r="YP78"/>
+      <c r="YQ78"/>
+      <c r="YR78"/>
+      <c r="YS78"/>
+      <c r="YT78"/>
+      <c r="YU78"/>
+      <c r="YV78"/>
+      <c r="YW78"/>
+      <c r="YX78"/>
+      <c r="YY78"/>
+      <c r="YZ78"/>
+      <c r="ZA78"/>
+      <c r="ZB78"/>
+      <c r="ZC78"/>
+      <c r="ZD78"/>
+      <c r="ZE78"/>
+      <c r="ZF78"/>
+      <c r="ZG78"/>
+      <c r="ZH78"/>
+      <c r="ZI78"/>
+      <c r="ZJ78"/>
+      <c r="ZK78"/>
+      <c r="ZL78"/>
+      <c r="ZM78"/>
+      <c r="ZN78"/>
+      <c r="ZO78"/>
+      <c r="ZP78"/>
+      <c r="ZQ78"/>
+      <c r="ZR78"/>
+      <c r="ZS78"/>
+      <c r="ZT78"/>
+      <c r="ZU78"/>
+      <c r="ZV78"/>
+      <c r="ZW78"/>
+      <c r="ZX78"/>
+      <c r="ZY78"/>
+      <c r="ZZ78"/>
+      <c r="AAA78"/>
+      <c r="AAB78"/>
+      <c r="AAC78"/>
+      <c r="AAD78"/>
+      <c r="AAE78"/>
+      <c r="AAF78"/>
+      <c r="AAG78"/>
+      <c r="AAH78"/>
+      <c r="AAI78"/>
+      <c r="AAJ78"/>
+      <c r="AAK78"/>
+      <c r="AAL78"/>
+      <c r="AAM78"/>
+      <c r="AAN78"/>
+      <c r="AAO78"/>
+      <c r="AAP78"/>
+      <c r="AAQ78"/>
+      <c r="AAR78"/>
+      <c r="AAS78"/>
+      <c r="AAT78"/>
+      <c r="AAU78"/>
+      <c r="AAV78"/>
+      <c r="AAW78"/>
+      <c r="AAX78"/>
+      <c r="AAY78"/>
+      <c r="AAZ78"/>
+      <c r="ABA78"/>
+      <c r="ABB78"/>
+      <c r="ABC78"/>
+      <c r="ABD78"/>
+      <c r="ABE78"/>
+      <c r="ABF78"/>
+      <c r="ABG78"/>
+      <c r="ABH78"/>
+      <c r="ABI78"/>
+      <c r="ABJ78"/>
+      <c r="ABK78"/>
+      <c r="ABL78"/>
+      <c r="ABM78"/>
+      <c r="ABN78"/>
+      <c r="ABO78"/>
+      <c r="ABP78"/>
+      <c r="ABQ78"/>
+      <c r="ABR78"/>
+      <c r="ABS78"/>
+      <c r="ABT78"/>
+      <c r="ABU78"/>
+      <c r="ABV78"/>
+      <c r="ABW78"/>
+      <c r="ABX78"/>
+      <c r="ABY78"/>
+      <c r="ABZ78"/>
+      <c r="ACA78"/>
+      <c r="ACB78"/>
+      <c r="ACC78"/>
+      <c r="ACD78"/>
+      <c r="ACE78"/>
+      <c r="ACF78"/>
+      <c r="ACG78"/>
+      <c r="ACH78"/>
+      <c r="ACI78"/>
+      <c r="ACJ78"/>
+      <c r="ACK78"/>
+      <c r="ACL78"/>
+      <c r="ACM78"/>
+      <c r="ACN78"/>
+      <c r="ACO78"/>
+      <c r="ACP78"/>
+      <c r="ACQ78"/>
+      <c r="ACR78"/>
+      <c r="ACS78"/>
+      <c r="ACT78"/>
+      <c r="ACU78"/>
+      <c r="ACV78"/>
+      <c r="ACW78"/>
+      <c r="ACX78"/>
+      <c r="ACY78"/>
+      <c r="ACZ78"/>
+      <c r="ADA78"/>
+      <c r="ADB78"/>
+      <c r="ADC78"/>
+      <c r="ADD78"/>
+      <c r="ADE78"/>
+      <c r="ADF78"/>
+      <c r="ADG78"/>
+      <c r="ADH78"/>
+      <c r="ADI78"/>
+      <c r="ADJ78"/>
+      <c r="ADK78"/>
+      <c r="ADL78"/>
+      <c r="ADM78"/>
+      <c r="ADN78"/>
+      <c r="ADO78"/>
+      <c r="ADP78"/>
+      <c r="ADQ78"/>
+      <c r="ADR78"/>
+      <c r="ADS78"/>
+      <c r="ADT78"/>
+      <c r="ADU78"/>
+      <c r="ADV78"/>
+      <c r="ADW78"/>
+      <c r="ADX78"/>
+      <c r="ADY78"/>
+      <c r="ADZ78"/>
+      <c r="AEA78"/>
+      <c r="AEB78"/>
+      <c r="AEC78"/>
+      <c r="AED78"/>
+      <c r="AEE78"/>
+      <c r="AEF78"/>
+      <c r="AEG78"/>
+      <c r="AEH78"/>
+      <c r="AEI78"/>
+      <c r="AEJ78"/>
+      <c r="AEK78"/>
+      <c r="AEL78"/>
+      <c r="AEM78"/>
+      <c r="AEN78"/>
+      <c r="AEO78"/>
+      <c r="AEP78"/>
+      <c r="AEQ78"/>
+      <c r="AER78"/>
+      <c r="AES78"/>
+      <c r="AET78"/>
+      <c r="AEU78"/>
+      <c r="AEV78"/>
+      <c r="AEW78"/>
+      <c r="AEX78"/>
+      <c r="AEY78"/>
+      <c r="AEZ78"/>
+      <c r="AFA78"/>
+      <c r="AFB78"/>
+      <c r="AFC78"/>
+      <c r="AFD78"/>
+      <c r="AFE78"/>
+      <c r="AFF78"/>
+      <c r="AFG78"/>
+      <c r="AFH78"/>
+      <c r="AFI78"/>
+      <c r="AFJ78"/>
+      <c r="AFK78"/>
+      <c r="AFL78"/>
+      <c r="AFM78"/>
+      <c r="AFN78"/>
+      <c r="AFO78"/>
+      <c r="AFP78"/>
+      <c r="AFQ78"/>
+      <c r="AFR78"/>
+      <c r="AFS78"/>
+      <c r="AFT78"/>
+      <c r="AFU78"/>
+      <c r="AFV78"/>
+      <c r="AFW78"/>
+      <c r="AFX78"/>
+      <c r="AFY78"/>
+      <c r="AFZ78"/>
+      <c r="AGA78"/>
+      <c r="AGB78"/>
+      <c r="AGC78"/>
+      <c r="AGD78"/>
+      <c r="AGE78"/>
+      <c r="AGF78"/>
+      <c r="AGG78"/>
+      <c r="AGH78"/>
+      <c r="AGI78"/>
+      <c r="AGJ78"/>
+      <c r="AGK78"/>
+      <c r="AGL78"/>
+      <c r="AGM78"/>
+      <c r="AGN78"/>
+      <c r="AGO78"/>
+      <c r="AGP78"/>
+      <c r="AGQ78"/>
+      <c r="AGR78"/>
+      <c r="AGS78"/>
+      <c r="AGT78"/>
+      <c r="AGU78"/>
+      <c r="AGV78"/>
+      <c r="AGW78"/>
+      <c r="AGX78"/>
+      <c r="AGY78"/>
+      <c r="AGZ78"/>
+      <c r="AHA78"/>
+      <c r="AHB78"/>
+      <c r="AHC78"/>
+      <c r="AHD78"/>
+      <c r="AHE78"/>
+      <c r="AHF78"/>
+      <c r="AHG78"/>
+      <c r="AHH78"/>
+      <c r="AHI78"/>
+      <c r="AHJ78"/>
+      <c r="AHK78"/>
+      <c r="AHL78"/>
+      <c r="AHM78"/>
+      <c r="AHN78"/>
+      <c r="AHO78"/>
+      <c r="AHP78"/>
+      <c r="AHQ78"/>
+      <c r="AHR78"/>
+      <c r="AHS78"/>
+      <c r="AHT78"/>
+      <c r="AHU78"/>
+      <c r="AHV78"/>
+      <c r="AHW78"/>
+      <c r="AHX78"/>
+      <c r="AHY78"/>
+      <c r="AHZ78"/>
+      <c r="AIA78"/>
+      <c r="AIB78"/>
+      <c r="AIC78"/>
+      <c r="AID78"/>
+      <c r="AIE78"/>
+      <c r="AIF78"/>
+      <c r="AIG78"/>
+      <c r="AIH78"/>
+      <c r="AII78"/>
+      <c r="AIJ78"/>
+      <c r="AIK78"/>
+      <c r="AIL78"/>
+      <c r="AIM78"/>
+      <c r="AIN78"/>
+      <c r="AIO78"/>
+      <c r="AIP78"/>
+      <c r="AIQ78"/>
+      <c r="AIR78"/>
+      <c r="AIS78"/>
+      <c r="AIT78"/>
+      <c r="AIU78"/>
+      <c r="AIV78"/>
+      <c r="AIW78"/>
+      <c r="AIX78"/>
+      <c r="AIY78"/>
+      <c r="AIZ78"/>
+      <c r="AJA78"/>
+      <c r="AJB78"/>
+      <c r="AJC78"/>
+      <c r="AJD78"/>
+      <c r="AJE78"/>
+      <c r="AJF78"/>
+      <c r="AJG78"/>
+      <c r="AJH78"/>
+      <c r="AJI78"/>
+      <c r="AJJ78"/>
+      <c r="AJK78"/>
+      <c r="AJL78"/>
+      <c r="AJM78"/>
+      <c r="AJN78"/>
+      <c r="AJO78"/>
+      <c r="AJP78"/>
+      <c r="AJQ78"/>
+      <c r="AJR78"/>
+      <c r="AJS78"/>
+      <c r="AJT78"/>
+      <c r="AJU78"/>
+      <c r="AJV78"/>
+      <c r="AJW78"/>
+      <c r="AJX78"/>
+      <c r="AJY78"/>
+      <c r="AJZ78"/>
+      <c r="AKA78"/>
+      <c r="AKB78"/>
+      <c r="AKC78"/>
+      <c r="AKD78"/>
+      <c r="AKE78"/>
+      <c r="AKF78"/>
+      <c r="AKG78"/>
+      <c r="AKH78"/>
+      <c r="AKI78"/>
+      <c r="AKJ78"/>
+      <c r="AKK78"/>
+      <c r="AKL78"/>
+      <c r="AKM78"/>
+      <c r="AKN78"/>
+      <c r="AKO78"/>
+      <c r="AKP78"/>
+      <c r="AKQ78"/>
+      <c r="AKR78"/>
+      <c r="AKS78"/>
+      <c r="AKT78"/>
+      <c r="AKU78"/>
+      <c r="AKV78"/>
+      <c r="AKW78"/>
+      <c r="AKX78"/>
+      <c r="AKY78"/>
+      <c r="AKZ78"/>
+      <c r="ALA78"/>
+      <c r="ALB78"/>
+      <c r="ALC78"/>
+      <c r="ALD78"/>
+      <c r="ALE78"/>
+      <c r="ALF78"/>
+      <c r="ALG78"/>
+      <c r="ALH78"/>
+      <c r="ALI78"/>
+      <c r="ALJ78"/>
+      <c r="ALK78"/>
+      <c r="ALL78"/>
+      <c r="ALM78"/>
+      <c r="ALN78"/>
+      <c r="ALO78"/>
+      <c r="ALP78"/>
+      <c r="ALQ78"/>
+      <c r="ALR78"/>
+      <c r="ALS78"/>
+      <c r="ALT78"/>
+      <c r="ALU78"/>
+      <c r="ALV78"/>
+      <c r="ALW78"/>
+      <c r="ALX78"/>
+      <c r="ALY78"/>
+      <c r="ALZ78"/>
+      <c r="AMA78"/>
+      <c r="AMB78"/>
+      <c r="AMC78"/>
+      <c r="AMD78"/>
+      <c r="AME78"/>
+      <c r="AMF78"/>
+      <c r="AMG78"/>
+      <c r="AMH78"/>
+      <c r="AMI78"/>
+      <c r="AMJ78"/>
     </row>
     <row r="79" spans="1:1025" customHeight="1" ht="15">
-      <c r="B79" s="72"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
-      <c r="AA79" s="39"/>
-      <c r="AB79" s="39"/>
-      <c r="AC79" s="39"/>
-      <c r="AD79" s="39"/>
-      <c r="AE79" s="39"/>
-      <c r="AF79" s="39"/>
-      <c r="AG79" s="39"/>
-      <c r="AH79" s="39"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="39"/>
-      <c r="AK79" s="39"/>
-      <c r="AL79" s="10"/>
-      <c r="AP79" s="75">
+      <c r="A79"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="66"/>
+      <c r="M79" s="66"/>
+      <c r="N79" s="66"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="67"/>
+      <c r="Q79" s="67"/>
+      <c r="R79" s="67"/>
+      <c r="S79" s="67"/>
+      <c r="T79" s="67"/>
+      <c r="U79" s="67"/>
+      <c r="V79" s="67"/>
+      <c r="W79" s="67"/>
+      <c r="X79" s="67"/>
+      <c r="Y79" s="67"/>
+      <c r="Z79" s="67"/>
+      <c r="AA79" s="67"/>
+      <c r="AB79" s="67"/>
+      <c r="AC79" s="67"/>
+      <c r="AD79" s="68"/>
+      <c r="AE79" s="68"/>
+      <c r="AF79" s="68"/>
+      <c r="AG79" s="68"/>
+      <c r="AH79" s="68"/>
+      <c r="AI79" s="68"/>
+      <c r="AJ79" s="68"/>
+      <c r="AK79" s="68"/>
+      <c r="AL79" s="68"/>
+      <c r="AM79" s="68"/>
+      <c r="AN79" s="68"/>
+      <c r="AO79" s="68"/>
+      <c r="AP79" s="68"/>
+      <c r="AQ79" s="68"/>
+      <c r="AR79"/>
+      <c r="AS79"/>
+      <c r="AT79"/>
+      <c r="AU79"/>
+      <c r="AV79"/>
+      <c r="AW79"/>
+      <c r="AX79"/>
+      <c r="AY79"/>
+      <c r="AZ79"/>
+      <c r="BA79"/>
+      <c r="BB79"/>
+      <c r="BC79"/>
+      <c r="BD79"/>
+      <c r="BE79"/>
+      <c r="BF79"/>
+      <c r="BG79"/>
+      <c r="BH79"/>
+      <c r="BI79"/>
+      <c r="BJ79"/>
+      <c r="BK79"/>
+      <c r="BL79"/>
+      <c r="BM79"/>
+      <c r="BN79"/>
+      <c r="BO79"/>
+      <c r="BP79"/>
+      <c r="BQ79"/>
+      <c r="BR79"/>
+      <c r="BS79"/>
+      <c r="BT79"/>
+      <c r="BU79"/>
+      <c r="BV79"/>
+      <c r="BW79"/>
+      <c r="BX79"/>
+      <c r="BY79"/>
+      <c r="BZ79"/>
+      <c r="CA79"/>
+      <c r="CB79"/>
+      <c r="CC79"/>
+      <c r="CD79"/>
+      <c r="CE79"/>
+      <c r="CF79"/>
+      <c r="CG79"/>
+      <c r="CH79"/>
+      <c r="CI79"/>
+      <c r="CJ79"/>
+      <c r="CK79"/>
+      <c r="CL79"/>
+      <c r="CM79"/>
+      <c r="CN79"/>
+      <c r="CO79"/>
+      <c r="CP79"/>
+      <c r="CQ79"/>
+      <c r="CR79"/>
+      <c r="CS79"/>
+      <c r="CT79"/>
+      <c r="CU79"/>
+      <c r="CV79"/>
+      <c r="CW79"/>
+      <c r="CX79"/>
+      <c r="CY79"/>
+      <c r="CZ79"/>
+      <c r="DA79"/>
+      <c r="DB79"/>
+      <c r="DC79"/>
+      <c r="DD79"/>
+      <c r="DE79"/>
+      <c r="DF79"/>
+      <c r="DG79"/>
+      <c r="DH79"/>
+      <c r="DI79"/>
+      <c r="DJ79"/>
+      <c r="DK79"/>
+      <c r="DL79"/>
+      <c r="DM79"/>
+      <c r="DN79"/>
+      <c r="DO79"/>
+      <c r="DP79"/>
+      <c r="DQ79"/>
+      <c r="DR79"/>
+      <c r="DS79"/>
+      <c r="DT79"/>
+      <c r="DU79"/>
+      <c r="DV79"/>
+      <c r="DW79"/>
+      <c r="DX79"/>
+      <c r="DY79"/>
+      <c r="DZ79"/>
+      <c r="EA79"/>
+      <c r="EB79"/>
+      <c r="EC79"/>
+      <c r="ED79"/>
+      <c r="EE79"/>
+      <c r="EF79"/>
+      <c r="EG79"/>
+      <c r="EH79"/>
+      <c r="EI79"/>
+      <c r="EJ79"/>
+      <c r="EK79"/>
+      <c r="EL79"/>
+      <c r="EM79"/>
+      <c r="EN79"/>
+      <c r="EO79"/>
+      <c r="EP79"/>
+      <c r="EQ79"/>
+      <c r="ER79"/>
+      <c r="ES79"/>
+      <c r="ET79"/>
+      <c r="EU79"/>
+      <c r="EV79"/>
+      <c r="EW79"/>
+      <c r="EX79"/>
+      <c r="EY79"/>
+      <c r="EZ79"/>
+      <c r="FA79"/>
+      <c r="FB79"/>
+      <c r="FC79"/>
+      <c r="FD79"/>
+      <c r="FE79"/>
+      <c r="FF79"/>
+      <c r="FG79"/>
+      <c r="FH79"/>
+      <c r="FI79"/>
+      <c r="FJ79"/>
+      <c r="FK79"/>
+      <c r="FL79"/>
+      <c r="FM79"/>
+      <c r="FN79"/>
+      <c r="FO79"/>
+      <c r="FP79"/>
+      <c r="FQ79"/>
+      <c r="FR79"/>
+      <c r="FS79"/>
+      <c r="FT79"/>
+      <c r="FU79"/>
+      <c r="FV79"/>
+      <c r="FW79"/>
+      <c r="FX79"/>
+      <c r="FY79"/>
+      <c r="FZ79"/>
+      <c r="GA79"/>
+      <c r="GB79"/>
+      <c r="GC79"/>
+      <c r="GD79"/>
+      <c r="GE79"/>
+      <c r="GF79"/>
+      <c r="GG79"/>
+      <c r="GH79"/>
+      <c r="GI79"/>
+      <c r="GJ79"/>
+      <c r="GK79"/>
+      <c r="GL79"/>
+      <c r="GM79"/>
+      <c r="GN79"/>
+      <c r="GO79"/>
+      <c r="GP79"/>
+      <c r="GQ79"/>
+      <c r="GR79"/>
+      <c r="GS79"/>
+      <c r="GT79"/>
+      <c r="GU79"/>
+      <c r="GV79"/>
+      <c r="GW79"/>
+      <c r="GX79"/>
+      <c r="GY79"/>
+      <c r="GZ79"/>
+      <c r="HA79"/>
+      <c r="HB79"/>
+      <c r="HC79"/>
+      <c r="HD79"/>
+      <c r="HE79"/>
+      <c r="HF79"/>
+      <c r="HG79"/>
+      <c r="HH79"/>
+      <c r="HI79"/>
+      <c r="HJ79"/>
+      <c r="HK79"/>
+      <c r="HL79"/>
+      <c r="HM79"/>
+      <c r="HN79"/>
+      <c r="HO79"/>
+      <c r="HP79"/>
+      <c r="HQ79"/>
+      <c r="HR79"/>
+      <c r="HS79"/>
+      <c r="HT79"/>
+      <c r="HU79"/>
+      <c r="HV79"/>
+      <c r="HW79"/>
+      <c r="HX79"/>
+      <c r="HY79"/>
+      <c r="HZ79"/>
+      <c r="IA79"/>
+      <c r="IB79"/>
+      <c r="IC79"/>
+      <c r="ID79"/>
+      <c r="IE79"/>
+      <c r="IF79"/>
+      <c r="IG79"/>
+      <c r="IH79"/>
+      <c r="II79"/>
+      <c r="IJ79"/>
+      <c r="IK79"/>
+      <c r="IL79"/>
+      <c r="IM79"/>
+      <c r="IN79"/>
+      <c r="IO79"/>
+      <c r="IP79"/>
+      <c r="IQ79"/>
+      <c r="IR79"/>
+      <c r="IS79"/>
+      <c r="IT79"/>
+      <c r="IU79"/>
+      <c r="IV79"/>
+      <c r="IW79"/>
+      <c r="IX79"/>
+      <c r="IY79"/>
+      <c r="IZ79"/>
+      <c r="JA79"/>
+      <c r="JB79"/>
+      <c r="JC79"/>
+      <c r="JD79"/>
+      <c r="JE79"/>
+      <c r="JF79"/>
+      <c r="JG79"/>
+      <c r="JH79"/>
+      <c r="JI79"/>
+      <c r="JJ79"/>
+      <c r="JK79"/>
+      <c r="JL79"/>
+      <c r="JM79"/>
+      <c r="JN79"/>
+      <c r="JO79"/>
+      <c r="JP79"/>
+      <c r="JQ79"/>
+      <c r="JR79"/>
+      <c r="JS79"/>
+      <c r="JT79"/>
+      <c r="JU79"/>
+      <c r="JV79"/>
+      <c r="JW79"/>
+      <c r="JX79"/>
+      <c r="JY79"/>
+      <c r="JZ79"/>
+      <c r="KA79"/>
+      <c r="KB79"/>
+      <c r="KC79"/>
+      <c r="KD79"/>
+      <c r="KE79"/>
+      <c r="KF79"/>
+      <c r="KG79"/>
+      <c r="KH79"/>
+      <c r="KI79"/>
+      <c r="KJ79"/>
+      <c r="KK79"/>
+      <c r="KL79"/>
+      <c r="KM79"/>
+      <c r="KN79"/>
+      <c r="KO79"/>
+      <c r="KP79"/>
+      <c r="KQ79"/>
+      <c r="KR79"/>
+      <c r="KS79"/>
+      <c r="KT79"/>
+      <c r="KU79"/>
+      <c r="KV79"/>
+      <c r="KW79"/>
+      <c r="KX79"/>
+      <c r="KY79"/>
+      <c r="KZ79"/>
+      <c r="LA79"/>
+      <c r="LB79"/>
+      <c r="LC79"/>
+      <c r="LD79"/>
+      <c r="LE79"/>
+      <c r="LF79"/>
+      <c r="LG79"/>
+      <c r="LH79"/>
+      <c r="LI79"/>
+      <c r="LJ79"/>
+      <c r="LK79"/>
+      <c r="LL79"/>
+      <c r="LM79"/>
+      <c r="LN79"/>
+      <c r="LO79"/>
+      <c r="LP79"/>
+      <c r="LQ79"/>
+      <c r="LR79"/>
+      <c r="LS79"/>
+      <c r="LT79"/>
+      <c r="LU79"/>
+      <c r="LV79"/>
+      <c r="LW79"/>
+      <c r="LX79"/>
+      <c r="LY79"/>
+      <c r="LZ79"/>
+      <c r="MA79"/>
+      <c r="MB79"/>
+      <c r="MC79"/>
+      <c r="MD79"/>
+      <c r="ME79"/>
+      <c r="MF79"/>
+      <c r="MG79"/>
+      <c r="MH79"/>
+      <c r="MI79"/>
+      <c r="MJ79"/>
+      <c r="MK79"/>
+      <c r="ML79"/>
+      <c r="MM79"/>
+      <c r="MN79"/>
+      <c r="MO79"/>
+      <c r="MP79"/>
+      <c r="MQ79"/>
+      <c r="MR79"/>
+      <c r="MS79"/>
+      <c r="MT79"/>
+      <c r="MU79"/>
+      <c r="MV79"/>
+      <c r="MW79"/>
+      <c r="MX79"/>
+      <c r="MY79"/>
+      <c r="MZ79"/>
+      <c r="NA79"/>
+      <c r="NB79"/>
+      <c r="NC79"/>
+      <c r="ND79"/>
+      <c r="NE79"/>
+      <c r="NF79"/>
+      <c r="NG79"/>
+      <c r="NH79"/>
+      <c r="NI79"/>
+      <c r="NJ79"/>
+      <c r="NK79"/>
+      <c r="NL79"/>
+      <c r="NM79"/>
+      <c r="NN79"/>
+      <c r="NO79"/>
+      <c r="NP79"/>
+      <c r="NQ79"/>
+      <c r="NR79"/>
+      <c r="NS79"/>
+      <c r="NT79"/>
+      <c r="NU79"/>
+      <c r="NV79"/>
+      <c r="NW79"/>
+      <c r="NX79"/>
+      <c r="NY79"/>
+      <c r="NZ79"/>
+      <c r="OA79"/>
+      <c r="OB79"/>
+      <c r="OC79"/>
+      <c r="OD79"/>
+      <c r="OE79"/>
+      <c r="OF79"/>
+      <c r="OG79"/>
+      <c r="OH79"/>
+      <c r="OI79"/>
+      <c r="OJ79"/>
+      <c r="OK79"/>
+      <c r="OL79"/>
+      <c r="OM79"/>
+      <c r="ON79"/>
+      <c r="OO79"/>
+      <c r="OP79"/>
+      <c r="OQ79"/>
+      <c r="OR79"/>
+      <c r="OS79"/>
+      <c r="OT79"/>
+      <c r="OU79"/>
+      <c r="OV79"/>
+      <c r="OW79"/>
+      <c r="OX79"/>
+      <c r="OY79"/>
+      <c r="OZ79"/>
+      <c r="PA79"/>
+      <c r="PB79"/>
+      <c r="PC79"/>
+      <c r="PD79"/>
+      <c r="PE79"/>
+      <c r="PF79"/>
+      <c r="PG79"/>
+      <c r="PH79"/>
+      <c r="PI79"/>
+      <c r="PJ79"/>
+      <c r="PK79"/>
+      <c r="PL79"/>
+      <c r="PM79"/>
+      <c r="PN79"/>
+      <c r="PO79"/>
+      <c r="PP79"/>
+      <c r="PQ79"/>
+      <c r="PR79"/>
+      <c r="PS79"/>
+      <c r="PT79"/>
+      <c r="PU79"/>
+      <c r="PV79"/>
+      <c r="PW79"/>
+      <c r="PX79"/>
+      <c r="PY79"/>
+      <c r="PZ79"/>
+      <c r="QA79"/>
+      <c r="QB79"/>
+      <c r="QC79"/>
+      <c r="QD79"/>
+      <c r="QE79"/>
+      <c r="QF79"/>
+      <c r="QG79"/>
+      <c r="QH79"/>
+      <c r="QI79"/>
+      <c r="QJ79"/>
+      <c r="QK79"/>
+      <c r="QL79"/>
+      <c r="QM79"/>
+      <c r="QN79"/>
+      <c r="QO79"/>
+      <c r="QP79"/>
+      <c r="QQ79"/>
+      <c r="QR79"/>
+      <c r="QS79"/>
+      <c r="QT79"/>
+      <c r="QU79"/>
+      <c r="QV79"/>
+      <c r="QW79"/>
+      <c r="QX79"/>
+      <c r="QY79"/>
+      <c r="QZ79"/>
+      <c r="RA79"/>
+      <c r="RB79"/>
+      <c r="RC79"/>
+      <c r="RD79"/>
+      <c r="RE79"/>
+      <c r="RF79"/>
+      <c r="RG79"/>
+      <c r="RH79"/>
+      <c r="RI79"/>
+      <c r="RJ79"/>
+      <c r="RK79"/>
+      <c r="RL79"/>
+      <c r="RM79"/>
+      <c r="RN79"/>
+      <c r="RO79"/>
+      <c r="RP79"/>
+      <c r="RQ79"/>
+      <c r="RR79"/>
+      <c r="RS79"/>
+      <c r="RT79"/>
+      <c r="RU79"/>
+      <c r="RV79"/>
+      <c r="RW79"/>
+      <c r="RX79"/>
+      <c r="RY79"/>
+      <c r="RZ79"/>
+      <c r="SA79"/>
+      <c r="SB79"/>
+      <c r="SC79"/>
+      <c r="SD79"/>
+      <c r="SE79"/>
+      <c r="SF79"/>
+      <c r="SG79"/>
+      <c r="SH79"/>
+      <c r="SI79"/>
+      <c r="SJ79"/>
+      <c r="SK79"/>
+      <c r="SL79"/>
+      <c r="SM79"/>
+      <c r="SN79"/>
+      <c r="SO79"/>
+      <c r="SP79"/>
+      <c r="SQ79"/>
+      <c r="SR79"/>
+      <c r="SS79"/>
+      <c r="ST79"/>
+      <c r="SU79"/>
+      <c r="SV79"/>
+      <c r="SW79"/>
+      <c r="SX79"/>
+      <c r="SY79"/>
+      <c r="SZ79"/>
+      <c r="TA79"/>
+      <c r="TB79"/>
+      <c r="TC79"/>
+      <c r="TD79"/>
+      <c r="TE79"/>
+      <c r="TF79"/>
+      <c r="TG79"/>
+      <c r="TH79"/>
+      <c r="TI79"/>
+      <c r="TJ79"/>
+      <c r="TK79"/>
+      <c r="TL79"/>
+      <c r="TM79"/>
+      <c r="TN79"/>
+      <c r="TO79"/>
+      <c r="TP79"/>
+      <c r="TQ79"/>
+      <c r="TR79"/>
+      <c r="TS79"/>
+      <c r="TT79"/>
+      <c r="TU79"/>
+      <c r="TV79"/>
+      <c r="TW79"/>
+      <c r="TX79"/>
+      <c r="TY79"/>
+      <c r="TZ79"/>
+      <c r="UA79"/>
+      <c r="UB79"/>
+      <c r="UC79"/>
+      <c r="UD79"/>
+      <c r="UE79"/>
+      <c r="UF79"/>
+      <c r="UG79"/>
+      <c r="UH79"/>
+      <c r="UI79"/>
+      <c r="UJ79"/>
+      <c r="UK79"/>
+      <c r="UL79"/>
+      <c r="UM79"/>
+      <c r="UN79"/>
+      <c r="UO79"/>
+      <c r="UP79"/>
+      <c r="UQ79"/>
+      <c r="UR79"/>
+      <c r="US79"/>
+      <c r="UT79"/>
+      <c r="UU79"/>
+      <c r="UV79"/>
+      <c r="UW79"/>
+      <c r="UX79"/>
+      <c r="UY79"/>
+      <c r="UZ79"/>
+      <c r="VA79"/>
+      <c r="VB79"/>
+      <c r="VC79"/>
+      <c r="VD79"/>
+      <c r="VE79"/>
+      <c r="VF79"/>
+      <c r="VG79"/>
+      <c r="VH79"/>
+      <c r="VI79"/>
+      <c r="VJ79"/>
+      <c r="VK79"/>
+      <c r="VL79"/>
+      <c r="VM79"/>
+      <c r="VN79"/>
+      <c r="VO79"/>
+      <c r="VP79"/>
+      <c r="VQ79"/>
+      <c r="VR79"/>
+      <c r="VS79"/>
+      <c r="VT79"/>
+      <c r="VU79"/>
+      <c r="VV79"/>
+      <c r="VW79"/>
+      <c r="VX79"/>
+      <c r="VY79"/>
+      <c r="VZ79"/>
+      <c r="WA79"/>
+      <c r="WB79"/>
+      <c r="WC79"/>
+      <c r="WD79"/>
+      <c r="WE79"/>
+      <c r="WF79"/>
+      <c r="WG79"/>
+      <c r="WH79"/>
+      <c r="WI79"/>
+      <c r="WJ79"/>
+      <c r="WK79"/>
+      <c r="WL79"/>
+      <c r="WM79"/>
+      <c r="WN79"/>
+      <c r="WO79"/>
+      <c r="WP79"/>
+      <c r="WQ79"/>
+      <c r="WR79"/>
+      <c r="WS79"/>
+      <c r="WT79"/>
+      <c r="WU79"/>
+      <c r="WV79"/>
+      <c r="WW79"/>
+      <c r="WX79"/>
+      <c r="WY79"/>
+      <c r="WZ79"/>
+      <c r="XA79"/>
+      <c r="XB79"/>
+      <c r="XC79"/>
+      <c r="XD79"/>
+      <c r="XE79"/>
+      <c r="XF79"/>
+      <c r="XG79"/>
+      <c r="XH79"/>
+      <c r="XI79"/>
+      <c r="XJ79"/>
+      <c r="XK79"/>
+      <c r="XL79"/>
+      <c r="XM79"/>
+      <c r="XN79"/>
+      <c r="XO79"/>
+      <c r="XP79"/>
+      <c r="XQ79"/>
+      <c r="XR79"/>
+      <c r="XS79"/>
+      <c r="XT79"/>
+      <c r="XU79"/>
+      <c r="XV79"/>
+      <c r="XW79"/>
+      <c r="XX79"/>
+      <c r="XY79"/>
+      <c r="XZ79"/>
+      <c r="YA79"/>
+      <c r="YB79"/>
+      <c r="YC79"/>
+      <c r="YD79"/>
+      <c r="YE79"/>
+      <c r="YF79"/>
+      <c r="YG79"/>
+      <c r="YH79"/>
+      <c r="YI79"/>
+      <c r="YJ79"/>
+      <c r="YK79"/>
+      <c r="YL79"/>
+      <c r="YM79"/>
+      <c r="YN79"/>
+      <c r="YO79"/>
+      <c r="YP79"/>
+      <c r="YQ79"/>
+      <c r="YR79"/>
+      <c r="YS79"/>
+      <c r="YT79"/>
+      <c r="YU79"/>
+      <c r="YV79"/>
+      <c r="YW79"/>
+      <c r="YX79"/>
+      <c r="YY79"/>
+      <c r="YZ79"/>
+      <c r="ZA79"/>
+      <c r="ZB79"/>
+      <c r="ZC79"/>
+      <c r="ZD79"/>
+      <c r="ZE79"/>
+      <c r="ZF79"/>
+      <c r="ZG79"/>
+      <c r="ZH79"/>
+      <c r="ZI79"/>
+      <c r="ZJ79"/>
+      <c r="ZK79"/>
+      <c r="ZL79"/>
+      <c r="ZM79"/>
+      <c r="ZN79"/>
+      <c r="ZO79"/>
+      <c r="ZP79"/>
+      <c r="ZQ79"/>
+      <c r="ZR79"/>
+      <c r="ZS79"/>
+      <c r="ZT79"/>
+      <c r="ZU79"/>
+      <c r="ZV79"/>
+      <c r="ZW79"/>
+      <c r="ZX79"/>
+      <c r="ZY79"/>
+      <c r="ZZ79"/>
+      <c r="AAA79"/>
+      <c r="AAB79"/>
+      <c r="AAC79"/>
+      <c r="AAD79"/>
+      <c r="AAE79"/>
+      <c r="AAF79"/>
+      <c r="AAG79"/>
+      <c r="AAH79"/>
+      <c r="AAI79"/>
+      <c r="AAJ79"/>
+      <c r="AAK79"/>
+      <c r="AAL79"/>
+      <c r="AAM79"/>
+      <c r="AAN79"/>
+      <c r="AAO79"/>
+      <c r="AAP79"/>
+      <c r="AAQ79"/>
+      <c r="AAR79"/>
+      <c r="AAS79"/>
+      <c r="AAT79"/>
+      <c r="AAU79"/>
+      <c r="AAV79"/>
+      <c r="AAW79"/>
+      <c r="AAX79"/>
+      <c r="AAY79"/>
+      <c r="AAZ79"/>
+      <c r="ABA79"/>
+      <c r="ABB79"/>
+      <c r="ABC79"/>
+      <c r="ABD79"/>
+      <c r="ABE79"/>
+      <c r="ABF79"/>
+      <c r="ABG79"/>
+      <c r="ABH79"/>
+      <c r="ABI79"/>
+      <c r="ABJ79"/>
+      <c r="ABK79"/>
+      <c r="ABL79"/>
+      <c r="ABM79"/>
+      <c r="ABN79"/>
+      <c r="ABO79"/>
+      <c r="ABP79"/>
+      <c r="ABQ79"/>
+      <c r="ABR79"/>
+      <c r="ABS79"/>
+      <c r="ABT79"/>
+      <c r="ABU79"/>
+      <c r="ABV79"/>
+      <c r="ABW79"/>
+      <c r="ABX79"/>
+      <c r="ABY79"/>
+      <c r="ABZ79"/>
+      <c r="ACA79"/>
+      <c r="ACB79"/>
+      <c r="ACC79"/>
+      <c r="ACD79"/>
+      <c r="ACE79"/>
+      <c r="ACF79"/>
+      <c r="ACG79"/>
+      <c r="ACH79"/>
+      <c r="ACI79"/>
+      <c r="ACJ79"/>
+      <c r="ACK79"/>
+      <c r="ACL79"/>
+      <c r="ACM79"/>
+      <c r="ACN79"/>
+      <c r="ACO79"/>
+      <c r="ACP79"/>
+      <c r="ACQ79"/>
+      <c r="ACR79"/>
+      <c r="ACS79"/>
+      <c r="ACT79"/>
+      <c r="ACU79"/>
+      <c r="ACV79"/>
+      <c r="ACW79"/>
+      <c r="ACX79"/>
+      <c r="ACY79"/>
+      <c r="ACZ79"/>
+      <c r="ADA79"/>
+      <c r="ADB79"/>
+      <c r="ADC79"/>
+      <c r="ADD79"/>
+      <c r="ADE79"/>
+      <c r="ADF79"/>
+      <c r="ADG79"/>
+      <c r="ADH79"/>
+      <c r="ADI79"/>
+      <c r="ADJ79"/>
+      <c r="ADK79"/>
+      <c r="ADL79"/>
+      <c r="ADM79"/>
+      <c r="ADN79"/>
+      <c r="ADO79"/>
+      <c r="ADP79"/>
+      <c r="ADQ79"/>
+      <c r="ADR79"/>
+      <c r="ADS79"/>
+      <c r="ADT79"/>
+      <c r="ADU79"/>
+      <c r="ADV79"/>
+      <c r="ADW79"/>
+      <c r="ADX79"/>
+      <c r="ADY79"/>
+      <c r="ADZ79"/>
+      <c r="AEA79"/>
+      <c r="AEB79"/>
+      <c r="AEC79"/>
+      <c r="AED79"/>
+      <c r="AEE79"/>
+      <c r="AEF79"/>
+      <c r="AEG79"/>
+      <c r="AEH79"/>
+      <c r="AEI79"/>
+      <c r="AEJ79"/>
+      <c r="AEK79"/>
+      <c r="AEL79"/>
+      <c r="AEM79"/>
+      <c r="AEN79"/>
+      <c r="AEO79"/>
+      <c r="AEP79"/>
+      <c r="AEQ79"/>
+      <c r="AER79"/>
+      <c r="AES79"/>
+      <c r="AET79"/>
+      <c r="AEU79"/>
+      <c r="AEV79"/>
+      <c r="AEW79"/>
+      <c r="AEX79"/>
+      <c r="AEY79"/>
+      <c r="AEZ79"/>
+      <c r="AFA79"/>
+      <c r="AFB79"/>
+      <c r="AFC79"/>
+      <c r="AFD79"/>
+      <c r="AFE79"/>
+      <c r="AFF79"/>
+      <c r="AFG79"/>
+      <c r="AFH79"/>
+      <c r="AFI79"/>
+      <c r="AFJ79"/>
+      <c r="AFK79"/>
+      <c r="AFL79"/>
+      <c r="AFM79"/>
+      <c r="AFN79"/>
+      <c r="AFO79"/>
+      <c r="AFP79"/>
+      <c r="AFQ79"/>
+      <c r="AFR79"/>
+      <c r="AFS79"/>
+      <c r="AFT79"/>
+      <c r="AFU79"/>
+      <c r="AFV79"/>
+      <c r="AFW79"/>
+      <c r="AFX79"/>
+      <c r="AFY79"/>
+      <c r="AFZ79"/>
+      <c r="AGA79"/>
+      <c r="AGB79"/>
+      <c r="AGC79"/>
+      <c r="AGD79"/>
+      <c r="AGE79"/>
+      <c r="AGF79"/>
+      <c r="AGG79"/>
+      <c r="AGH79"/>
+      <c r="AGI79"/>
+      <c r="AGJ79"/>
+      <c r="AGK79"/>
+      <c r="AGL79"/>
+      <c r="AGM79"/>
+      <c r="AGN79"/>
+      <c r="AGO79"/>
+      <c r="AGP79"/>
+      <c r="AGQ79"/>
+      <c r="AGR79"/>
+      <c r="AGS79"/>
+      <c r="AGT79"/>
+      <c r="AGU79"/>
+      <c r="AGV79"/>
+      <c r="AGW79"/>
+      <c r="AGX79"/>
+      <c r="AGY79"/>
+      <c r="AGZ79"/>
+      <c r="AHA79"/>
+      <c r="AHB79"/>
+      <c r="AHC79"/>
+      <c r="AHD79"/>
+      <c r="AHE79"/>
+      <c r="AHF79"/>
+      <c r="AHG79"/>
+      <c r="AHH79"/>
+      <c r="AHI79"/>
+      <c r="AHJ79"/>
+      <c r="AHK79"/>
+      <c r="AHL79"/>
+      <c r="AHM79"/>
+      <c r="AHN79"/>
+      <c r="AHO79"/>
+      <c r="AHP79"/>
+      <c r="AHQ79"/>
+      <c r="AHR79"/>
+      <c r="AHS79"/>
+      <c r="AHT79"/>
+      <c r="AHU79"/>
+      <c r="AHV79"/>
+      <c r="AHW79"/>
+      <c r="AHX79"/>
+      <c r="AHY79"/>
+      <c r="AHZ79"/>
+      <c r="AIA79"/>
+      <c r="AIB79"/>
+      <c r="AIC79"/>
+      <c r="AID79"/>
+      <c r="AIE79"/>
+      <c r="AIF79"/>
+      <c r="AIG79"/>
+      <c r="AIH79"/>
+      <c r="AII79"/>
+      <c r="AIJ79"/>
+      <c r="AIK79"/>
+      <c r="AIL79"/>
+      <c r="AIM79"/>
+      <c r="AIN79"/>
+      <c r="AIO79"/>
+      <c r="AIP79"/>
+      <c r="AIQ79"/>
+      <c r="AIR79"/>
+      <c r="AIS79"/>
+      <c r="AIT79"/>
+      <c r="AIU79"/>
+      <c r="AIV79"/>
+      <c r="AIW79"/>
+      <c r="AIX79"/>
+      <c r="AIY79"/>
+      <c r="AIZ79"/>
+      <c r="AJA79"/>
+      <c r="AJB79"/>
+      <c r="AJC79"/>
+      <c r="AJD79"/>
+      <c r="AJE79"/>
+      <c r="AJF79"/>
+      <c r="AJG79"/>
+      <c r="AJH79"/>
+      <c r="AJI79"/>
+      <c r="AJJ79"/>
+      <c r="AJK79"/>
+      <c r="AJL79"/>
+      <c r="AJM79"/>
+      <c r="AJN79"/>
+      <c r="AJO79"/>
+      <c r="AJP79"/>
+      <c r="AJQ79"/>
+      <c r="AJR79"/>
+      <c r="AJS79"/>
+      <c r="AJT79"/>
+      <c r="AJU79"/>
+      <c r="AJV79"/>
+      <c r="AJW79"/>
+      <c r="AJX79"/>
+      <c r="AJY79"/>
+      <c r="AJZ79"/>
+      <c r="AKA79"/>
+      <c r="AKB79"/>
+      <c r="AKC79"/>
+      <c r="AKD79"/>
+      <c r="AKE79"/>
+      <c r="AKF79"/>
+      <c r="AKG79"/>
+      <c r="AKH79"/>
+      <c r="AKI79"/>
+      <c r="AKJ79"/>
+      <c r="AKK79"/>
+      <c r="AKL79"/>
+      <c r="AKM79"/>
+      <c r="AKN79"/>
+      <c r="AKO79"/>
+      <c r="AKP79"/>
+      <c r="AKQ79"/>
+      <c r="AKR79"/>
+      <c r="AKS79"/>
+      <c r="AKT79"/>
+      <c r="AKU79"/>
+      <c r="AKV79"/>
+      <c r="AKW79"/>
+      <c r="AKX79"/>
+      <c r="AKY79"/>
+      <c r="AKZ79"/>
+      <c r="ALA79"/>
+      <c r="ALB79"/>
+      <c r="ALC79"/>
+      <c r="ALD79"/>
+      <c r="ALE79"/>
+      <c r="ALF79"/>
+      <c r="ALG79"/>
+      <c r="ALH79"/>
+      <c r="ALI79"/>
+      <c r="ALJ79"/>
+      <c r="ALK79"/>
+      <c r="ALL79"/>
+      <c r="ALM79"/>
+      <c r="ALN79"/>
+      <c r="ALO79"/>
+      <c r="ALP79"/>
+      <c r="ALQ79"/>
+      <c r="ALR79"/>
+      <c r="ALS79"/>
+      <c r="ALT79"/>
+      <c r="ALU79"/>
+      <c r="ALV79"/>
+      <c r="ALW79"/>
+      <c r="ALX79"/>
+      <c r="ALY79"/>
+      <c r="ALZ79"/>
+      <c r="AMA79"/>
+      <c r="AMB79"/>
+      <c r="AMC79"/>
+      <c r="AMD79"/>
+      <c r="AME79"/>
+      <c r="AMF79"/>
+      <c r="AMG79"/>
+      <c r="AMH79"/>
+      <c r="AMI79"/>
+      <c r="AMJ79"/>
+    </row>
+    <row r="80" spans="1:1025" customHeight="1" ht="85.40000000000001" s="10" customFormat="1">
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="66"/>
+      <c r="M80" s="66"/>
+      <c r="N80" s="66"/>
+      <c r="O80" s="66"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="67"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="67"/>
+      <c r="U80" s="67"/>
+      <c r="V80" s="67"/>
+      <c r="W80" s="67"/>
+      <c r="X80" s="67"/>
+      <c r="Y80" s="67"/>
+      <c r="Z80" s="67"/>
+      <c r="AA80" s="67"/>
+      <c r="AB80" s="67"/>
+      <c r="AC80" s="67"/>
+      <c r="AD80" s="68"/>
+      <c r="AE80" s="68"/>
+      <c r="AF80" s="68"/>
+      <c r="AG80" s="68"/>
+      <c r="AH80" s="68"/>
+      <c r="AI80" s="68"/>
+      <c r="AJ80" s="68"/>
+      <c r="AK80" s="68"/>
+      <c r="AL80" s="68"/>
+      <c r="AM80" s="68"/>
+      <c r="AN80" s="68"/>
+      <c r="AO80" s="68"/>
+      <c r="AP80" s="68"/>
+      <c r="AQ80" s="68"/>
+    </row>
+    <row r="81" spans="1:1025" customHeight="1" ht="15">
+      <c r="B81" s="69"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
+      <c r="AL81"/>
+      <c r="AM81"/>
+      <c r="AN81"/>
+      <c r="AO81"/>
+      <c r="AP81"/>
+      <c r="AQ81" s="11"/>
+    </row>
+    <row r="82" spans="1:1025" customHeight="1" ht="15">
+      <c r="B82" s="69"/>
+      <c r="C82"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
+      <c r="Z82" s="39"/>
+      <c r="AA82" s="39"/>
+      <c r="AB82" s="39"/>
+      <c r="AC82" s="39"/>
+      <c r="AD82" s="39"/>
+      <c r="AE82" s="39"/>
+      <c r="AF82" s="39"/>
+      <c r="AG82" s="39"/>
+      <c r="AH82" s="39"/>
+      <c r="AI82" s="39"/>
+      <c r="AJ82" s="39"/>
+      <c r="AK82" s="39"/>
+      <c r="AL82" s="10"/>
+      <c r="AM82"/>
+      <c r="AN82"/>
+      <c r="AO82"/>
+      <c r="AP82" s="72">
         <v>13</v>
       </c>
-      <c r="AQ79" s="75"/>
+      <c r="AQ82" s="72"/>
     </row>
-    <row r="80" spans="1:1025" customHeight="1" ht="15">
-      <c r="B80" s="76"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="77"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="77"/>
-      <c r="P80" s="77"/>
-      <c r="Q80" s="77"/>
-      <c r="R80" s="77"/>
-      <c r="S80" s="77"/>
-      <c r="T80" s="77"/>
-      <c r="U80" s="77"/>
-      <c r="V80" s="77"/>
-      <c r="W80" s="77"/>
-      <c r="X80" s="77"/>
-      <c r="Y80" s="77"/>
-      <c r="Z80" s="77"/>
-      <c r="AA80" s="77"/>
-      <c r="AB80" s="77"/>
-      <c r="AC80" s="77"/>
-      <c r="AD80" s="77"/>
-      <c r="AE80" s="77"/>
-      <c r="AF80" s="77"/>
-      <c r="AG80" s="77"/>
-      <c r="AH80" s="77"/>
-      <c r="AI80" s="77"/>
-      <c r="AJ80" s="77"/>
-      <c r="AK80" s="77"/>
-      <c r="AL80" s="63"/>
-      <c r="AM80" s="63"/>
-      <c r="AN80" s="63"/>
-      <c r="AO80" s="63"/>
-      <c r="AP80" s="75"/>
-      <c r="AQ80" s="75"/>
+    <row r="83" spans="1:1025" customHeight="1" ht="15">
+      <c r="B83" s="73"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="74"/>
+      <c r="Q83" s="74"/>
+      <c r="R83" s="74"/>
+      <c r="S83" s="74"/>
+      <c r="T83" s="74"/>
+      <c r="U83" s="74"/>
+      <c r="V83" s="74"/>
+      <c r="W83" s="74"/>
+      <c r="X83" s="74"/>
+      <c r="Y83" s="74"/>
+      <c r="Z83" s="74"/>
+      <c r="AA83" s="74"/>
+      <c r="AB83" s="74"/>
+      <c r="AC83" s="74"/>
+      <c r="AD83" s="74"/>
+      <c r="AE83" s="74"/>
+      <c r="AF83" s="74"/>
+      <c r="AG83" s="74"/>
+      <c r="AH83" s="74"/>
+      <c r="AI83" s="74"/>
+      <c r="AJ83" s="74"/>
+      <c r="AK83" s="74"/>
+      <c r="AL83" s="75"/>
+      <c r="AM83" s="75"/>
+      <c r="AN83" s="75"/>
+      <c r="AO83" s="75"/>
+      <c r="AP83" s="72"/>
+      <c r="AQ83" s="72"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -76788,26 +80332,29 @@
     <mergeCell ref="AK45:AQ45"/>
     <mergeCell ref="AK46:AQ46"/>
     <mergeCell ref="AK47:AQ47"/>
-    <mergeCell ref="B48:AQ48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="AF49:AQ49"/>
-    <mergeCell ref="B50:O62"/>
-    <mergeCell ref="P50:AC62"/>
-    <mergeCell ref="AD50:AQ62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:AC64"/>
-    <mergeCell ref="AD64:AE64"/>
-    <mergeCell ref="AF64:AQ64"/>
-    <mergeCell ref="B65:O77"/>
-    <mergeCell ref="P65:AC77"/>
-    <mergeCell ref="AD65:AQ77"/>
-    <mergeCell ref="AP79:AQ80"/>
+    <mergeCell ref="AK48:AQ48"/>
+    <mergeCell ref="AK49:AQ49"/>
+    <mergeCell ref="AK50:AQ50"/>
+    <mergeCell ref="B51:AQ51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:AC52"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AF52:AQ52"/>
+    <mergeCell ref="B53:O65"/>
+    <mergeCell ref="P53:AC65"/>
+    <mergeCell ref="AD53:AQ65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:AC67"/>
+    <mergeCell ref="AD67:AE67"/>
+    <mergeCell ref="AF67:AQ67"/>
+    <mergeCell ref="B68:O80"/>
+    <mergeCell ref="P68:AC80"/>
+    <mergeCell ref="AD68:AQ80"/>
+    <mergeCell ref="AP82:AQ83"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId_hyperlink_1"/>
@@ -76823,6 +80370,9 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="50" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ReportOut.xlsx
+++ b/ReportOut.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Fabricación, Montaje, Mantención y Reparación</t>
   </si>
@@ -136,22 +136,25 @@
     <t>Cambio de Caps (60cu)</t>
   </si>
   <si>
+    <t>Marcado de Caps</t>
+  </si>
+  <si>
     <t>30 May, 2017, 2:58 pm</t>
   </si>
   <si>
-    <t>Marcado de Caps</t>
+    <t>Marcado de Caps2</t>
   </si>
   <si>
-    <t>Marcado de Caps 3</t>
+    <t>Marcado de Caps3</t>
   </si>
   <si>
-    <t>Marcado de Caps 4</t>
+    <t>Marcado de Caps4</t>
   </si>
   <si>
-    <t>Marcado de Caps 5</t>
+    <t>Marcado de Caps5</t>
   </si>
   <si>
-    <t>Marcado de Caps 6</t>
+    <t>Marcado de Caps6</t>
   </si>
   <si>
     <t>PARA DETALLES VER EN ESQUEMAS PROXIMA PAGINA</t>
@@ -166,37 +169,37 @@
     <t>1.-</t>
   </si>
   <si>
-    <t>1: Pf</t>
+    <t>Marcado de Caps: Pf</t>
   </si>
   <si>
     <t>2.-</t>
   </si>
   <si>
-    <t>Marcado de Caps: Pf</t>
+    <t>Marcado de Caps2: Pf</t>
   </si>
   <si>
     <t>3.-</t>
   </si>
   <si>
-    <t>Marcado de Caps 3: Pf</t>
+    <t>Marcado de Caps3: Pf</t>
   </si>
   <si>
     <t>4.-</t>
   </si>
   <si>
-    <t>Marcado de Caps 4: Pf</t>
+    <t>Marcado de Caps4: Pf</t>
   </si>
   <si>
     <t>5.-</t>
   </si>
   <si>
-    <t>Marcado de Caps 5: Pf</t>
+    <t>Marcado de Caps5: Pf</t>
   </si>
   <si>
     <t>6.-</t>
   </si>
   <si>
-    <t>Marcado de Caps 6: Pf</t>
+    <t>Marcado de Caps6: Pf</t>
   </si>
   <si>
     <t>REGISTRO FOTOGRÁFICO</t>
@@ -217,10 +220,19 @@
     <t>Foto 4:</t>
   </si>
   <si>
+    <t>leyenda 4</t>
+  </si>
+  <si>
     <t>Foto 5:</t>
   </si>
   <si>
+    <t>leyenda 5</t>
+  </si>
+  <si>
     <t>Foto 6:</t>
+  </si>
+  <si>
+    <t>leyenda 6</t>
   </si>
 </sst>
 </file>
@@ -1164,11 +1176,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:ext cx="2466975" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Foto Trabajo 1" descr="Trabajo 1"/>
@@ -1194,11 +1206,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:ext cx="2466975" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Foto Trabajo 2" descr="Trabajo 2"/>
@@ -1224,11 +1236,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:ext cx="2466975" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Foto Trabajo 3" descr="Trabajo 3"/>
@@ -1254,11 +1266,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:ext cx="2466975" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Foto Trabajo 4" descr="Trabajo 4"/>
@@ -1284,11 +1296,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:ext cx="2466975" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Foto Trabajo 5" descr="Trabajo 5"/>
@@ -1314,11 +1326,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:ext cx="2466975" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Foto Trabajo 6" descr="Trabajo 6"/>
@@ -22286,8 +22298,8 @@
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="39">
-        <v>1</v>
+      <c r="E21" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -22312,7 +22324,7 @@
       <c r="Z21" s="39"/>
       <c r="AA21" s="39"/>
       <c r="AB21" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC21" s="45"/>
       <c r="AD21" s="45"/>
@@ -22320,7 +22332,7 @@
       <c r="AF21" s="45"/>
       <c r="AG21" s="45"/>
       <c r="AH21" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI21" s="45"/>
       <c r="AJ21" s="45"/>
@@ -23321,7 +23333,7 @@
       <c r="C22" s="44"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
@@ -23346,7 +23358,7 @@
       <c r="Z22" s="39"/>
       <c r="AA22" s="39"/>
       <c r="AB22" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC22" s="47"/>
       <c r="AD22" s="47"/>
@@ -23354,7 +23366,7 @@
       <c r="AF22" s="47"/>
       <c r="AG22" s="47"/>
       <c r="AH22" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI22" s="47"/>
       <c r="AJ22" s="47"/>
@@ -24355,7 +24367,7 @@
       <c r="C23" s="44"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
@@ -24380,7 +24392,7 @@
       <c r="Z23" s="39"/>
       <c r="AA23" s="39"/>
       <c r="AB23" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC23" s="47"/>
       <c r="AD23" s="47"/>
@@ -24388,7 +24400,7 @@
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI23" s="47"/>
       <c r="AJ23" s="47"/>
@@ -25388,7 +25400,7 @@
       <c r="C24" s="44"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
@@ -25413,7 +25425,7 @@
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC24" s="47"/>
       <c r="AD24" s="47"/>
@@ -25421,7 +25433,7 @@
       <c r="AF24" s="47"/>
       <c r="AG24" s="47"/>
       <c r="AH24" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI24" s="47"/>
       <c r="AJ24" s="47"/>
@@ -25472,7 +25484,7 @@
       <c r="C25" s="44"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
@@ -25497,7 +25509,7 @@
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
       <c r="AB25" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC25" s="47"/>
       <c r="AD25" s="47"/>
@@ -25505,7 +25517,7 @@
       <c r="AF25" s="47"/>
       <c r="AG25" s="47"/>
       <c r="AH25" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI25" s="47"/>
       <c r="AJ25" s="47"/>
@@ -25557,7 +25569,7 @@
       <c r="C26" s="44"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
@@ -25582,7 +25594,7 @@
       <c r="Z26" s="39"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC26" s="45"/>
       <c r="AD26" s="45"/>
@@ -25590,7 +25602,7 @@
       <c r="AF26" s="45"/>
       <c r="AG26" s="45"/>
       <c r="AH26" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI26" s="45"/>
       <c r="AJ26" s="45"/>
@@ -43004,7 +43016,7 @@
     <row r="43" spans="1:1025" customHeight="1" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
@@ -44032,7 +44044,7 @@
     <row r="44" spans="1:1025" customHeight="1" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -44069,7 +44081,7 @@
       <c r="AI44" s="24"/>
       <c r="AJ44" s="24"/>
       <c r="AK44" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL44" s="25"/>
       <c r="AM44" s="25"/>
@@ -45063,10 +45075,10 @@
       <c r="A45" s="10"/>
       <c r="B45" s="56"/>
       <c r="C45" s="57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E45" s="57"/>
       <c r="F45" s="58"/>
@@ -46093,10 +46105,10 @@
       <c r="A46" s="10"/>
       <c r="B46" s="56"/>
       <c r="C46" s="57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -47123,10 +47135,10 @@
       <c r="A47" s="10"/>
       <c r="B47" s="56"/>
       <c r="C47" s="60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E47" s="60"/>
       <c r="F47" s="60"/>
@@ -48153,10 +48165,10 @@
       <c r="A48" s="10"/>
       <c r="B48" s="56"/>
       <c r="C48" s="60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" s="60"/>
       <c r="F48" s="60"/>
@@ -49183,10 +49195,10 @@
       <c r="A49" s="10"/>
       <c r="B49" s="56"/>
       <c r="C49" s="60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" s="60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
@@ -50213,10 +50225,10 @@
       <c r="A50" s="10"/>
       <c r="B50" s="56"/>
       <c r="C50" s="60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E50" s="60"/>
       <c r="F50" s="60"/>
@@ -51242,7 +51254,7 @@
     <row r="51" spans="1:1025" customHeight="1" ht="15">
       <c r="A51" s="10"/>
       <c r="B51" s="62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -52270,11 +52282,11 @@
     <row r="52" spans="1:1025" customHeight="1" ht="13.25">
       <c r="A52" s="10"/>
       <c r="B52" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="63"/>
       <c r="D52" s="64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="64"/>
@@ -52288,11 +52300,11 @@
       <c r="N52" s="64"/>
       <c r="O52" s="64"/>
       <c r="P52" s="65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q52" s="65"/>
       <c r="R52" s="64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S52" s="64"/>
       <c r="T52" s="64"/>
@@ -52306,11 +52318,11 @@
       <c r="AB52" s="64"/>
       <c r="AC52" s="64"/>
       <c r="AD52" s="65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE52" s="65"/>
       <c r="AF52" s="64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG52" s="64"/>
       <c r="AH52" s="64"/>
@@ -66690,11 +66702,11 @@
     <row r="67" spans="1:1025" customHeight="1" ht="15">
       <c r="A67"/>
       <c r="B67" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67" s="63"/>
       <c r="D67" s="64" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E67" s="64"/>
       <c r="F67" s="64"/>
@@ -66708,11 +66720,11 @@
       <c r="N67" s="64"/>
       <c r="O67" s="64"/>
       <c r="P67" s="65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q67" s="65"/>
       <c r="R67" s="64" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="S67" s="64"/>
       <c r="T67" s="64"/>
@@ -66726,11 +66738,11 @@
       <c r="AB67" s="64"/>
       <c r="AC67" s="64"/>
       <c r="AD67" s="65" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AE67" s="65"/>
       <c r="AF67" s="71" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AG67" s="71"/>
       <c r="AH67" s="71"/>

--- a/ReportOut.xlsx
+++ b/ReportOut.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>Fabricación, Montaje, Mantención y Reparación</t>
   </si>
@@ -127,28 +127,61 @@
     <t>Avance</t>
   </si>
   <si>
-    <t>Cambio de Caps (70cu)</t>
+    <t>dambio de Caps (60cu)</t>
   </si>
   <si>
-    <t>Marcado de Caps2</t>
+    <t>arcado de Caps9</t>
   </si>
   <si>
-    <t>14 May, 2017, 1:58 pm</t>
+    <t>16 May, 2017, 12:14 am</t>
   </si>
   <si>
-    <t>15 May, 2017, 3:58 pm</t>
+    <t>18 May, 2017, 3:58 pm</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Marcado de Caps3</t>
+    <t>arcado de Caps10</t>
   </si>
   <si>
-    <t>16 May, 2017, 1:58 pm</t>
+    <t>16 May, 2017, 12:19 am</t>
   </si>
   <si>
-    <t>18 May, 2017, 3:58 pm</t>
+    <t>18 May, 2017, 1:58 am</t>
+  </si>
+  <si>
+    <t>arcado de Caps1</t>
+  </si>
+  <si>
+    <t>16 May, 2017, 2:58 am</t>
+  </si>
+  <si>
+    <t>arcado de Caps4</t>
+  </si>
+  <si>
+    <t>arcado de Caps5</t>
+  </si>
+  <si>
+    <t>arcado de Caps6</t>
+  </si>
+  <si>
+    <t>arcado de Caps7</t>
+  </si>
+  <si>
+    <t>farcado de Caps1</t>
+  </si>
+  <si>
+    <t>Cambio de Caps (60cu)</t>
+  </si>
+  <si>
+    <t>zarcado de Caps1</t>
+  </si>
+  <si>
+    <t>arcado de Caps8</t>
+  </si>
+  <si>
+    <t>16 May, 2017, 12:14 pm</t>
   </si>
   <si>
     <t>PARA DETALLES VER EN ESQUEMAS PROXIMA PAGINA</t>
@@ -1170,6 +1203,126 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Foto Trabajo 1" descr="Trabajo 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Foto Trabajo 1" descr="Trabajo 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Foto Trabajo 1" descr="Trabajo 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Foto Trabajo 1" descr="Trabajo 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -24195,8 +24348,12 @@
       <c r="A23"/>
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="D23" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
@@ -24219,19 +24376,25 @@
       <c r="Y23" s="39"/>
       <c r="Z23" s="39"/>
       <c r="AA23" s="39"/>
-      <c r="AB23" s="47"/>
+      <c r="AB23" s="47" t="s">
+        <v>40</v>
+      </c>
       <c r="AC23" s="47"/>
       <c r="AD23" s="47"/>
       <c r="AE23" s="47"/>
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
+      <c r="AH23" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="AI23" s="47"/>
       <c r="AJ23" s="47"/>
       <c r="AK23" s="47"/>
       <c r="AL23" s="47"/>
       <c r="AM23" s="47"/>
-      <c r="AN23" s="42"/>
+      <c r="AN23" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="AO23" s="42"/>
       <c r="AP23" s="42"/>
       <c r="AQ23" s="42"/>
@@ -25220,8 +25383,12 @@
     <row r="24" spans="1:1025" customHeight="1" ht="15" s="10" customFormat="1">
       <c r="B24" s="43"/>
       <c r="C24" s="44"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="D24" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -25244,19 +25411,25 @@
       <c r="Y24" s="39"/>
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
-      <c r="AB24" s="47"/>
+      <c r="AB24" s="47" t="s">
+        <v>40</v>
+      </c>
       <c r="AC24" s="47"/>
       <c r="AD24" s="47"/>
       <c r="AE24" s="47"/>
       <c r="AF24" s="47"/>
       <c r="AG24" s="47"/>
-      <c r="AH24" s="47"/>
+      <c r="AH24" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="AI24" s="47"/>
       <c r="AJ24" s="47"/>
       <c r="AK24" s="47"/>
       <c r="AL24" s="47"/>
       <c r="AM24" s="47"/>
-      <c r="AN24" s="42"/>
+      <c r="AN24" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="AO24" s="42"/>
       <c r="AP24" s="42"/>
       <c r="AQ24" s="42"/>
@@ -25296,8 +25469,12 @@
     <row r="25" spans="1:1025" customHeight="1" ht="15" s="10" customFormat="1">
       <c r="B25" s="43"/>
       <c r="C25" s="44"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
@@ -25320,19 +25497,25 @@
       <c r="Y25" s="39"/>
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
-      <c r="AB25" s="47"/>
+      <c r="AB25" s="47" t="s">
+        <v>40</v>
+      </c>
       <c r="AC25" s="47"/>
       <c r="AD25" s="47"/>
       <c r="AE25" s="47"/>
       <c r="AF25" s="47"/>
       <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
+      <c r="AH25" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="AI25" s="47"/>
       <c r="AJ25" s="47"/>
       <c r="AK25" s="47"/>
       <c r="AL25" s="47"/>
       <c r="AM25" s="47"/>
-      <c r="AN25" s="42"/>
+      <c r="AN25" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="AO25" s="42"/>
       <c r="AP25" s="42"/>
       <c r="AQ25" s="42"/>
@@ -25373,8 +25556,12 @@
       <c r="A26" s="10"/>
       <c r="B26" s="43"/>
       <c r="C26" s="44"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="D26" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
@@ -25397,19 +25584,25 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
       <c r="AA26" s="39"/>
-      <c r="AB26" s="45"/>
+      <c r="AB26" s="45" t="s">
+        <v>40</v>
+      </c>
       <c r="AC26" s="45"/>
       <c r="AD26" s="45"/>
       <c r="AE26" s="45"/>
       <c r="AF26" s="45"/>
       <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
+      <c r="AH26" s="45" t="s">
+        <v>34</v>
+      </c>
       <c r="AI26" s="45"/>
       <c r="AJ26" s="45"/>
       <c r="AK26" s="45"/>
       <c r="AL26" s="45"/>
       <c r="AM26" s="45"/>
-      <c r="AN26" s="46"/>
+      <c r="AN26" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="AO26" s="46"/>
       <c r="AP26" s="46"/>
       <c r="AQ26" s="46"/>
@@ -26399,8 +26592,12 @@
       <c r="A27" s="10"/>
       <c r="B27" s="43"/>
       <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="D27" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
@@ -26423,19 +26620,25 @@
       <c r="Y27" s="39"/>
       <c r="Z27" s="39"/>
       <c r="AA27" s="39"/>
-      <c r="AB27" s="47"/>
+      <c r="AB27" s="47" t="s">
+        <v>40</v>
+      </c>
       <c r="AC27" s="47"/>
       <c r="AD27" s="47"/>
       <c r="AE27" s="47"/>
       <c r="AF27" s="47"/>
       <c r="AG27" s="47"/>
-      <c r="AH27" s="47"/>
+      <c r="AH27" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="AI27" s="47"/>
       <c r="AJ27" s="47"/>
       <c r="AK27" s="47"/>
       <c r="AL27" s="47"/>
       <c r="AM27" s="47"/>
-      <c r="AN27" s="42"/>
+      <c r="AN27" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="AO27" s="42"/>
       <c r="AP27" s="42"/>
       <c r="AQ27" s="42"/>
@@ -27425,8 +27628,12 @@
       <c r="A28" s="10"/>
       <c r="B28" s="43"/>
       <c r="C28" s="44"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
@@ -27449,19 +27656,25 @@
       <c r="Y28" s="39"/>
       <c r="Z28" s="39"/>
       <c r="AA28" s="39"/>
-      <c r="AB28" s="45"/>
+      <c r="AB28" s="45" t="s">
+        <v>40</v>
+      </c>
       <c r="AC28" s="45"/>
       <c r="AD28" s="45"/>
       <c r="AE28" s="45"/>
       <c r="AF28" s="45"/>
       <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
+      <c r="AH28" s="45" t="s">
+        <v>34</v>
+      </c>
       <c r="AI28" s="45"/>
       <c r="AJ28" s="45"/>
       <c r="AK28" s="45"/>
       <c r="AL28" s="45"/>
       <c r="AM28" s="45"/>
-      <c r="AN28" s="46"/>
+      <c r="AN28" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="AO28" s="46"/>
       <c r="AP28" s="46"/>
       <c r="AQ28" s="46"/>
@@ -28451,8 +28664,12 @@
       <c r="A29" s="10"/>
       <c r="B29" s="43"/>
       <c r="C29" s="44"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
@@ -28475,19 +28692,25 @@
       <c r="Y29" s="39"/>
       <c r="Z29" s="39"/>
       <c r="AA29" s="39"/>
-      <c r="AB29" s="47"/>
+      <c r="AB29" s="47" t="s">
+        <v>40</v>
+      </c>
       <c r="AC29" s="47"/>
       <c r="AD29" s="47"/>
       <c r="AE29" s="47"/>
       <c r="AF29" s="47"/>
       <c r="AG29" s="47"/>
-      <c r="AH29" s="47"/>
+      <c r="AH29" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="AI29" s="47"/>
       <c r="AJ29" s="47"/>
       <c r="AK29" s="47"/>
       <c r="AL29" s="47"/>
       <c r="AM29" s="47"/>
-      <c r="AN29" s="42"/>
+      <c r="AN29" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="AO29" s="42"/>
       <c r="AP29" s="42"/>
       <c r="AQ29" s="42"/>
@@ -29477,8 +29700,12 @@
       <c r="A30" s="10"/>
       <c r="B30" s="43"/>
       <c r="C30" s="44"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="D30" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
@@ -29501,19 +29728,25 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
       <c r="AA30" s="39"/>
-      <c r="AB30" s="47"/>
+      <c r="AB30" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="AC30" s="47"/>
       <c r="AD30" s="47"/>
       <c r="AE30" s="47"/>
       <c r="AF30" s="47"/>
       <c r="AG30" s="47"/>
-      <c r="AH30" s="48"/>
+      <c r="AH30" s="48" t="s">
+        <v>34</v>
+      </c>
       <c r="AI30" s="48"/>
       <c r="AJ30" s="48"/>
       <c r="AK30" s="48"/>
       <c r="AL30" s="48"/>
       <c r="AM30" s="48"/>
-      <c r="AN30" s="42"/>
+      <c r="AN30" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="AO30" s="42"/>
       <c r="AP30" s="42"/>
       <c r="AQ30" s="42"/>
@@ -42814,7 +43047,7 @@
     <row r="43" spans="1:1025" customHeight="1" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="55" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
@@ -43842,7 +44075,7 @@
     <row r="44" spans="1:1025" customHeight="1" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="24" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -43879,7 +44112,7 @@
       <c r="AI44" s="24"/>
       <c r="AJ44" s="24"/>
       <c r="AK44" s="25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AL44" s="25"/>
       <c r="AM44" s="25"/>
@@ -44873,7 +45106,7 @@
       <c r="A45" s="10"/>
       <c r="B45" s="56"/>
       <c r="C45" s="57" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
@@ -45901,7 +46134,7 @@
       <c r="A46" s="10"/>
       <c r="B46" s="56"/>
       <c r="C46" s="57" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
@@ -46929,7 +47162,7 @@
       <c r="A47" s="10"/>
       <c r="B47" s="56"/>
       <c r="C47" s="57" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
@@ -47956,7 +48189,7 @@
     <row r="48" spans="1:1025" customHeight="1" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="60" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
@@ -48984,11 +49217,11 @@
     <row r="49" spans="1:1025" customHeight="1" ht="13.35">
       <c r="A49" s="10"/>
       <c r="B49" s="61" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C49" s="61"/>
       <c r="D49" s="62" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E49" s="62"/>
       <c r="F49" s="62"/>
@@ -49002,11 +49235,11 @@
       <c r="N49" s="62"/>
       <c r="O49" s="62"/>
       <c r="P49" s="63" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="Q49" s="63"/>
       <c r="R49" s="62" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="S49" s="62"/>
       <c r="T49" s="62"/>
@@ -49020,10 +49253,12 @@
       <c r="AB49" s="62"/>
       <c r="AC49" s="62"/>
       <c r="AD49" s="63" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AE49" s="63"/>
-      <c r="AF49" s="62"/>
+      <c r="AF49" s="62" t="s">
+        <v>58</v>
+      </c>
       <c r="AG49" s="62"/>
       <c r="AH49" s="62"/>
       <c r="AI49" s="62"/>
@@ -63402,10 +63637,12 @@
     <row r="64" spans="1:1025" customHeight="1" ht="15">
       <c r="A64"/>
       <c r="B64" s="61" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
+      <c r="D64" s="62" t="s">
+        <v>58</v>
+      </c>
       <c r="E64" s="62"/>
       <c r="F64" s="62"/>
       <c r="G64" s="62"/>
@@ -63418,10 +63655,12 @@
       <c r="N64" s="62"/>
       <c r="O64" s="62"/>
       <c r="P64" s="63" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Q64" s="63"/>
-      <c r="R64" s="62"/>
+      <c r="R64" s="62" t="s">
+        <v>58</v>
+      </c>
       <c r="S64" s="62"/>
       <c r="T64" s="62"/>
       <c r="U64" s="62"/>
@@ -63434,10 +63673,12 @@
       <c r="AB64" s="62"/>
       <c r="AC64" s="62"/>
       <c r="AD64" s="63" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AE64" s="63"/>
-      <c r="AF64" s="69"/>
+      <c r="AF64" s="69" t="s">
+        <v>58</v>
+      </c>
       <c r="AG64" s="69"/>
       <c r="AH64" s="69"/>
       <c r="AI64" s="69"/>
